--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -441,9 +441,6 @@
     <t>financialCommitmentsRefreshBtn</t>
   </si>
   <si>
-    <t>document.querySelectorAll('[ng-reflect-text="Refresh"]')[4]</t>
-  </si>
-  <si>
     <t>document.querySelector("[aria-label*='Success!']")</t>
   </si>
   <si>
@@ -595,6 +592,405 @@
   </si>
   <si>
     <t>Underwriter_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>offerDecisionPencilEditBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[6]</t>
+  </si>
+  <si>
+    <t>offer_Decision</t>
+  </si>
+  <si>
+    <t>offer_FacilityDetails</t>
+  </si>
+  <si>
+    <t>offer_EligibilityDetails</t>
+  </si>
+  <si>
+    <t>offer_FinanceConfiguration</t>
+  </si>
+  <si>
+    <t>offer_PricingDetails</t>
+  </si>
+  <si>
+    <t>offer_InstalmentDetails</t>
+  </si>
+  <si>
+    <t>offer_ApprovalDetailsHyperlinks</t>
+  </si>
+  <si>
+    <t>decision_ApprovalLevel</t>
+  </si>
+  <si>
+    <t>decision_Underwriter</t>
+  </si>
+  <si>
+    <t>decision_Reviewer</t>
+  </si>
+  <si>
+    <t>decision_DecisionDate</t>
+  </si>
+  <si>
+    <t>decision_DecisionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table th span")[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table th span")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table th span")[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table th span")[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table th span")[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[2].querySelectorAll("table tbody td")[0]</t>
+  </si>
+  <si>
+    <t>decision_ApprovalLevelValue</t>
+  </si>
+  <si>
+    <t>decision_DecisionField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[aria-label*="Accept"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Product"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_ProductLabel</t>
+  </si>
+  <si>
+    <t>facility_ProductInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Sub-Product"]')</t>
+  </si>
+  <si>
+    <t>facility_SubProductLabel</t>
+  </si>
+  <si>
+    <t>facility_SubProductInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Sub-Product"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Scheme"]')</t>
+  </si>
+  <si>
+    <t>facility_SchemeLabel</t>
+  </si>
+  <si>
+    <t>facility_SchemeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Scheme"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Pricing Indicator"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Pricing Indicator"]')</t>
+  </si>
+  <si>
+    <t>facility_PricingIndicatorLabel</t>
+  </si>
+  <si>
+    <t>facility_PricingIndicatorInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Repayment Type"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Repayment Type"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_RepaymentTypeLabel</t>
+  </si>
+  <si>
+    <t>facility_RepaymentTypeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Compute Instalment On"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Compute Instalment On"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_ComputeInstalmentLabel</t>
+  </si>
+  <si>
+    <t>facility_ComputeInstalmentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Principal Frequency"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Principal Frequency"]')</t>
+  </si>
+  <si>
+    <t>facility_PrincipalFrequencyLabel</t>
+  </si>
+  <si>
+    <t>facility_PrincipalFrequencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Interest Frequency"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Interest Frequency"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_InterestFrequencyInput</t>
+  </si>
+  <si>
+    <t>facility_InterestFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Eligible Income"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Eligible Income"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_EligibleIncomeLabel</t>
+  </si>
+  <si>
+    <t>facility_EligibleIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Average Account Balance"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Average Account Balance"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_AverageAccBalanceLabel</t>
+  </si>
+  <si>
+    <t>facility_AverageAccBalanceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Applicable LTV1"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Applicable LTV1"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>facility_ApplicableLTV1Label</t>
+  </si>
+  <si>
+    <t>facility_ApplicableLTV1Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Applicable LTV2"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Applicable LTV2"]')</t>
+  </si>
+  <si>
+    <t>facility_ApplicableLTV2Label</t>
+  </si>
+  <si>
+    <t>facility_ApplicableLTV2Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Requested Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Requested Amount"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>Finance_RequestAmountInput</t>
+  </si>
+  <si>
+    <t>Finance_RequestAmountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Requested Tenure"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Requested Tenure"]')</t>
+  </si>
+  <si>
+    <t>Finance_RequestTenureLabel</t>
+  </si>
+  <si>
+    <t>Finance_RequestTenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Offered Amount"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Offered Amount"]')</t>
+  </si>
+  <si>
+    <t>Finance_OfferedAmountLabel</t>
+  </si>
+  <si>
+    <t>Finance_OfferedAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Offered Tenure"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Offered Tenure"]')</t>
+  </si>
+  <si>
+    <t>Finance_OfferedTenureLabel</t>
+  </si>
+  <si>
+    <t>Finance_OfferedTenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Deviation Amount"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Deviation Amount"]')</t>
+  </si>
+  <si>
+    <t>Finance_DeviationAmountLabel</t>
+  </si>
+  <si>
+    <t>Finance_DeviationAmountInput</t>
+  </si>
+  <si>
+    <t>Finance_DeviationTenureLabel</t>
+  </si>
+  <si>
+    <t>Finance_DeviationTenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Deviation Tenure"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Deviation Tenure"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[4]</t>
+  </si>
+  <si>
+    <t>Pricing_Period</t>
+  </si>
+  <si>
+    <t>Pricing_InterestDef</t>
+  </si>
+  <si>
+    <t>Pricing_RateType</t>
+  </si>
+  <si>
+    <t>Pricing_IndexRate</t>
+  </si>
+  <si>
+    <t>Pricing_OfferRate</t>
+  </si>
+  <si>
+    <t>Pricing_EffectiveRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="installmentperiod"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="instlamt"]')</t>
+  </si>
+  <si>
+    <t>Instalment_InstalPeriod</t>
+  </si>
+  <si>
+    <t>Instalment_InstalAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Deviate"]')</t>
+  </si>
+  <si>
+    <t>offer_DeviateBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Recompute"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Save"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Offer"]')</t>
+  </si>
+  <si>
+    <t>offer_RecomputeBtn</t>
+  </si>
+  <si>
+    <t>offer_SaveBtn</t>
+  </si>
+  <si>
+    <t>offer_OfferBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[aria-label*="Select"]')</t>
+  </si>
+  <si>
+    <t>decision_DecisionDropdownA</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label="successful"]')</t>
+  </si>
+  <si>
+    <t>offer_SuccessAlert</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>financialCommitmentSearchInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[ng-reflect-text="Refresh"]')[3]</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1127,514 +1523,522 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1645,19 +2049,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="111.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1665,34 +2071,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1700,79 +2106,599 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>309</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CF_Debt_Elements" sheetId="2" r:id="rId2"/>
     <sheet name="Underwriter_Elements" sheetId="3" r:id="rId3"/>
+    <sheet name="AdditionalCustInfo_Elements" sheetId="4" r:id="rId4"/>
+    <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -991,6 +993,423 @@
   </si>
   <si>
     <t>document.querySelectorAll('[ng-reflect-text="Refresh"]')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>financialCommitmentExportPDF</t>
+  </si>
+  <si>
+    <t>financialCommitmentExportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="status"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>customerDebtStatusRatioBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_FinancialInstitution</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="sanctionAmount"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_LoanAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="emiAmount"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_InstallmentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="loanTenure"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_Tenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="dueDate"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_NextDueDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="principalOutstanding"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_PrincipalAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyDesc"] span')</t>
+  </si>
+  <si>
+    <t>financialCommit_Currency</t>
+  </si>
+  <si>
+    <t>AdditionalCustInfo_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-plus"]')[1]</t>
+  </si>
+  <si>
+    <t>customerIdentificationAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="VAL.MAXLENGTH"] ion-badge')</t>
+  </si>
+  <si>
+    <t>invalidDataError</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="VAL.REQUIRED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>requiredFieldError</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>customerIdentificationSaveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="ID Type"]')</t>
+  </si>
+  <si>
+    <t>cust_Identification_IDType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SCR.ID_NUMBER"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>cust_Identification_IDNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Issuing Authority"]')</t>
+  </si>
+  <si>
+    <t>cust_Identification_IssueAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Country of Issue"]')</t>
+  </si>
+  <si>
+    <t>cust_Identification_CountryOfIssue</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="VAL.ALPHANUMERIC.ALLOWED"]')</t>
+  </si>
+  <si>
+    <t>specialCharError</t>
+  </si>
+  <si>
+    <t>DataCheckIncome_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabEyeBtn</t>
+  </si>
+  <si>
+    <t>incomeSaveBtn</t>
+  </si>
+  <si>
+    <t>incomeBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>employementTypeInput</t>
+  </si>
+  <si>
+    <t>employementTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>lumpsumAmtLabel</t>
+  </si>
+  <si>
+    <t>lumpsumAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col ion-label')[0]</t>
+  </si>
+  <si>
+    <t>financialYearLabel</t>
+  </si>
+  <si>
+    <t>financialYearInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col p-calendar input')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col ion-label')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col p-calendar input')[1]</t>
+  </si>
+  <si>
+    <t>filingDateLabel</t>
+  </si>
+  <si>
+    <t>filingDateInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[0].parentElement</t>
+  </si>
+  <si>
+    <t>incomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[1].parentElement</t>
+  </si>
+  <si>
+    <t>incomeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement</t>
+  </si>
+  <si>
+    <t>amountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmount"]')</t>
+  </si>
+  <si>
+    <t>amountInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>defined%_Label</t>
+  </si>
+  <si>
+    <t>defined%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling</t>
+  </si>
+  <si>
+    <t>adjusted%_Label</t>
+  </si>
+  <si>
+    <t>adjusted%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling.nextSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling.nextSibling.nextSibling</t>
+  </si>
+  <si>
+    <t>actionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]').parentElement.nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>actionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredLabel</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[6]</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]')</t>
+  </si>
+  <si>
+    <t>totalDeductionLabel</t>
+  </si>
+  <si>
+    <t>totalDeductionInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]')</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-row[class="md hydrated"]')[4].querySelector('ion-col ion-select')</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankLabel</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankDropdown</t>
+  </si>
+  <si>
+    <t>deductionLabel</t>
+  </si>
+  <si>
+    <t>deductionDropdown</t>
+  </si>
+  <si>
+    <t>deductionFrequencyLabel</t>
+  </si>
+  <si>
+    <t>deductionFrequencyDropdown</t>
+  </si>
+  <si>
+    <t>deductionAmtLabel</t>
+  </si>
+  <si>
+    <t>deductionAmtInput</t>
+  </si>
+  <si>
+    <t>deductionDef%_Label</t>
+  </si>
+  <si>
+    <t>deductionDef%_Input</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Label</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Input</t>
+  </si>
+  <si>
+    <t>deductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>deductionConsideredInput</t>
+  </si>
+  <si>
+    <t>deductionActionLabel</t>
+  </si>
+  <si>
+    <t>deductionActionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[part="message"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('button[part="button"]')</t>
+  </si>
+  <si>
+    <t>successToastMsg</t>
+  </si>
+  <si>
+    <t>successToastCloseBtn</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1036,14 +1455,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1531,514 +1984,594 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>163</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>336</v>
+      </c>
+      <c r="B82" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>342</v>
+      </c>
+      <c r="B85" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2051,13 +2584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="111.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2704,4 +3237,574 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="101.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="127.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="471">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1410,6 +1410,27 @@
   </si>
   <si>
     <t>successToastCloseBtn</t>
+  </si>
+  <si>
+    <t>customerEmployementListSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>customerEmployementEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-title[mode="md"]')[4]</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenBackBtn</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenTitle</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1898,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3356,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3804,6 +3825,38 @@
         <v>461</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Underwriter_Elements" sheetId="3" r:id="rId3"/>
     <sheet name="AdditionalCustInfo_Elements" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
+    <sheet name="DataCheckAppDetails_Elements" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="567">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1154,51 +1155,24 @@
     <t>lumpsumAmtInput</t>
   </si>
   <si>
-    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col ion-label')[0]</t>
-  </si>
-  <si>
     <t>financialYearLabel</t>
   </si>
   <si>
     <t>financialYearInput</t>
   </si>
   <si>
-    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col p-calendar input')[0]</t>
-  </si>
-  <si>
-    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col ion-label')[1]</t>
-  </si>
-  <si>
-    <t>document.querySelector('input[id="employmentType"]').parentElement.parentElement.nextElementSibling.querySelectorAll('ion-col p-calendar input')[1]</t>
-  </si>
-  <si>
     <t>filingDateLabel</t>
   </si>
   <si>
     <t>filingDateInput</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[0].parentElement</t>
-  </si>
-  <si>
     <t>incomeLabel</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[0]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[1].parentElement</t>
-  </si>
-  <si>
     <t>incomeDropdown</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[1]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement</t>
-  </si>
-  <si>
     <t>amountLabel</t>
   </si>
   <si>
@@ -1208,9 +1182,6 @@
     <t>amountInput</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextElementSibling</t>
-  </si>
-  <si>
     <t>document.querySelector('input[id*="incomeDefPercentage"]')</t>
   </si>
   <si>
@@ -1220,9 +1191,6 @@
     <t>defined%_Input</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling</t>
-  </si>
-  <si>
     <t>adjusted%_Label</t>
   </si>
   <si>
@@ -1232,15 +1200,9 @@
     <t>document.querySelector('input[id*="incomeAdjustedPercent"]')</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling.nextSibling</t>
-  </si>
-  <si>
     <t>document.querySelector('input[id*="incomeAmountConsidered"]')</t>
   </si>
   <si>
-    <t>document.querySelectorAll('ion-text[ng-reflect-color="danger"]')[2].parentElement.nextSibling.nextSibling.nextSibling.nextSibling</t>
-  </si>
-  <si>
     <t>actionLabel</t>
   </si>
   <si>
@@ -1431,13 +1393,340 @@
   </si>
   <si>
     <t>customerEmployementScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[6]</t>
+  </si>
+  <si>
+    <t>DataCheckAppDetails_FieldName</t>
+  </si>
+  <si>
+    <t>AppDetailsSubmitBtn</t>
+  </si>
+  <si>
+    <t>AppDetailsReturnBtn</t>
+  </si>
+  <si>
+    <t>AppDetailsViewSummaryBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>AppDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>classificationLabel</t>
+  </si>
+  <si>
+    <t>classificationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>productLabel</t>
+  </si>
+  <si>
+    <t>productDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="TotalFinanc"]')</t>
+  </si>
+  <si>
+    <t>totalFinanceAmtLabel</t>
+  </si>
+  <si>
+    <t>totalFinanceAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"] ion-label')</t>
+  </si>
+  <si>
+    <t>declaredMonthlyIncomeLabel</t>
+  </si>
+  <si>
+    <t>declaredMonthlyIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>declaredCurrentObligationsLabel</t>
+  </si>
+  <si>
+    <t>declaredCurrentObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="promotionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>specialPromotionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="promotionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>specialPromotionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingChannel"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingChannel"] ion-label')</t>
+  </si>
+  <si>
+    <t>sourcingChannelLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessCenter"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessCenter"] ion-select')</t>
+  </si>
+  <si>
+    <t>businessCenterCodeLabel</t>
+  </si>
+  <si>
+    <t>businessCenterCodeDropdown</t>
+  </si>
+  <si>
+    <t>sourcingChannelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="servicingBpType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="servicingBpType"] ion-label')</t>
+  </si>
+  <si>
+    <t>servicingTypeLabel</t>
+  </si>
+  <si>
+    <t>servicingTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviciingBpId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviciingBpId"] ion-select')</t>
+  </si>
+  <si>
+    <t>regionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviceBranch"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviceBranch"] ion-label')</t>
+  </si>
+  <si>
+    <t>servicingBrachLabel</t>
+  </si>
+  <si>
+    <t>servicingBrachDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="spokeLoc"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="spokeLoc"] ion-select')</t>
+  </si>
+  <si>
+    <t>spokeLocationLabel</t>
+  </si>
+  <si>
+    <t>spokeLocationInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ClosingStaf"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ClosingStaf"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>closingStaffLabel</t>
+  </si>
+  <si>
+    <t>closingStaffDropdown</t>
+  </si>
+  <si>
+    <t>topupTypeDropdown</t>
+  </si>
+  <si>
+    <t>topupTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupApplNo"] ion-label')</t>
+  </si>
+  <si>
+    <t>topupAppNoLabel</t>
+  </si>
+  <si>
+    <t>topupAppNoInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupApplNo"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingBpType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingBpType"] ion-select')</t>
+  </si>
+  <si>
+    <t>sourcingTypeLabel</t>
+  </si>
+  <si>
+    <t>sourcingTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingOff"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingOff"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>sourcingOfficeLabel</t>
+  </si>
+  <si>
+    <t>sourcingOfficeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingEnt"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingEnt"]')</t>
+  </si>
+  <si>
+    <t>sourcingEntityLabel</t>
+  </si>
+  <si>
+    <t>sourcingEntityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingSta"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingSta"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>sourcingStaffLabel</t>
+  </si>
+  <si>
+    <t>sourcingStaffDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceTy"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceTy"]')</t>
+  </si>
+  <si>
+    <t>referenceTypeLabel</t>
+  </si>
+  <si>
+    <t>referenceTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceCo"]')</t>
+  </si>
+  <si>
+    <t>referenceCodeLabel</t>
+  </si>
+  <si>
+    <t>referenceCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceEmployeeId"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="Application Details"]')</t>
+  </si>
+  <si>
+    <t>AppDetailsSectionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Submit"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Return"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View Summary"]')</t>
+  </si>
+  <si>
+    <t>regionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalFinanceAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"] p-inputnumber')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,6 +1741,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1505,10 +1801,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1518,8 +1818,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1898,7 +2201,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3379,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3457,50 +3760,50 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>383</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3508,7 +3811,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>389</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3516,55 +3819,55 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3572,7 +3875,7 @@
         <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3580,217 +3883,217 @@
         <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3798,7 +4101,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3806,52 +4109,52 @@
         <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>369</v>
@@ -3860,4 +4163,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="133.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>513</v>
+      </c>
+      <c r="B26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B38" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>537</v>
+      </c>
+      <c r="B39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>540</v>
+      </c>
+      <c r="B40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>544</v>
+      </c>
+      <c r="B42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>545</v>
+      </c>
+      <c r="B43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>549</v>
+      </c>
+      <c r="B45" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>556</v>
+      </c>
+      <c r="B49" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="AdditionalCustInfo_Elements" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
     <sheet name="DataCheckAppDetails_Elements" sheetId="6" r:id="rId6"/>
+    <sheet name="OfferingOfferDetails_Elements" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="691">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -363,9 +364,6 @@
     <t>last24CycleLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Balance Transfer Flag.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>balanceTransferFlagLabel</t>
   </si>
   <si>
@@ -375,9 +373,6 @@
     <t>balanceTransferFlag</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Facility Status.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>facilityStatusLabel</t>
   </si>
   <si>
@@ -1720,6 +1715,384 @@
   </si>
   <si>
     <t>document.querySelector('[id="declCurrNetincome"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>Offering_OfferDetails_FieldName</t>
+  </si>
+  <si>
+    <t>offerDetailsTabPencilIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>offerDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>financeDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>creditRiskFactorSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>creditScoreDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>eligibilityDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>interestRateStructureSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>installmentsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>appealRequestSection</t>
+  </si>
+  <si>
+    <t>offerDetailsTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_productLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_productInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductInput</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeLabel</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_APRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Balance Transfer Flag"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text*="Facility Status"]')</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +2181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1820,6 +2193,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2200,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2300,34 +2674,34 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2343,23 +2717,23 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2367,7 +2741,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2388,7 +2762,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2447,7 +2821,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2463,7 +2837,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2479,7 +2853,7 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2495,7 +2869,7 @@
         <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2527,7 +2901,7 @@
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2543,7 +2917,7 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2575,7 +2949,7 @@
         <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2655,7 +3029,7 @@
         <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2687,7 +3061,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2703,199 +3077,199 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>689</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2928,34 +3302,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2963,599 +3337,599 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3587,90 +3961,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +4057,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3696,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3704,106 +4078,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3811,7 +4185,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3819,55 +4193,55 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3875,7 +4249,7 @@
         <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3883,217 +4257,217 @@
         <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4101,7 +4475,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4109,55 +4483,55 @@
         <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4169,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4181,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4189,390 +4563,914 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B34" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B37" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B41" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B43" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B47" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="106.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B21" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>607</v>
+      </c>
+      <c r="B22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>611</v>
+      </c>
+      <c r="B24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>620</v>
+      </c>
+      <c r="B29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>627</v>
+      </c>
+      <c r="B32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>628</v>
+      </c>
+      <c r="B33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B34" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>631</v>
+      </c>
+      <c r="B35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>635</v>
+      </c>
+      <c r="B37" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>637</v>
+      </c>
+      <c r="B38" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>638</v>
+      </c>
+      <c r="B39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>641</v>
+      </c>
+      <c r="B40" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>642</v>
+      </c>
+      <c r="B41" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>645</v>
+      </c>
+      <c r="B42" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>646</v>
+      </c>
+      <c r="B43" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>648</v>
+      </c>
+      <c r="B44" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>649</v>
+      </c>
+      <c r="B45" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>653</v>
+      </c>
+      <c r="B46" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>654</v>
+      </c>
+      <c r="B47" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>657</v>
+      </c>
+      <c r="B48" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>658</v>
+      </c>
+      <c r="B49" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>661</v>
+      </c>
+      <c r="B50" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>662</v>
+      </c>
+      <c r="B51" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>665</v>
+      </c>
+      <c r="B52" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>666</v>
+      </c>
+      <c r="B53" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>669</v>
+      </c>
+      <c r="B54" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>670</v>
+      </c>
+      <c r="B55" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>673</v>
+      </c>
+      <c r="B56" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>674</v>
+      </c>
+      <c r="B57" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>677</v>
+      </c>
+      <c r="B58" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>678</v>
+      </c>
+      <c r="B59" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>681</v>
+      </c>
+      <c r="B60" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>682</v>
+      </c>
+      <c r="B61" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>685</v>
+      </c>
+      <c r="B62" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>686</v>
+      </c>
+      <c r="B63" t="s">
+        <v>684</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="703">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -514,9 +514,6 @@
     <t>offerDecisionTab</t>
   </si>
   <si>
-    <t>document.querySelector('ion-segment-button[id="seg2"]')</t>
-  </si>
-  <si>
     <t>applicationDetailsTab</t>
   </si>
   <si>
@@ -526,33 +523,6 @@
     <t>customerDetailsTab</t>
   </si>
   <si>
-    <t>document.querySelector('ion-segment-button[id="seg4"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg5"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg6"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg7"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg8"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg9"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg10"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg11"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg12"]')</t>
-  </si>
-  <si>
     <t>assetDetailsTab</t>
   </si>
   <si>
@@ -1003,9 +973,6 @@
     <t>financialCommitmentExportXLS</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text*="status"]').parentElement.nextElementSibling.firstChild</t>
-  </si>
-  <si>
     <t>customerDebtStatusRatioBtn</t>
   </si>
   <si>
@@ -1054,9 +1021,6 @@
     <t>AdditionalCustInfo_FieldName</t>
   </si>
   <si>
-    <t>document.querySelectorAll('button[icon="pi pi-plus"]')[1]</t>
-  </si>
-  <si>
     <t>customerIdentificationAddBtn</t>
   </si>
   <si>
@@ -2093,6 +2057,78 @@
   </si>
   <si>
     <t>document.querySelector('[ng-reflect-text*="Facility Status"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.parentElement.querySelector("p-paginator")</t>
+  </si>
+  <si>
+    <t>customerFinancialsPagination</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Status"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg1"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg2"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg3"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg4"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg5"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg6"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg7"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg8"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg9"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg10"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg11"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg12"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="No underwriter found"]')</t>
+  </si>
+  <si>
+    <t>offerBtnErrorPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Offer approved"]')</t>
+  </si>
+  <si>
+    <t>offerBtnApprovedPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[aria-label="Close"]')</t>
+  </si>
+  <si>
+    <t>alertCloseBtn</t>
+  </si>
+  <si>
+    <t>additionalCustInfoTabPencilIconBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>customerIdentificationBackBtn</t>
   </si>
 </sst>
 </file>
@@ -2572,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2658,618 +2694,626 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>680</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>689</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>690</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>678</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3294,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3305,31 +3349,31 @@
         <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3337,599 +3381,623 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B79" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
-        <v>305</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>695</v>
+      </c>
+      <c r="B81" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>697</v>
+      </c>
+      <c r="B82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>699</v>
+      </c>
+      <c r="B83" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -3939,21 +4007,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="101.88671875" customWidth="1"/>
+    <col min="2" max="2" width="124.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3961,90 +4029,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>702</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +4154,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4078,106 +4162,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4185,7 +4269,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4193,55 +4277,55 @@
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4249,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4257,217 +4341,217 @@
         <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4475,7 +4559,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4483,55 +4567,55 @@
         <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4639,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4563,386 +4647,386 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B22" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B26" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B27" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B28" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B33" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B34" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B35" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B36" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B38" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B39" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B40" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B42" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B46" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B47" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B48" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B49" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4970,7 +5054,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4978,7 +5062,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>162</v>
@@ -4986,490 +5070,490 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B18" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B21" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B23" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B24" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B25" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B27" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B29" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B30" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B31" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B32" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B33" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B34" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B35" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B36" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B37" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B38" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B39" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B40" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B41" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B42" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B43" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B44" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B45" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B46" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B47" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B48" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B49" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B50" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B51" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B52" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B53" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B54" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B55" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B56" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B57" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B58" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B59" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B60" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B61" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B62" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B63" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="765">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -115,9 +115,6 @@
     <t>customerFinancialsPencilEditBtn</t>
   </si>
   <si>
-    <t>document.querySelectorAll('[class="col-1 flex justify-content-start"] button')[3]</t>
-  </si>
-  <si>
     <t>financialCommitmentsAddBtn</t>
   </si>
   <si>
@@ -1456,9 +1453,6 @@
     <t>document.querySelector('[id="currentObligations"] ion-label')</t>
   </si>
   <si>
-    <t>document.querySelector('[id="currentObligations"] input')</t>
-  </si>
-  <si>
     <t>declaredCurrentObligationsLabel</t>
   </si>
   <si>
@@ -1543,9 +1537,6 @@
     <t>spokeLocationLabel</t>
   </si>
   <si>
-    <t>spokeLocationInput</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text*="ClosingStaf"]')</t>
   </si>
   <si>
@@ -1585,9 +1576,6 @@
     <t>document.querySelector('[id="sourcingBpType"] ion-label')</t>
   </si>
   <si>
-    <t>document.querySelector('[id="sourcingBpType"] ion-select')</t>
-  </si>
-  <si>
     <t>sourcingTypeLabel</t>
   </si>
   <si>
@@ -1597,18 +1585,9 @@
     <t>document.querySelector('ion-label[ng-reflect-text*="SourcingOff"]')</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingOff"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>sourcingOfficeLabel</t>
   </si>
   <si>
-    <t>sourcingOfficeInput</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingEnt"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text*="SourcingEnt"]')</t>
   </si>
   <si>
@@ -1621,18 +1600,12 @@
     <t>document.querySelector('ion-label[ng-reflect-text*="SourcingSta"]')</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingSta"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>sourcingStaffLabel</t>
   </si>
   <si>
     <t>sourcingStaffDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceTy"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceTy"]')</t>
   </si>
   <si>
@@ -1651,9 +1624,6 @@
     <t>referenceCodeInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="referenceEmployeeId"] input')</t>
-  </si>
-  <si>
     <t>document.querySelector('button[icon="pi pi-arrow-left"]')</t>
   </si>
   <si>
@@ -2129,13 +2099,229 @@
   </si>
   <si>
     <t>customerIdentificationBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"] span')</t>
+  </si>
+  <si>
+    <t>creditRisk_TotalScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"] span')</t>
+  </si>
+  <si>
+    <t>creditRisk_RiskLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_SerialNoField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CustomerNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CreditBureauScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityAmtField</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_CurrencyField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_ActualPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_DeviationLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.offsetParent.offsetParent.offsetParent.parentElement.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>incomeSectionTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelector('button')</t>
+  </si>
+  <si>
+    <t>incomeSectionEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelectorAll('td[class="ng-star-inserted"]')[1]</t>
+  </si>
+  <si>
+    <t>incomeSectionTableValue1</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.offsetParent.offsetParent.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>financialCommitmentsTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currentObligations"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>spokeLocationDropdown</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="promotionCode"]')</t>
+  </si>
+  <si>
+    <t>specialPromotion</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="sourcingChannel"]')</t>
+  </si>
+  <si>
+    <t>sourcingChannel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="businessCenter"]')</t>
+  </si>
+  <si>
+    <t>businessCenterCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="servicingBpType"]')</t>
+  </si>
+  <si>
+    <t>servicingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="serviciingBpId"]')</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="serviceBranch"]')</t>
+  </si>
+  <si>
+    <t>servicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="spokeLoc"]')</t>
+  </si>
+  <si>
+    <t>spokeLocation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="servecingEmployeeId"]')</t>
+  </si>
+  <si>
+    <t>closingStaff</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="topupType"]')</t>
+  </si>
+  <si>
+    <t>topupType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingBpType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Office"]')</t>
+  </si>
+  <si>
+    <t>sourcingOfficeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Type"]')</t>
+  </si>
+  <si>
+    <t>sourcingOffice</t>
+  </si>
+  <si>
+    <t>sourcingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourceBpId"]')</t>
+  </si>
+  <si>
+    <t>sourcingEntity</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Entity"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourceEmployeeId"]')</t>
+  </si>
+  <si>
+    <t>sourcingStaff</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Staff"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceBpType"]')</t>
+  </si>
+  <si>
+    <t>referenceType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Reference Type"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceEmployeeId"] ion-input')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2150,13 +2336,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2210,14 +2389,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2227,12 +2402,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2608,16 +2781,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.21875" customWidth="1"/>
-    <col min="2" max="2" width="122.44140625" customWidth="1"/>
+    <col min="2" max="2" width="127.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2641,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2689,431 +2862,431 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>723</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3121,84 +3294,84 @@
         <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>677</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>678</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
         <v>126</v>
@@ -3206,23 +3379,23 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
         <v>131</v>
@@ -3230,90 +3403,98 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>681</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>330</v>
+      </c>
+      <c r="B88" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3519,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3346,34 +3527,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3381,623 +3562,623 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
         <v>216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
         <v>220</v>
-      </c>
-      <c r="B42" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" t="s">
         <v>279</v>
-      </c>
-      <c r="B72" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B81" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B82" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B83" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -4009,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4021,7 +4202,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4029,106 +4210,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4138,23 +4319,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="127.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="135.77734375" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="7"/>
     <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4162,460 +4343,484 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -4625,412 +4830,538 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="133.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="133.21875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>545</v>
+      <c r="A2" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>480</v>
-      </c>
-      <c r="B17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>490</v>
-      </c>
-      <c r="B22" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B24" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B26" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B28" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B30" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>507</v>
-      </c>
-      <c r="B31" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B32" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B34" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B35" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B34" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>512</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B37" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B36" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B39" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B38" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>523</v>
-      </c>
-      <c r="B39" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B44" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B41" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B45" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B42" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B47" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B43" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>534</v>
-      </c>
-      <c r="B44" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>535</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>539</v>
-      </c>
-      <c r="B47" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>541</v>
-      </c>
-      <c r="B48" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>542</v>
-      </c>
-      <c r="B49" t="s">
-        <v>543</v>
+      <c r="B49" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="B54" s="9"/>
+      <c r="A54" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>761</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5040,10 +5371,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5054,506 +5385,594 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>162</v>
+      <c r="A2" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B14" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B19" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B20" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B21" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B25" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B27" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B29" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B30" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B31" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B32" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B33" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B34" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B35" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B36" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B37" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B38" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B39" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B40" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B41" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B42" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B43" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B44" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B45" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B46" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B47" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B48" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B49" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B50" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B51" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B52" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B53" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B56" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B57" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B58" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B59" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B60" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B61" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B62" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B63" t="s">
-        <v>672</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>694</v>
+      </c>
+      <c r="B64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>698</v>
+      </c>
+      <c r="B66" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>700</v>
+      </c>
+      <c r="B67" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>702</v>
+      </c>
+      <c r="B68" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>706</v>
+      </c>
+      <c r="B69" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>705</v>
+      </c>
+      <c r="B70" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>708</v>
+      </c>
+      <c r="B71" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>710</v>
+      </c>
+      <c r="B72" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>712</v>
+      </c>
+      <c r="B73" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>714</v>
+      </c>
+      <c r="B74" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="767">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -178,12 +178,6 @@
     <t>sanctionDataLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Sanction Date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
-    <t>sanctionDatainput</t>
-  </si>
-  <si>
     <t>document.querySelector("[ng-reflect-text='Edit']")</t>
   </si>
   <si>
@@ -226,15 +220,9 @@
     <t>document.querySelector('[ng-reflect-text="Maturity Date.TOOLTIP"]')</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Maturity Date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
     <t>maturityDateLabel</t>
   </si>
   <si>
-    <t>maturityDateInput</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="Installment Amount"]')</t>
   </si>
   <si>
@@ -280,12 +268,6 @@
     <t>nextDueDateLabel</t>
   </si>
   <si>
-    <t>nextDueDateInput</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Next Due date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="Collateral Type.TOOLTIP"]')</t>
   </si>
   <si>
@@ -295,21 +277,12 @@
     <t>document.querySelector('[aria-label="Select,  Collateral Type "]')</t>
   </si>
   <si>
-    <t>collateralTypedDropDwon</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="Closed Date.TOOLTIP"]')</t>
   </si>
   <si>
     <t>closeDateLabel</t>
   </si>
   <si>
-    <t>closeDateInput</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Closed Date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="Frequency.TOOLTIP"]')</t>
   </si>
   <si>
@@ -337,12 +310,6 @@
     <t>lastPaymentDateLabel</t>
   </si>
   <si>
-    <t>lastPaymentDateInput</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Last Payment Date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="FORM.PRODUCT_NAME.TOOLTIP"]')</t>
   </si>
   <si>
@@ -364,9 +331,6 @@
     <t>balanceTransferFlagLabel</t>
   </si>
   <si>
-    <t>document.querySelector("ion-toggle")</t>
-  </si>
-  <si>
     <t>balanceTransferFlag</t>
   </si>
   <si>
@@ -391,12 +355,6 @@
     <t>document.querySelector('[ng-reflect-text="Disbursement Date.TOOLTIP"]')</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Disbursement Date.TOOLTIP"]').parentElement.nextElementSibling.firstChild.firstChild</t>
-  </si>
-  <si>
-    <t>disbursementDataInput</t>
-  </si>
-  <si>
     <t>document.querySelector('[aria-label="Select,  Request for Balance Takeover "]')</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>document.querySelector('[ng-reflect-text="Amount Considered"]').nextElementSibling.firstChild</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="SCR.REMARKS.TOOLTIP"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-text="FORM.PRODUCT_NAME.TOOLTIP"]').nextElementSibling.firstChild</t>
   </si>
   <si>
@@ -2315,6 +2270,57 @@
   </si>
   <si>
     <t>document.querySelector('[id="referenceEmployeeId"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Account Number"]').nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>accountNbr</t>
+  </si>
+  <si>
+    <t>sanctionDateField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="sanctionDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>maturityDateField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="maturityDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dueDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>nextDueDateField</t>
+  </si>
+  <si>
+    <t>collateralTypedDropDown</t>
+  </si>
+  <si>
+    <t>closeDateField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="loanClosedDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="lastPaymentDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>lastPaymentDateField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBalanceTransferred"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="facilityOpenDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>disbursementDateField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] textarea')</t>
   </si>
 </sst>
 </file>
@@ -2781,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2862,15 +2868,15 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="B10" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2883,10 +2889,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="B12" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2894,39 +2900,39 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2942,23 +2948,23 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2966,7 +2972,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2987,7 +2993,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -3027,474 +3033,482 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>752</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>754</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>757</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>758</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>759</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>762</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>765</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B83" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>751</v>
+      </c>
+      <c r="B89" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3527,34 +3541,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3562,623 +3576,623 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="B81" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="B82" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="B83" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4202,7 +4216,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4210,106 +4224,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4349,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4343,484 +4357,484 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -4832,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4845,7 +4859,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4853,514 +4867,514 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5399,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -5393,586 +5407,586 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B17" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B18" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B19" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B20" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B21" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B24" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B26" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B27" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B28" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B29" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B31" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B32" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B33" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B34" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B35" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="B36" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B37" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B38" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B39" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B40" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B42" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B43" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B44" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B45" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B46" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B47" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B48" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B49" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="B50" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="B52" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B53" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B54" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B55" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B56" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B57" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="B58" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="B59" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B60" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B61" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B62" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="B63" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="B64" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B65" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="B66" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B67" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="B68" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="B69" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="B70" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="B71" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="B72" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="B73" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="B74" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="771">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2321,6 +2321,18 @@
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="remarks"] textarea')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyDesc"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>financialCommit_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.offsetParent.querySelector('span[class="p-paginator-current ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>searchResult</t>
   </si>
 </sst>
 </file>
@@ -2787,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3505,9 +3517,25 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>768</v>
+      </c>
+      <c r="B89" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>770</v>
+      </c>
+      <c r="B90" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>751</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>750</v>
       </c>
     </row>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
     <sheet name="DataCheckAppDetails_Elements" sheetId="6" r:id="rId6"/>
     <sheet name="OfferingOfferDetails_Elements" sheetId="7" r:id="rId7"/>
+    <sheet name="AppData_CustomerDetail_Elements" sheetId="8" r:id="rId8"/>
+    <sheet name="TW_AppData_AppDetails_Elements" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1009">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2333,6 +2335,720 @@
   </si>
   <si>
     <t>searchResult</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg2")</t>
+  </si>
+  <si>
+    <t>customerDetailsPencilBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>customerDetailsAddBtn</t>
+  </si>
+  <si>
+    <t>customerDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>customerDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>applicantTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>applicantTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>customerTypeLabel</t>
+  </si>
+  <si>
+    <t>customerTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>titleLabel</t>
+  </si>
+  <si>
+    <t>titleDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>firstNameLabel</t>
+  </si>
+  <si>
+    <t>firstNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>middleNameLabel</t>
+  </si>
+  <si>
+    <t>middleNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>lastNameLabel</t>
+  </si>
+  <si>
+    <t>lastNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"] input')</t>
+  </si>
+  <si>
+    <t>familyNameLabel</t>
+  </si>
+  <si>
+    <t>familyNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>firstNameArabicLabel</t>
+  </si>
+  <si>
+    <t>firstNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>middleNameArabicLabel</t>
+  </si>
+  <si>
+    <t>middleNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>lastNameArabicLabel</t>
+  </si>
+  <si>
+    <t>lastNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>familyNameArabicLabel</t>
+  </si>
+  <si>
+    <t>familyNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] label')</t>
+  </si>
+  <si>
+    <t>dobLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] input')</t>
+  </si>
+  <si>
+    <t>dobInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>ageLabel</t>
+  </si>
+  <si>
+    <t>ageInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-label')</t>
+  </si>
+  <si>
+    <t>genderLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-select')</t>
+  </si>
+  <si>
+    <t>genderDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>maritalStatusLabel</t>
+  </si>
+  <si>
+    <t>maritalStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-select')</t>
+  </si>
+  <si>
+    <t>educationLevelLabel</t>
+  </si>
+  <si>
+    <t>educationLevelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-select')</t>
+  </si>
+  <si>
+    <t>nationalityLabel</t>
+  </si>
+  <si>
+    <t>nationalityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>residentialStatusLabel</t>
+  </si>
+  <si>
+    <t>residentialStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>languageLabel</t>
+  </si>
+  <si>
+    <t>languageDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] input')</t>
+  </si>
+  <si>
+    <t>noOfDependsLabel</t>
+  </si>
+  <si>
+    <t>noOfDependsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>clientCategoryLabel</t>
+  </si>
+  <si>
+    <t>clientCategoryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-label')</t>
+  </si>
+  <si>
+    <t>blocklistLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>blocklistToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="creditBureauFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>creditBureauLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="creditBureauFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>creditBureauDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] input')</t>
+  </si>
+  <si>
+    <t>AppData_CustomerDetails_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"]')</t>
+  </si>
+  <si>
+    <t>applicantType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"]')</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"]')</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"]')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"]')</t>
+  </si>
+  <si>
+    <t>familyName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>firstNameArabic</t>
+  </si>
+  <si>
+    <t>middleNameArabic</t>
+  </si>
+  <si>
+    <t>lastNameArabic</t>
+  </si>
+  <si>
+    <t>familyNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"]')</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"]')</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"]')</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>educationLevel</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] p-calendar')</t>
+  </si>
+  <si>
+    <t>dobCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>residentialStatus</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>noOfDependents</t>
+  </si>
+  <si>
+    <t>clientCategory</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"]')</t>
+  </si>
+  <si>
+    <t>blocklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-header ion-title')</t>
+  </si>
+  <si>
+    <t>customerPersonalInfoScreen</t>
+  </si>
+  <si>
+    <t>contactDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>contactDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneType</t>
+  </si>
+  <si>
+    <t>phoneTypeLabel</t>
+  </si>
+  <si>
+    <t>phoneTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>phoneNumberLabel</t>
+  </si>
+  <si>
+    <t>phoneNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-select')</t>
+  </si>
+  <si>
+    <t>consentPhone</t>
+  </si>
+  <si>
+    <t>consentPhoneLabel</t>
+  </si>
+  <si>
+    <t>consentPhoneDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-label')</t>
+  </si>
+  <si>
+    <t>contactType</t>
+  </si>
+  <si>
+    <t>contactTypeLabel</t>
+  </si>
+  <si>
+    <t>contactTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] input')</t>
+  </si>
+  <si>
+    <t>preferdTimeContact</t>
+  </si>
+  <si>
+    <t>preferdTimeContactLabel</t>
+  </si>
+  <si>
+    <t>preferdTimeContactInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-select')</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t>emailTypeLabel</t>
+  </si>
+  <si>
+    <t>emailTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] input')</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>emailIDLabel</t>
+  </si>
+  <si>
+    <t>emailIDInput</t>
+  </si>
+  <si>
+    <t>blankFieldError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg*="ALPHABET.ALLOWED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>alphabetError</t>
+  </si>
+  <si>
+    <t>negativeNbrError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg*="enter a value that is n"] ion-badge')</t>
+  </si>
+  <si>
+    <t>ApplicationDetails_FieldName</t>
+  </si>
+  <si>
+    <t>updateBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('span[class="headertemp"]')[0]</t>
+  </si>
+  <si>
+    <t>listview_Action</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('th[ng-reflect-field="nameOnCard"] span')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('th[ng-reflect-field="nameOnCard"] span')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="productCode"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="subProductCode"] span')</t>
+  </si>
+  <si>
+    <t>listview_SubProduct</t>
+  </si>
+  <si>
+    <t>listview_Product</t>
+  </si>
+  <si>
+    <t>listview_ClientNameOtherLang</t>
+  </si>
+  <si>
+    <t>listview_ClientName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currentStateOfApplication"] span')</t>
+  </si>
+  <si>
+    <t>listview_CurrentStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="locationCode"] span')</t>
+  </si>
+  <si>
+    <t>listview_Location</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="allocationMethod"] span')</t>
+  </si>
+  <si>
+    <t>listview_AllocatedTo</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="serviceBranch"] span')</t>
+  </si>
+  <si>
+    <t>listview_Service</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="recStatus"] span')</t>
+  </si>
+  <si>
+    <t>listview_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[mode="md"]')</t>
+  </si>
+  <si>
+    <t>applicationDetailsTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>searchBtn</t>
+  </si>
+  <si>
+    <t>searchBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>exportBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>exportPDF</t>
+  </si>
+  <si>
+    <t>exportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-paginator span[class*="p-paginator-current"]')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('input[class*="p-inputtext"]')[1]</t>
+  </si>
+  <si>
+    <t>addBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('customer-search')</t>
+  </si>
+  <si>
+    <t>customerSearchPage</t>
   </si>
 </sst>
 </file>
@@ -2801,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4874,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5416,7 +6132,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6021,4 +6737,1051 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="89.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>783</v>
+      </c>
+      <c r="B10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B15" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>799</v>
+      </c>
+      <c r="B18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>800</v>
+      </c>
+      <c r="B19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>803</v>
+      </c>
+      <c r="B20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>804</v>
+      </c>
+      <c r="B21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>808</v>
+      </c>
+      <c r="B23" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>811</v>
+      </c>
+      <c r="B24" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B25" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>816</v>
+      </c>
+      <c r="B27" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>820</v>
+      </c>
+      <c r="B29" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>822</v>
+      </c>
+      <c r="B30" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>907</v>
+      </c>
+      <c r="B31" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>824</v>
+      </c>
+      <c r="B32" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>827</v>
+      </c>
+      <c r="B33" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>828</v>
+      </c>
+      <c r="B34" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>830</v>
+      </c>
+      <c r="B35" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>832</v>
+      </c>
+      <c r="B36" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>835</v>
+      </c>
+      <c r="B37" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>836</v>
+      </c>
+      <c r="B38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>839</v>
+      </c>
+      <c r="B39" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>840</v>
+      </c>
+      <c r="B40" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>843</v>
+      </c>
+      <c r="B41" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>844</v>
+      </c>
+      <c r="B42" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>847</v>
+      </c>
+      <c r="B43" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>848</v>
+      </c>
+      <c r="B44" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>851</v>
+      </c>
+      <c r="B45" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>852</v>
+      </c>
+      <c r="B46" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>855</v>
+      </c>
+      <c r="B47" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>859</v>
+      </c>
+      <c r="B49" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>860</v>
+      </c>
+      <c r="B50" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>862</v>
+      </c>
+      <c r="B51" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>864</v>
+      </c>
+      <c r="B52" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>866</v>
+      </c>
+      <c r="B53" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>868</v>
+      </c>
+      <c r="B54" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>873</v>
+      </c>
+      <c r="B57" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>875</v>
+      </c>
+      <c r="B58" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>877</v>
+      </c>
+      <c r="B59" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>881</v>
+      </c>
+      <c r="B61" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>883</v>
+      </c>
+      <c r="B62" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>885</v>
+      </c>
+      <c r="B63" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>890</v>
+      </c>
+      <c r="B64" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>891</v>
+      </c>
+      <c r="B65" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>892</v>
+      </c>
+      <c r="B66" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>893</v>
+      </c>
+      <c r="B67" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>895</v>
+      </c>
+      <c r="B68" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>902</v>
+      </c>
+      <c r="B69" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>897</v>
+      </c>
+      <c r="B70" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>904</v>
+      </c>
+      <c r="B71" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>903</v>
+      </c>
+      <c r="B72" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>905</v>
+      </c>
+      <c r="B73" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>913</v>
+      </c>
+      <c r="B74" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>914</v>
+      </c>
+      <c r="B75" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>915</v>
+      </c>
+      <c r="B76" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>916</v>
+      </c>
+      <c r="B77" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>919</v>
+      </c>
+      <c r="B78" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>917</v>
+      </c>
+      <c r="B79" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>966</v>
+      </c>
+      <c r="B80" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>968</v>
+      </c>
+      <c r="B81" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>969</v>
+      </c>
+      <c r="B82" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>922</v>
+      </c>
+      <c r="B83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>923</v>
+      </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>925</v>
+      </c>
+      <c r="B85" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>926</v>
+      </c>
+      <c r="B86" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>927</v>
+      </c>
+      <c r="B87" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>932</v>
+      </c>
+      <c r="B88" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>933</v>
+      </c>
+      <c r="B89" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>934</v>
+      </c>
+      <c r="B90" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>939</v>
+      </c>
+      <c r="B91" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>940</v>
+      </c>
+      <c r="B92" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>941</v>
+      </c>
+      <c r="B93" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>945</v>
+      </c>
+      <c r="B94" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>946</v>
+      </c>
+      <c r="B95" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>947</v>
+      </c>
+      <c r="B96" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>951</v>
+      </c>
+      <c r="B97" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>952</v>
+      </c>
+      <c r="B98" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>953</v>
+      </c>
+      <c r="B99" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>957</v>
+      </c>
+      <c r="B100" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>958</v>
+      </c>
+      <c r="B101" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>959</v>
+      </c>
+      <c r="B102" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>963</v>
+      </c>
+      <c r="B103" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>964</v>
+      </c>
+      <c r="B104" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>965</v>
+      </c>
+      <c r="B105" t="s">
+        <v>962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>974</v>
+      </c>
+      <c r="B5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>982</v>
+      </c>
+      <c r="B6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>980</v>
+      </c>
+      <c r="B8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>979</v>
+      </c>
+      <c r="B9" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>984</v>
+      </c>
+      <c r="B10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>986</v>
+      </c>
+      <c r="B11" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>988</v>
+      </c>
+      <c r="B12" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>996</v>
+      </c>
+      <c r="B15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>997</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>770</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1041">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3049,6 +3049,102 @@
   </si>
   <si>
     <t>customerSearchPage</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>pensionAmtLabel</t>
+  </si>
+  <si>
+    <t>pensionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]')</t>
+  </si>
+  <si>
+    <t>bankNameDropdown</t>
+  </si>
+  <si>
+    <t>bankNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>branchNameLabel</t>
+  </si>
+  <si>
+    <t>branchNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[color="danger"]')</t>
+  </si>
+  <si>
+    <t>actionDeleteBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]').parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>listview_NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalDeductionConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetDeduction</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="consideredIncome"] span')</t>
+  </si>
+  <si>
+    <t>listview_ConsideredIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"] span')</t>
+  </si>
+  <si>
+    <t>listview_Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[0]</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1].parentElement</t>
+  </si>
+  <si>
+    <t>incomeScreenTitle</t>
+  </si>
+  <si>
+    <t>incomeSectionSearchbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"]').offsetParent.offsetParent.offsetParent.offsetParent.querySelector('span[class="p-paginator-current ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>customerInfoTitle</t>
   </si>
 </sst>
 </file>
@@ -3517,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5077,10 +5173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5100,489 +5196,654 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>335</v>
+      <c r="A2" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>341</v>
+        <v>1037</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>340</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>350</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>431</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>351</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>430</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>701</v>
+        <v>396</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>700</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>703</v>
+        <v>74</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>702</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6131,7 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6743,7 +7004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -7602,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="OfferingOfferDetails_Elements" sheetId="7" r:id="rId7"/>
     <sheet name="AppData_CustomerDetail_Elements" sheetId="8" r:id="rId8"/>
     <sheet name="TW_AppData_AppDetails_Elements" sheetId="9" r:id="rId9"/>
+    <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1304">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3145,6 +3146,795 @@
   </si>
   <si>
     <t>customerInfoTitle</t>
+  </si>
+  <si>
+    <t>EmploymentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"]')</t>
+  </si>
+  <si>
+    <t>primaryEmployment</t>
+  </si>
+  <si>
+    <t>primaryEmploymentLabel</t>
+  </si>
+  <si>
+    <t>primaryEmploymentToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isPrimaryEmployment"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"]')</t>
+  </si>
+  <si>
+    <t>employmentPeriod</t>
+  </si>
+  <si>
+    <t>employmentPeriodLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>employmentPeriodDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentType"] ion-label')</t>
+  </si>
+  <si>
+    <t>natureOfEmployment</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentLabel</t>
+  </si>
+  <si>
+    <t>natureOfEmploymentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="companyType"]')</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>companyTypeLabel</t>
+  </si>
+  <si>
+    <t>companyTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfessionCode"]')</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>professionLabel</t>
+  </si>
+  <si>
+    <t>professionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="typeOfProfession"] ion-select')</t>
+  </si>
+  <si>
+    <t>professionType</t>
+  </si>
+  <si>
+    <t>professionTypeLabel</t>
+  </si>
+  <si>
+    <t>professionTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredStatutoryAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>statutoryAuthority</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityLabel</t>
+  </si>
+  <si>
+    <t>statutoryAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerName"] ion-select')</t>
+  </si>
+  <si>
+    <t>employerName</t>
+  </si>
+  <si>
+    <t>employerNameLabel</t>
+  </si>
+  <si>
+    <t>employerNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"]')</t>
+  </si>
+  <si>
+    <t>employerNameOthers</t>
+  </si>
+  <si>
+    <t>employerNameOthersLabel</t>
+  </si>
+  <si>
+    <t>employerNameOthersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"]')</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>employeeIDLabel</t>
+  </si>
+  <si>
+    <t>employeeIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"]')</t>
+  </si>
+  <si>
+    <t>dateOfJoining</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] p-calendar')</t>
+  </si>
+  <si>
+    <t>dateOfJoiningLabel</t>
+  </si>
+  <si>
+    <t>dateOfJoiningCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employmentEndDate"]')</t>
+  </si>
+  <si>
+    <t>employmentEndDate</t>
+  </si>
+  <si>
+    <t>employmentEndDateLabel</t>
+  </si>
+  <si>
+    <t>employmentEndDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="department"] ion-select')</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>departmentLabel</t>
+  </si>
+  <si>
+    <t>departmentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="designation"]')</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>designationLabel</t>
+  </si>
+  <si>
+    <t>designationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMilitaryOrCivil"]')</t>
+  </si>
+  <si>
+    <t>employmentType</t>
+  </si>
+  <si>
+    <t>employmentTypeLabel</t>
+  </si>
+  <si>
+    <t>employmentTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumberExtension"] input')</t>
+  </si>
+  <si>
+    <t>directManagerContactNbr</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrLabel</t>
+  </si>
+  <si>
+    <t>directManagerContactNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="contactNumber"]')</t>
+  </si>
+  <si>
+    <t>directManagerTelephone</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneLabel</t>
+  </si>
+  <si>
+    <t>directManagerTelephoneInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="incomePaymode"]')</t>
+  </si>
+  <si>
+    <t>incomePaymode</t>
+  </si>
+  <si>
+    <t>incomePaymodeLabel</t>
+  </si>
+  <si>
+    <t>incomePaymodeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneExtension"]')</t>
+  </si>
+  <si>
+    <t>employerPhoneExLabel</t>
+  </si>
+  <si>
+    <t>employerPhoneExInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>employerPhoneNbr</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrLabel</t>
+  </si>
+  <si>
+    <t>employerPhoneNbrInput</t>
+  </si>
+  <si>
+    <t>employerPhoneExtension</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>stateLabel</t>
+  </si>
+  <si>
+    <t>stateDropdown</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cityLabel</t>
+  </si>
+  <si>
+    <t>cityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField2"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dynamicChararterField3"] input')</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>pincodeLabel</t>
+  </si>
+  <si>
+    <t>pincodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sectorEconomy"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="subSector"] ion-select')</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>sectorLabel</t>
+  </si>
+  <si>
+    <t>sectorDropdown</t>
+  </si>
+  <si>
+    <t>subSector</t>
+  </si>
+  <si>
+    <t>subSectorLabel</t>
+  </si>
+  <si>
+    <t>subSectorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfPartners"] input')</t>
+  </si>
+  <si>
+    <t>noOfPartners</t>
+  </si>
+  <si>
+    <t>noOfPartnersLabel</t>
+  </si>
+  <si>
+    <t>noOfPartnersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessActivity"]')</t>
+  </si>
+  <si>
+    <t>natureOfBusiness</t>
+  </si>
+  <si>
+    <t>natureOfBusinessLabel</t>
+  </si>
+  <si>
+    <t>natureOfBusinessDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessNumber"] input')</t>
+  </si>
+  <si>
+    <t>regBusinessName</t>
+  </si>
+  <si>
+    <t>regBusinessNameLabel</t>
+  </si>
+  <si>
+    <t>regBusinessNameInput</t>
+  </si>
+  <si>
+    <t>regBusinessNbr</t>
+  </si>
+  <si>
+    <t>regBusinessNbrLabel</t>
+  </si>
+  <si>
+    <t>regBusinessNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"]')</t>
+  </si>
+  <si>
+    <t>businessRegisteredDate</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateLabel</t>
+  </si>
+  <si>
+    <t>businessRegisteredDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="registeredBusinessDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="officePremisesType"] ion-select')</t>
+  </si>
+  <si>
+    <t>officePremisesType</t>
+  </si>
+  <si>
+    <t>officePremisesTypeLabel</t>
+  </si>
+  <si>
+    <t>officePremisesTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>shareHolderPercent</t>
+  </si>
+  <si>
+    <t>shareHolderPercentLabel</t>
+  </si>
+  <si>
+    <t>shareHolderPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberOfEmployees"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="yearsAtCurrentEmployment"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="managerName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employerPhoneCityCode"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="retirementAge"] input')</t>
+  </si>
+  <si>
+    <t>numberOfEmployees</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesLabel</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmployment</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentLabel</t>
+  </si>
+  <si>
+    <t>experienceAtCurrentEmploymentInput</t>
+  </si>
+  <si>
+    <t>numberOfEmployeesInput</t>
+  </si>
+  <si>
+    <t>directManagerName</t>
+  </si>
+  <si>
+    <t>directManagerNameLabel</t>
+  </si>
+  <si>
+    <t>directManagerNameInput</t>
+  </si>
+  <si>
+    <t>employerCityCode</t>
+  </si>
+  <si>
+    <t>employerCityCodeLabel</t>
+  </si>
+  <si>
+    <t>employerCityCodeInput</t>
+  </si>
+  <si>
+    <t>retirementAge</t>
+  </si>
+  <si>
+    <t>retirementAgeLabel</t>
+  </si>
+  <si>
+    <t>retirementAgeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-textarea')</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>recordStatusLabel</t>
+  </si>
+  <si>
+    <t>recordStatusToggleBtn</t>
+  </si>
+  <si>
+    <t>remarksTextarea</t>
+  </si>
+  <si>
+    <t>customerEmploymentBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[1]</t>
+  </si>
+  <si>
+    <t>businessEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>SalariedEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="employerName"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[2]</t>
+  </si>
+  <si>
+    <t>companyFirmEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[3]</t>
+  </si>
+  <si>
+    <t>pensionerEmpDetails_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[4]</t>
+  </si>
+  <si>
+    <t>selfEmployed_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class="p-ripple p-element p-paginator-next p-paginator-element p-link"]')</t>
+  </si>
+  <si>
+    <t>EmpDetailsSectionNextPageBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[0]</t>
+  </si>
+  <si>
+    <t>selfEmployedProfessional_eyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"]')</t>
+  </si>
+  <si>
+    <t>totalExperience</t>
+  </si>
+  <si>
+    <t>totalExperienceLabel</t>
+  </si>
+  <si>
+    <t>totalExperienceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalExperience"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentTypeDesc"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmployerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentStatusDesc"] span')</t>
+  </si>
+  <si>
+    <t>listview_EmploymentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>listview_SearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('tr')[1]</t>
+  </si>
+  <si>
+    <t>listview_EmpValues</t>
+  </si>
+  <si>
+    <t>searchbox_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('p-paginator span[class*="p-paginator-current"]')</t>
   </si>
 </sst>
 </file>
@@ -3609,6 +4399,1114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="139.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>917</v>
+      </c>
+      <c r="B127" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>770</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
@@ -3619,8 +5517,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1"/>
-    <col min="2" max="2" width="127.77734375" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="127.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5175,14 +7073,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B24:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="135.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="135.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="7"/>
     <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
@@ -5855,10 +7753,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="133.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="133.33203125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -7010,7 +8908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7864,7 +9762,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="AppData_CustomerDetail_Elements" sheetId="8" r:id="rId8"/>
     <sheet name="TW_AppData_AppDetails_Elements" sheetId="9" r:id="rId9"/>
     <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId10"/>
+    <sheet name="TW_AppData_DocumentDetails" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1331">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3898,9 +3899,6 @@
     <t>totalExperienceInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="shareholderPercentage"] input')</t>
-  </si>
-  <si>
     <t>document.querySelector('[id="totalExperience"] input')</t>
   </si>
   <si>
@@ -3935,6 +3933,90 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('p-paginator span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>DocumentDetails_FieldName</t>
+  </si>
+  <si>
+    <t>documentsDetailsAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="documentClassId"] ion-label')</t>
+  </si>
+  <si>
+    <t>documentCategoryLabel</t>
+  </si>
+  <si>
+    <t>documentCategoryLOV</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="documentClassId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="expectedDateOfReceipt"] label')</t>
+  </si>
+  <si>
+    <t>expectReceiptDateLabel</t>
+  </si>
+  <si>
+    <t>expectReceiptDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="expectedDateOfReceipt"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="verifiedBy"] ion-label')</t>
+  </si>
+  <si>
+    <t>defApprovedByLabel</t>
+  </si>
+  <si>
+    <t>defApprovedByLOV</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="verifiedBy"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="documentApprovedBy"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="documentApprovedBy"] ion-label')</t>
+  </si>
+  <si>
+    <t>changeNatureApprovedByLabel</t>
+  </si>
+  <si>
+    <t>changeNatureApprovedByLOV</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="natureOfDocument"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="natureOfDocument"] ion-select')</t>
+  </si>
+  <si>
+    <t>documentFormLabel</t>
+  </si>
+  <si>
+    <t>documentFormLOV</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="receivedStatus"]')</t>
+  </si>
+  <si>
+    <t>documentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="natureOfDocument"]')</t>
+  </si>
+  <si>
+    <t>documentForm</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg13")</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] ion-input')</t>
   </si>
 </sst>
 </file>
@@ -4403,8 +4485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5058,7 +5140,7 @@
         <v>1290</v>
       </c>
       <c r="B81" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5274,7 +5356,7 @@
         <v>1231</v>
       </c>
       <c r="B108" t="s">
-        <v>1291</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5447,10 +5529,10 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B130" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5458,36 +5540,36 @@
         <v>1023</v>
       </c>
       <c r="B131" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B132" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B133" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B134" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B135" t="s">
         <v>294</v>
@@ -5498,12 +5580,159 @@
         <v>770</v>
       </c>
       <c r="B136" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6259,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9761,8 +9990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CF_Debt_Elements" sheetId="2" r:id="rId2"/>
     <sheet name="Underwriter_Elements" sheetId="3" r:id="rId3"/>
-    <sheet name="AdditionalCustInfo_Elements" sheetId="4" r:id="rId4"/>
+    <sheet name="IdentificationDetails_Elements" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
     <sheet name="DataCheckAppDetails_Elements" sheetId="6" r:id="rId6"/>
     <sheet name="OfferingOfferDetails_Elements" sheetId="7" r:id="rId7"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1380">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -974,9 +974,6 @@
     <t>financialCommit_Currency</t>
   </si>
   <si>
-    <t>AdditionalCustInfo_FieldName</t>
-  </si>
-  <si>
     <t>customerIdentificationAddBtn</t>
   </si>
   <si>
@@ -995,33 +992,6 @@
     <t>document.querySelector('button[icon="pi pi-save"]')</t>
   </si>
   <si>
-    <t>customerIdentificationSaveBtn</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-select[aria-label*="ID Type"]')</t>
-  </si>
-  <si>
-    <t>cust_Identification_IDType</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text*="SCR.ID_NUMBER"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>cust_Identification_IDNumber</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-select[aria-label*="Issuing Authority"]')</t>
-  </si>
-  <si>
-    <t>cust_Identification_IssueAuthority</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-select[aria-label*="Country of Issue"]')</t>
-  </si>
-  <si>
-    <t>cust_Identification_CountryOfIssue</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-msg="VAL.ALPHANUMERIC.ALLOWED"]')</t>
   </si>
   <si>
@@ -4017,6 +3987,183 @@
   </si>
   <si>
     <t>document.querySelector('[id="shareholderPercentage"] ion-input')</t>
+  </si>
+  <si>
+    <t>IdentificationDetails_FieldName</t>
+  </si>
+  <si>
+    <t>identificationDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>identificationDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>identificationDetailsHelpBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[name="information-circle-outline"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"] ion-select')</t>
+  </si>
+  <si>
+    <t>IDType_Dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>IDNumber_Label</t>
+  </si>
+  <si>
+    <t>IDType_Label</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"] input')</t>
+  </si>
+  <si>
+    <t>IDNumber_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfIssue"] label')</t>
+  </si>
+  <si>
+    <t>issueDate_Label</t>
+  </si>
+  <si>
+    <t>issueDate_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfIssue"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfExpiry"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfExpiry"] label')</t>
+  </si>
+  <si>
+    <t>expiryDate_Label</t>
+  </si>
+  <si>
+    <t>expiryDate_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="issuingAuthority"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="issuingAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>issuingAuthorityLabel</t>
+  </si>
+  <si>
+    <t>issuingAuthorityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="placeOfIssue"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="placeOfIssue"] ion-label')</t>
+  </si>
+  <si>
+    <t>countryOfIssueLabel</t>
+  </si>
+  <si>
+    <t>countryOfIssueDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] div[role="alert"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button')</t>
+  </si>
+  <si>
+    <t>alert_SuccessMsg</t>
+  </si>
+  <si>
+    <t>alert_closeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idType"]')</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfIssue"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="idNumber"]')</t>
+  </si>
+  <si>
+    <t>issueDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfExpiry"]')</t>
+  </si>
+  <si>
+    <t>expiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="issuingAuthority"]')</t>
+  </si>
+  <si>
+    <t>issuingAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="placeOfIssue"]')</t>
+  </si>
+  <si>
+    <t>countryOfIssue</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfIssue"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfExpiry"] p-calendar')</t>
+  </si>
+  <si>
+    <t>expiryDate_Calendar</t>
+  </si>
+  <si>
+    <t>issueDate_Calendar</t>
+  </si>
+  <si>
+    <t>document.querySelector('pre[class="ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>help_fieldDescription</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>customerIdentificationEditBtn</t>
+  </si>
+  <si>
+    <t>statusToggleBtn</t>
+  </si>
+  <si>
+    <t>viewSummaryBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-workflow-pop p-table')</t>
+  </si>
+  <si>
+    <t>summaryPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-workflow-pop ion-button')</t>
+  </si>
+  <si>
+    <t>popupCloseBtn</t>
   </si>
 </sst>
 </file>
@@ -4485,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -4497,7 +4644,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4505,1010 +4652,1010 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="B2" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B3" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="B4" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="B5" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="B6" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="B7" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="B8" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="B11" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="B12" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B13" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B14" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="B15" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="B16" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="B17" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B18" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B19" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="B20" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="B21" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B22" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B24" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="B25" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="B26" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B27" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B28" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="B29" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="B30" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="B31" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="B32" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="B33" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="B34" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B35" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="B36" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B37" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B38" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B39" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B40" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="B41" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B42" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="B43" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="B44" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="B45" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B46" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="B47" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="B48" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="B49" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="B50" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B51" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="B52" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B53" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="B54" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="B55" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="B56" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="B57" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B58" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B59" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B60" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B61" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="B62" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="B63" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B64" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B65" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="B66" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="B67" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B68" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B69" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="B70" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="B71" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="B72" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="B73" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="B74" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="B75" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="B76" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="B77" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="B78" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="B79" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="B80" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="B81" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="B82" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="B83" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="B84" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="B85" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="B86" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B87" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="B88" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="B89" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="B90" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="B91" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="B92" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B93" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="B94" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B95" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="B96" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="B97" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="B98" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B99" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B100" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="B101" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="B102" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="B103" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="B104" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B105" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="B106" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B107" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B108" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="B109" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="B110" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="B111" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="B112" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="B113" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="B114" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="B115" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="B116" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="B117" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="B118" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="B119" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="B120" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="B121" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="B122" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="B123" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="B124" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="B125" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="B126" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B127" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5516,60 +5663,60 @@
         <v>78</v>
       </c>
       <c r="B128" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="B129" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="B130" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="B131" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="B132" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="B133" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="B134" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="B135" t="s">
         <v>294</v>
@@ -5577,10 +5724,10 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B136" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
   </sheetData>
@@ -5594,7 +5741,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5605,7 +5752,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5624,111 +5771,111 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="B5" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="B6" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="B7" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="B8" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="B10" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="B11" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="B12" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="B13" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="B14" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="B15" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="B16" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -5824,10 +5971,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B10" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5840,10 +5987,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5851,7 +5998,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5984,10 +6131,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B30" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6064,10 +6211,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B40" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6131,7 +6278,7 @@
         <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6144,10 +6291,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B50" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6160,7 +6307,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
@@ -6176,10 +6323,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B54" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6224,10 +6371,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B60" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6267,7 +6414,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6275,7 +6422,7 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6283,7 +6430,7 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6320,10 +6467,10 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B72" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6395,7 +6542,7 @@
         <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6456,26 +6603,26 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B89" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B90" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B91" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -6511,7 +6658,7 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6519,7 +6666,7 @@
         <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6527,7 +6674,7 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6535,7 +6682,7 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6543,7 +6690,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6551,7 +6698,7 @@
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6559,7 +6706,7 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6567,7 +6714,7 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6575,7 +6722,7 @@
         <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6583,7 +6730,7 @@
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6591,7 +6738,7 @@
         <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6599,7 +6746,7 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7140,26 +7287,26 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B81" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B82" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B83" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -7169,10 +7316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7183,7 +7330,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>316</v>
+        <v>1321</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7199,58 +7346,58 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>1373</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7263,34 +7410,242 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>1323</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>1322</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>1324</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>1355</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -7316,7 +7671,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7324,138 +7679,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7463,7 +7818,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7471,55 +7826,55 @@
         <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7527,7 +7882,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7535,261 +7890,261 @@
         <v>72</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7797,7 +8152,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7805,140 +8160,140 @@
         <v>76</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>294</v>
@@ -7946,26 +8301,26 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +8346,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7999,514 +8354,514 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8886,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8539,7 +8894,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>146</v>
@@ -8547,578 +8902,578 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B14" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B20" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B21" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B24" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B27" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B28" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B30" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B31" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B34" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B35" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B36" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B39" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B40" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B42" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B43" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B44" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B45" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B46" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B48" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B50" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B51" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B52" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B53" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B56" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B57" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B58" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B59" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B60" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B61" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B62" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B63" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B64" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B65" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B66" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B67" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B68" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B69" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B70" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B71" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B72" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B73" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B74" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -9143,7 +9498,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9154,423 +9509,423 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="B3" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B8" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B9" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B10" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B11" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B12" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B13" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B14" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B15" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B16" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B18" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B20" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B22" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B23" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B24" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B25" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B26" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B27" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B28" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B29" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B30" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B31" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B32" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B33" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B34" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B35" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B36" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B37" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B38" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B39" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B40" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B41" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B42" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B43" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B44" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B45" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B46" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B47" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B48" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B49" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B50" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B51" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B52" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B53" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B54" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -9578,7 +9933,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -9586,399 +9941,399 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B57" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B58" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B59" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B60" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B61" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B62" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B63" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B64" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B65" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B66" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B67" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B68" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B69" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B70" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="B71" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="B72" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B73" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="B74" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B75" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="B76" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B77" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="B78" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B79" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="B81" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B82" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B83" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="B85" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B86" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B87" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="B88" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="B89" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B90" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="B91" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="B92" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B93" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="B94" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B95" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="B96" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B97" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="B98" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="B99" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="B100" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="B101" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="B102" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B103" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B104" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B105" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -10002,7 +10357,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -10010,162 +10365,162 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B5" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="B6" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="B7" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="B8" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B9" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B10" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B11" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="B12" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="B13" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="B14" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="B15" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="B16" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B17" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="B18" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B19" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="B20" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="B21" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1413">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4164,13 +4164,112 @@
   </si>
   <si>
     <t>popupCloseBtn</t>
+  </si>
+  <si>
+    <t>Edit_icon</t>
+  </si>
+  <si>
+    <t>JSERecommendations</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-row[class="p-0 m-0 md hydrated"]+a')</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Add"]')</t>
+  </si>
+  <si>
+    <t>SequenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sequence Number.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>NoteSubcode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="lconditionId"] ion-select')</t>
+  </si>
+  <si>
+    <t>NoteCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="ltemPlateId"] ion-select')</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Condition.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="fulfilledFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>ApprovalStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="Approval Status"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.REMARKS"] ion-textarea textarea')</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Date"] button')</t>
+  </si>
+  <si>
+    <t>Date_today</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>SaveIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>SuccessPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Approve"]')</t>
+  </si>
+  <si>
+    <t>appDetailsApproveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Reject"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Return"]')</t>
+  </si>
+  <si>
+    <t>appDetailsRejectBtn</t>
+  </si>
+  <si>
+    <t>appDetailsReturnBtn</t>
+  </si>
+  <si>
+    <t>appDetailsViewSummaryBtn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4185,6 +4284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4201,7 +4306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4237,11 +4342,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4253,6 +4373,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6633,10 +6756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6767,550 +6890,707 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>1407</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>1410</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>1411</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>1412</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>660</v>
+        <v>276</v>
       </c>
       <c r="B81" t="s">
-        <v>659</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>662</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s">
-        <v>661</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>660</v>
+      </c>
+      <c r="B85" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>662</v>
+      </c>
+      <c r="B86" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>664</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>663</v>
       </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B88" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1">
+      <c r="A102" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7318,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1419">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -752,60 +752,30 @@
     <t>facility_ApplicableLTV2Input</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Requested Amount"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Requested Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
     <t>Finance_RequestAmountInput</t>
   </si>
   <si>
     <t>Finance_RequestAmountLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Requested Tenure"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Requested Tenure"]')</t>
-  </si>
-  <si>
     <t>Finance_RequestTenureLabel</t>
   </si>
   <si>
     <t>Finance_RequestTenureInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Offered Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Offered Amount"]')</t>
-  </si>
-  <si>
     <t>Finance_OfferedAmountLabel</t>
   </si>
   <si>
     <t>Finance_OfferedAmountInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Offered Tenure"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Offered Tenure"]')</t>
-  </si>
-  <si>
     <t>Finance_OfferedTenureLabel</t>
   </si>
   <si>
     <t>Finance_OfferedTenureInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Deviation Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Deviation Amount"]')</t>
-  </si>
-  <si>
     <t>Finance_DeviationAmountLabel</t>
   </si>
   <si>
@@ -818,12 +788,6 @@
     <t>Finance_DeviationTenureInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Deviation Tenure"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Deviation Tenure"]')</t>
-  </si>
-  <si>
     <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[5]</t>
   </si>
   <si>
@@ -1562,12 +1526,6 @@
     <t>AppDetailsSectionLabel</t>
   </si>
   <si>
-    <t>document.querySelector('button[label="Submit"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('button[label="Return"]')</t>
-  </si>
-  <si>
     <t>document.querySelector('button[ng-reflect-text="View Summary"]')</t>
   </si>
   <si>
@@ -4263,6 +4221,66 @@
   </si>
   <si>
     <t>appDetailsViewSummaryBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-workflow-decision button[ng-reflect-label="Submit"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-workflow-decision button[ng-reflect-label="Return"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="deviationAmt"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="deviationTenure"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="reqAmt"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="reqTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="reqTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="reqAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="offeredAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="offeredAmt"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="offeredTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="offeredTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="deviationAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="deviationTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Accept Deviation"]')</t>
+  </si>
+  <si>
+    <t>acceptDeviationBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="previousDev"]')</t>
+  </si>
+  <si>
+    <t>prevOffer</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="descriptionDev"]').parentElement.parentElement.parentElement</t>
+  </si>
+  <si>
+    <t>offerDetailstable</t>
   </si>
 </sst>
 </file>
@@ -4306,7 +4324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4342,21 +4360,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4373,7 +4376,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4767,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4775,1010 +4778,1010 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="B2" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="B3" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="B4" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="B6" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="B7" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="B8" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="B10" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="B11" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="B13" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="B14" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="B15" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B16" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="B17" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="B18" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="B19" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="B20" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="B21" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B22" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="B23" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="B24" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="B25" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="B26" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="B27" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="B28" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="B29" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="B30" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="B31" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="B32" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="B33" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="B34" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="B35" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="B36" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="B37" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="B38" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="B39" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="B40" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="B41" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="B42" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="B43" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="B44" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="B45" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="B46" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="B47" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="B48" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="B49" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="B50" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="B51" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="B53" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B54" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="B55" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="B56" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="B57" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="B58" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="B59" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="B60" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B61" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="B62" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="B63" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="B64" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="B65" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="B66" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="B67" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="B68" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B69" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="B70" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="B71" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="B72" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="B73" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="B74" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B75" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="B76" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="B77" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="B78" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="B79" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="B80" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="B81" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B82" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="B83" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B84" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="B85" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="B86" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="B87" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="B88" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="B89" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B90" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="B91" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="B92" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="B93" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="B94" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B95" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="B96" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="B97" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="B98" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="B99" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="B100" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="B101" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="B102" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="B103" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="B104" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="B105" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="B106" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="B107" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="B108" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="B109" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="B110" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="B111" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="B112" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="B113" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="B114" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="B115" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="B116" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="B117" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="B118" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="B119" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="B120" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="B121" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="B122" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="B123" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="B124" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="B125" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="B126" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="B127" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5786,71 +5789,71 @@
         <v>78</v>
       </c>
       <c r="B128" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="B129" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="B130" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="B131" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="B132" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="B133" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="B134" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B136" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
@@ -5875,7 +5878,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5894,111 +5897,111 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="B5" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="B6" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="B7" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="B8" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="B9" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="B10" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="B12" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="B13" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="B14" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="B15" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="B16" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -6094,10 +6097,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B10" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6110,10 +6113,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="B12" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6121,31 +6124,31 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6153,7 +6156,7 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6254,10 +6257,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6334,10 +6337,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B40" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6401,7 +6404,7 @@
         <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6414,10 +6417,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="B50" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6430,7 +6433,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
@@ -6446,10 +6449,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="B54" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6494,10 +6497,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="B60" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6537,7 +6540,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6545,7 +6548,7 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6553,7 +6556,7 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6590,10 +6593,10 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B72" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6662,90 +6665,90 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B89" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B90" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="B91" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -6756,10 +6759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6781,7 +6784,7 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6789,7 +6792,7 @@
         <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6797,7 +6800,7 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6805,7 +6808,7 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6813,7 +6816,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6821,7 +6824,7 @@
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6829,7 +6832,7 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6837,7 +6840,7 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6845,7 +6848,7 @@
         <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6853,7 +6856,7 @@
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6861,7 +6864,7 @@
         <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6869,7 +6872,7 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6890,34 +6893,34 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="B16" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="B17" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="B18" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6930,42 +6933,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7077,12 +7080,12 @@
         <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
         <v>193</v>
@@ -7282,290 +7285,290 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B85" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B86" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B87" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="B88" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="B89" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="B90" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="B91" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="B92" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="B93" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="B94" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="B95" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="B96" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="B97" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="B98" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="B99" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="B100" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7576,17 +7579,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="B102" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+    <row r="103" spans="1:2">
+      <c r="A103" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1417</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7610,7 +7633,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7626,34 +7649,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="B6" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7666,266 +7689,266 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="B13" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="B14" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="B15" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="B16" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="B17" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="B18" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="B19" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="B20" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="B21" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="B22" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="B23" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="B24" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="B25" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="B26" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="B27" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="B28" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="B29" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="B30" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="B31" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="B32" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="B33" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="B34" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="B35" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="B36" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="B37" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="B38" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="B39" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="B40" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +7974,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7959,138 +7982,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8098,7 +8121,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8106,55 +8129,55 @@
         <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8162,7 +8185,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8170,261 +8193,261 @@
         <v>72</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8432,7 +8455,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8440,167 +8463,167 @@
         <v>76</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -8614,7 +8637,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8626,7 +8649,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8634,514 +8657,514 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>513</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -9166,7 +9189,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9174,7 +9197,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>146</v>
@@ -9182,578 +9205,578 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B20" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B21" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B22" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B23" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B24" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B25" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B26" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B27" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="B30" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B31" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B32" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B33" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B37" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B38" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B39" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B42" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B43" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B44" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B45" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B46" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B47" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B48" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B49" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B50" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B51" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B52" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B53" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B54" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B55" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B56" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B57" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B58" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B59" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B60" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B61" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B62" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B63" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B64" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B65" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B66" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B67" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B68" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B70" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B71" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B72" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="B73" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B74" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -9778,7 +9801,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9789,423 +9812,423 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="B3" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B8" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="B9" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="B10" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="B11" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="B12" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="B13" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="B14" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="B15" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="B16" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="B17" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="B18" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="B20" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="B21" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B22" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="B23" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="B24" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="B25" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="B26" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="B27" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="B28" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="B29" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="B30" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="B31" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="B32" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="B33" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="B34" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="B35" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B36" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="B37" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="B38" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="B39" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="B40" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="B41" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="B42" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="B43" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="B44" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="B45" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="B46" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="B47" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="B48" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="B49" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="B50" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="B51" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="B52" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="B53" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="B54" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10213,7 +10236,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10221,399 +10244,399 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="B57" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="B58" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="B59" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B60" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B61" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="B62" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B63" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B64" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B65" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="B66" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="B67" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="B68" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="B69" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B70" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="B71" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B72" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="B73" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="B74" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="B75" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="B76" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B77" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B78" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="B79" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="B80" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="B81" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B82" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="B84" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="B85" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B86" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B87" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="B88" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="B89" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="B90" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="B91" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="B92" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="B93" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="B94" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="B95" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B96" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B97" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="B98" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B99" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="B100" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="B101" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="B102" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="B103" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="B104" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="B105" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -10637,7 +10660,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -10645,162 +10668,162 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="B5" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B6" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B7" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B8" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="B9" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B10" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="B11" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B12" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B13" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B14" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B15" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="B16" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B17" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B18" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="B19" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B20" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B21" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,18 @@
     <sheet name="Underwriter_Elements" sheetId="3" r:id="rId3"/>
     <sheet name="IdentificationDetails_Elements" sheetId="4" r:id="rId4"/>
     <sheet name="DataCheckIncome_Elements" sheetId="5" r:id="rId5"/>
-    <sheet name="DataCheckAppDetails_Elements" sheetId="6" r:id="rId6"/>
+    <sheet name="ApplicationDetails_Elements" sheetId="6" r:id="rId6"/>
     <sheet name="OfferingOfferDetails_Elements" sheetId="7" r:id="rId7"/>
     <sheet name="AppData_CustomerDetail_Elements" sheetId="8" r:id="rId8"/>
-    <sheet name="TW_AppData_AppDetails_Elements" sheetId="9" r:id="rId9"/>
-    <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId10"/>
-    <sheet name="TW_AppData_DocumentDetails" sheetId="11" r:id="rId11"/>
+    <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId9"/>
+    <sheet name="TW_AppData_DocumentDetails" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1440">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1283,9 +1282,6 @@
     <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[6]</t>
   </si>
   <si>
-    <t>DataCheckAppDetails_FieldName</t>
-  </si>
-  <si>
     <t>AppDetailsSubmitBtn</t>
   </si>
   <si>
@@ -1415,12 +1411,6 @@
     <t>document.querySelector('[id="serviceBranch"] ion-label')</t>
   </si>
   <si>
-    <t>servicingBrachLabel</t>
-  </si>
-  <si>
-    <t>servicingBrachDropdown</t>
-  </si>
-  <si>
     <t>document.querySelector('[id="spokeLoc"] ion-label')</t>
   </si>
   <si>
@@ -1532,12 +1522,6 @@
     <t>regionDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[id="totalFinanceAmount"] p-inputnumber')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[id="declCurrNetincome"] p-inputnumber')</t>
-  </si>
-  <si>
     <t>Offering_OfferDetails_FieldName</t>
   </si>
   <si>
@@ -4281,6 +4265,84 @@
   </si>
   <si>
     <t>offerDetailstable</t>
+  </si>
+  <si>
+    <t>referenceEntityLabel</t>
+  </si>
+  <si>
+    <t>referenceEntityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceBpId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceBpId"] ion-select')</t>
+  </si>
+  <si>
+    <t>referenceEntity</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceBpId"]')</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="applicantType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="customerName"] input')</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="idType"] ion-select')</t>
+  </si>
+  <si>
+    <t>idType</t>
+  </si>
+  <si>
+    <t>idNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="idNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="dateOfBirth"] input')</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>document.querySelector('td span[class*="highlight"]')</t>
+  </si>
+  <si>
+    <t>higlightedDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalFinanceAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"] input')</t>
+  </si>
+  <si>
+    <t>servicingBranchDropdown</t>
+  </si>
+  <si>
+    <t>servicingBranchLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalFinanceAmount"]')</t>
+  </si>
+  <si>
+    <t>totalFinanceAmt</t>
+  </si>
+  <si>
+    <t>declaredMonthlyIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"]')</t>
   </si>
 </sst>
 </file>
@@ -4756,1114 +4818,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B136"/>
-  <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="46.5546875" customWidth="1"/>
-    <col min="2" max="2" width="139.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>893</v>
-      </c>
-      <c r="B127" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>999</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B135" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>746</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5878,7 +4832,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5897,111 +4851,111 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="B5" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B6" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="B7" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B9" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="B10" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B11" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B12" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="B13" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B14" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="B15" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B16" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -6097,10 +5051,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6113,10 +5067,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B12" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6124,7 +5078,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6257,10 +5211,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B30" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6337,10 +5291,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B40" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6404,7 +5358,7 @@
         <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6417,10 +5371,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B50" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6433,7 +5387,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
@@ -6449,10 +5403,10 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B54" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6497,10 +5451,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B60" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6540,7 +5494,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6548,7 +5502,7 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6556,7 +5510,7 @@
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6593,10 +5547,10 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B72" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6668,7 +5622,7 @@
         <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6729,26 +5683,26 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B89" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B90" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B91" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -6761,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -6784,7 +5738,7 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6792,7 +5746,7 @@
         <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6800,7 +5754,7 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6808,7 +5762,7 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6816,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6824,7 +5778,7 @@
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6832,7 +5786,7 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6840,7 +5794,7 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6848,7 +5802,7 @@
         <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6856,7 +5810,7 @@
         <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6864,7 +5818,7 @@
         <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6872,7 +5826,7 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6893,34 +5847,34 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="B16" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="B17" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="B18" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7288,7 +6242,7 @@
         <v>243</v>
       </c>
       <c r="B65" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7296,7 +6250,7 @@
         <v>242</v>
       </c>
       <c r="B66" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7304,7 +6258,7 @@
         <v>244</v>
       </c>
       <c r="B67" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7312,7 +6266,7 @@
         <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -7320,7 +6274,7 @@
         <v>246</v>
       </c>
       <c r="B69" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -7328,7 +6282,7 @@
         <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7336,7 +6290,7 @@
         <v>248</v>
       </c>
       <c r="B71" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -7344,7 +6298,7 @@
         <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -7352,7 +6306,7 @@
         <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -7360,7 +6314,7 @@
         <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -7368,7 +6322,7 @@
         <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -7376,7 +6330,7 @@
         <v>253</v>
       </c>
       <c r="B76" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -7445,130 +6399,130 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B85" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B86" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B87" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B88" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="B89" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="B90" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="B91" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="B92" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B93" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B94" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="B95" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="B96" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="B97" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="B98" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B99" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="B100" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -7581,7 +6535,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="B102" t="s">
         <v>124</v>
@@ -7589,26 +6543,26 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="B104" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="B105" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -7633,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7649,18 +6603,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7668,15 +6622,15 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="B6" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7713,7 +6667,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="B11" t="s">
         <v>309</v>
@@ -7721,7 +6675,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="B12" t="s">
         <v>317</v>
@@ -7729,226 +6683,226 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B13" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B14" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B15" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B16" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B17" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="B18" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B19" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="B20" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B21" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B22" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B23" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="B24" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B25" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B26" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B27" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B28" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B29" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B30" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="B31" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="B32" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B33" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B34" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B35" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="B36" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="B37" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="B38" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="B39" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="B40" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +6936,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8014,10 +6968,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8054,18 +7008,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8214,10 +7168,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8272,37 +7226,37 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C41" s="8"/>
     </row>
@@ -8516,87 +7470,87 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>282</v>
@@ -8604,26 +7558,26 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -8634,10 +7588,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8649,7 +7603,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>419</v>
+        <v>942</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8657,514 +7611,778 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>502</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>503</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>463</v>
+        <v>1435</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>464</v>
+        <v>1434</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>495</v>
+        <v>1414</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>494</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>496</v>
+        <v>1415</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>725</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>687</v>
+        <v>492</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>688</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>690</v>
+        <v>493</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>696</v>
+        <v>1437</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>695</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>698</v>
+        <v>1438</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>697</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>722</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>943</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>945</v>
+      </c>
+      <c r="B75" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>953</v>
+      </c>
+      <c r="B76" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>952</v>
+      </c>
+      <c r="B77" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>951</v>
+      </c>
+      <c r="B78" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>950</v>
+      </c>
+      <c r="B79" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>955</v>
+      </c>
+      <c r="B80" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>957</v>
+      </c>
+      <c r="B81" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>959</v>
+      </c>
+      <c r="B82" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>961</v>
+      </c>
+      <c r="B83" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>963</v>
+      </c>
+      <c r="B84" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>967</v>
+      </c>
+      <c r="B85" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>968</v>
+      </c>
+      <c r="B86" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>741</v>
+      </c>
+      <c r="B87" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>970</v>
+      </c>
+      <c r="B88" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>973</v>
+      </c>
+      <c r="B89" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>974</v>
+      </c>
+      <c r="B90" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>979</v>
+      </c>
+      <c r="B91" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -9189,7 +8407,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9197,7 +8415,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>146</v>
@@ -9205,578 +8423,578 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B17" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B20" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B22" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B24" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B25" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B26" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B27" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B30" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B31" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B32" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B33" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B34" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B35" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B36" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B39" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B41" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B42" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B43" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B44" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B45" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B46" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B47" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B48" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B49" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B50" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B51" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B52" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B53" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B54" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B55" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B57" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B58" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B59" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B60" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B61" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B62" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B63" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B64" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B65" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B66" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B67" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B68" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B69" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B70" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B71" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B72" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B73" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B74" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -9801,7 +9019,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9812,44 +9030,44 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B7" t="s">
         <v>309</v>
@@ -9857,378 +9075,378 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B11" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B12" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B13" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B14" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B15" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B16" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B17" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B18" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B19" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B20" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B21" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B22" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B23" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B24" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B25" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B26" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B27" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B29" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B30" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B31" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B32" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B33" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B34" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B35" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B36" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B37" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B38" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B39" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B40" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B41" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B42" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B43" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B44" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B45" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B46" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B47" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B48" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B49" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B50" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B51" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B52" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B53" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B54" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10236,7 +9454,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10244,196 +9462,196 @@
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B57" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B58" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B59" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B60" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B61" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B62" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B63" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B64" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B65" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B66" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B67" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B68" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B69" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B70" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B71" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B72" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B73" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B74" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B75" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B76" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B77" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B78" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B79" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B80" t="s">
         <v>395</v>
@@ -10441,23 +9659,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B81" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B82" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B83" t="s">
         <v>317</v>
@@ -10465,7 +9683,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B84" t="s">
         <v>309</v>
@@ -10473,170 +9691,170 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B85" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B86" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B87" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B88" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B89" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B90" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B91" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B92" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B93" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B94" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B95" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B96" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B97" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B98" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B99" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B100" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B101" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B102" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B103" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B104" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B105" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -10646,184 +9864,1104 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="139.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>947</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>970</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>969</v>
+      <c r="A2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>982</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>749</v>
+      <c r="A3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>948</v>
+        <v>1248</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="B5" t="s">
-        <v>949</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>1252</v>
       </c>
       <c r="B6" t="s">
-        <v>951</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>957</v>
+        <v>1254</v>
       </c>
       <c r="B7" t="s">
-        <v>952</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>956</v>
+        <v>1256</v>
       </c>
       <c r="B8" t="s">
-        <v>953</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>955</v>
-      </c>
-      <c r="B9" t="s">
-        <v>954</v>
+      <c r="A9" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>960</v>
+        <v>1016</v>
       </c>
       <c r="B10" t="s">
-        <v>959</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>962</v>
+        <v>1017</v>
       </c>
       <c r="B11" t="s">
-        <v>961</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="B12" t="s">
-        <v>963</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>966</v>
+        <v>1021</v>
       </c>
       <c r="B13" t="s">
-        <v>965</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="B14" t="s">
-        <v>967</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>972</v>
+        <v>1025</v>
       </c>
       <c r="B15" t="s">
-        <v>971</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>973</v>
+        <v>1029</v>
       </c>
       <c r="B16" t="s">
-        <v>981</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>746</v>
+        <v>1030</v>
       </c>
       <c r="B17" t="s">
-        <v>980</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>975</v>
+        <v>1031</v>
       </c>
       <c r="B18" t="s">
-        <v>974</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>978</v>
+        <v>1035</v>
       </c>
       <c r="B19" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>979</v>
+        <v>1036</v>
       </c>
       <c r="B20" t="s">
-        <v>977</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>984</v>
+        <v>1037</v>
       </c>
       <c r="B21" t="s">
-        <v>983</v>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>888</v>
+      </c>
+      <c r="B127" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>994</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B135" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>741</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1444">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4343,6 +4343,18 @@
   </si>
   <si>
     <t>document.querySelector('[id="declCurrNetincome"]')</t>
+  </si>
+  <si>
+    <t>referenceCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceEmployeeId"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-info-circle"][ng-reflect-text="View Summary"]')</t>
+  </si>
+  <si>
+    <t>statusLabel</t>
   </si>
 </sst>
 </file>
@@ -4968,7 +4980,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6576,7 +6588,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7588,10 +7600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7646,7 +7658,7 @@
         <v>421</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>497</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8006,383 +8018,431 @@
         <v>493</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>720</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>682</v>
+        <v>1443</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>683</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>685</v>
+        <v>1355</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>684</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>1437</v>
+        <v>682</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1436</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>1438</v>
+        <v>685</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1439</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>687</v>
+        <v>1437</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>686</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>689</v>
+        <v>1438</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>688</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="9" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="9" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B73" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>943</v>
-      </c>
-      <c r="B74" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>945</v>
-      </c>
-      <c r="B75" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>953</v>
+        <v>1420</v>
       </c>
       <c r="B76" t="s">
-        <v>946</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B77" t="s">
-        <v>947</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B78" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B79" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B80" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B81" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B82" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B83" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B84" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B85" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B86" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>741</v>
+        <v>963</v>
       </c>
       <c r="B87" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B88" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B89" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>974</v>
+        <v>741</v>
       </c>
       <c r="B90" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>970</v>
+      </c>
+      <c r="B91" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>973</v>
+      </c>
+      <c r="B92" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>974</v>
+      </c>
+      <c r="B93" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>979</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>978</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>1425</v>
+        <v>1360</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1424</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>1426</v>
+        <v>846</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>1430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1332</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1450">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -118,9 +118,6 @@
     <t>customerFinancialsPencilEditBtn</t>
   </si>
   <si>
-    <t>financialCommitmentsAddBtn</t>
-  </si>
-  <si>
     <t>document.querySelectorAll('ion-radio-group ion-item')</t>
   </si>
   <si>
@@ -142,189 +139,105 @@
     <t>customerDebtBackBtn</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Finance Type *"]')</t>
-  </si>
-  <si>
     <t>financeTypeField</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Finance Type.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="FORM.FIN_INSTITUTE.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>financeTypeDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Financial Institution "]')</t>
-  </si>
-  <si>
     <t>financialInstitutionDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Account Number"]')</t>
-  </si>
-  <si>
     <t>accountNumberLabel</t>
   </si>
   <si>
     <t>accountNumberInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Account Number"]').nextSibling</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Sanction Date.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>sanctionDataLabel</t>
-  </si>
-  <si>
     <t>document.querySelector("[ng-reflect-text='Edit']")</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Sanction Amount.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>sanctionAmtLabel</t>
   </si>
   <si>
     <t>sanctionAmtInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Interest Rate %"]')</t>
-  </si>
-  <si>
     <t>interestRateLabel</t>
   </si>
   <si>
     <t>interestRateInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Current Principal Balance"]')</t>
-  </si>
-  <si>
     <t>currentPrincipalBalanceLabel</t>
   </si>
   <si>
     <t>currentPrincipalBalanceInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Tenure (months).TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>tenureMonthLabel</t>
   </si>
   <si>
     <t>tenureMonthInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Maturity Date.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>maturityDateLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Installment Amount"]')</t>
-  </si>
-  <si>
     <t>installmentAmtLabel</t>
   </si>
   <si>
     <t>installmentAmtInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Amount Considered"]')</t>
-  </si>
-  <si>
     <t>amountConsideredLabel</t>
   </si>
   <si>
     <t>amountConsideredInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Currency.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>currencyLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Currency "]')</t>
-  </si>
-  <si>
     <t>currencyDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="SCR.REMARKS.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>remarksLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Next Due date.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>remarksInput</t>
   </si>
   <si>
     <t>nextDueDateLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Collateral Type.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>collateralTypeLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Collateral Type "]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Closed Date.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>closeDateLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Frequency.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>frequencyLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Frequency "]')</t>
-  </si>
-  <si>
     <t>frequencyDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Last Payment Amount"]')</t>
-  </si>
-  <si>
     <t>lastPaymentAmtLabel</t>
   </si>
   <si>
     <t>lastPaymentAmtInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Last Payment Date.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>lastPaymentDateLabel</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="FORM.PRODUCT_NAME.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>productNameLabel</t>
   </si>
   <si>
     <t>productNameInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Last 24 Cycle.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>last24CycleInput</t>
   </si>
   <si>
@@ -343,42 +256,21 @@
     <t>facilityStatusDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  Facility Status "]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Remaining Tenure (months)"]')</t>
-  </si>
-  <si>
     <t>remainingTenureLabel</t>
   </si>
   <si>
     <t>remainingTenureInput</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="Disbursement Date.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[aria-label="Select,  Request for Balance Takeover "]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Request for Balance Takeover.T"]')</t>
-  </si>
-  <si>
     <t>reqForBalanceTakeoverLabel</t>
   </si>
   <si>
     <t>reqForBalanceTakeoverDropdown</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text="NPA CLASSIFICATION.TOOLTIP"]')</t>
-  </si>
-  <si>
     <t>document.querySelectorAll('[aria-label="Select,  NPA CLASSIFICATION "] ion-select-option')</t>
   </si>
   <si>
-    <t>document.querySelector('[aria-label="Select,  NPA CLASSIFICATION "]')</t>
-  </si>
-  <si>
     <t>NPAClassificationLabel</t>
   </si>
   <si>
@@ -403,36 +295,6 @@
     <t>successMsg</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text*="Sanction Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Interest Rate %"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Current Principal Balance"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Tenure (months).TOOLTIP"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Installment Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Amount Considered"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="FORM.PRODUCT_NAME.TOOLTIP"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Last Payment Amount"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Last 24 Cycle.TOOLTIP"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text="Remaining Tenure (months)"]').nextElementSibling.firstChild</t>
-  </si>
-  <si>
     <t>toastMsgCloseBtn</t>
   </si>
   <si>
@@ -1894,12 +1756,6 @@
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] input')</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-text*="Balance Transfer Flag"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('[ng-reflect-text*="Facility Status"]')</t>
-  </si>
-  <si>
     <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.parentElement.querySelector("p-paginator")</t>
   </si>
   <si>
@@ -2056,15 +1912,6 @@
     <t>incomeSectionTableValue1</t>
   </si>
   <si>
-    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.querySelector('button[icon="pi pi-plus"]')</t>
-  </si>
-  <si>
-    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.offsetParent.offsetParent.querySelector('ion-title')</t>
-  </si>
-  <si>
-    <t>financialCommitmentsTitle</t>
-  </si>
-  <si>
     <t>document.querySelector('[id="currentObligations"] p-inputnumber')</t>
   </si>
   <si>
@@ -2197,18 +2044,9 @@
     <t>sanctionDateField</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[id="sanctionDate"] p-calendar')</t>
-  </si>
-  <si>
     <t>maturityDateField</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[id="maturityDate"] p-calendar')</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[id="dueDate"] p-calendar')</t>
-  </si>
-  <si>
     <t>nextDueDateField</t>
   </si>
   <si>
@@ -2218,27 +2056,12 @@
     <t>closeDateField</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[id="loanClosedDate"] p-calendar')</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[id="lastPaymentDate"] p-calendar')</t>
-  </si>
-  <si>
     <t>lastPaymentDateField</t>
   </si>
   <si>
-    <t>document.querySelector('digital-radio-button[id="isBalanceTransferred"] ion-toggle')</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[id="facilityOpenDate"] p-calendar')</t>
-  </si>
-  <si>
     <t>disbursementDateField</t>
   </si>
   <si>
-    <t>document.querySelector('digital-text-box[id="remarks"] textarea')</t>
-  </si>
-  <si>
     <t>document.querySelector('th[ng-reflect-field="currencyDesc"]').nextElementSibling</t>
   </si>
   <si>
@@ -4355,6 +4178,201 @@
   </si>
   <si>
     <t>statusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="financeType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="financeType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="financierId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="financierId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sanctionDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sanctionDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sanctionAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sanctionAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="pricing"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="pricing"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="principalOutstanding"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="principalOutstanding"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maturityDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maturityDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="emiAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="emiAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="principalOutstandingConsidered"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="principalOutstandingConsidered"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currencyCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currencyCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] textarea')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dueDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dueDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="collateralId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="collateralId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanClosedDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanClosedDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="repaymentFrequency"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="repaymentFrequency"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastPaymentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastPaymentDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastPaymentDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="productName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="productName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastCycle"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="lastCycle"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBalanceTransferred"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBalanceTransferred"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="loanStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remainingTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remainingTenure"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="facilityOpenDate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="facilityOpenDate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="balanceTransferFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="balanceTransferFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="npaClassi"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="npaClassi"] ion-label')</t>
+  </si>
+  <si>
+    <t>sanctionDateLabel</t>
+  </si>
+  <si>
+    <t>confirmPopupMsg</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('confirmationdialog button')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('confirmationdialog button')[1]</t>
+  </si>
+  <si>
+    <t>confirmPopupCancelBtn</t>
+  </si>
+  <si>
+    <t>confirmPopupOkayBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('confirmationdialog span')</t>
+  </si>
+  <si>
+    <t>topupAppNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupApplNo"] ion-input')</t>
+  </si>
+  <si>
+    <t>mandatoryReqPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[role="alert"]')</t>
+  </si>
+  <si>
+    <t>pencilEditBtn</t>
   </si>
 </sst>
 </file>
@@ -4844,7 +4862,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1274</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4852,122 +4870,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>1300</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1275</v>
+        <v>1216</v>
       </c>
       <c r="B4" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1297</v>
+        <v>1238</v>
       </c>
       <c r="B5" t="s">
-        <v>1296</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1277</v>
+        <v>1218</v>
       </c>
       <c r="B6" t="s">
-        <v>1276</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1278</v>
+        <v>1219</v>
       </c>
       <c r="B7" t="s">
-        <v>1279</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1281</v>
+        <v>1222</v>
       </c>
       <c r="B8" t="s">
-        <v>1280</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1282</v>
+        <v>1223</v>
       </c>
       <c r="B9" t="s">
-        <v>1283</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1285</v>
+        <v>1226</v>
       </c>
       <c r="B10" t="s">
-        <v>1284</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1286</v>
+        <v>1227</v>
       </c>
       <c r="B11" t="s">
-        <v>1287</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1290</v>
+        <v>1231</v>
       </c>
       <c r="B12" t="s">
-        <v>1289</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1291</v>
+        <v>1232</v>
       </c>
       <c r="B13" t="s">
-        <v>1288</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1299</v>
+        <v>1240</v>
       </c>
       <c r="B14" t="s">
-        <v>1298</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1294</v>
+        <v>1235</v>
       </c>
       <c r="B15" t="s">
-        <v>1292</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1295</v>
+        <v>1236</v>
       </c>
       <c r="B16" t="s">
-        <v>1293</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -4977,10 +4995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5010,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5058,663 +5076,647 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>578</v>
       </c>
       <c r="B10" t="s">
-        <v>625</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>679</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>678</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>1438</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>672</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>723</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>724</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>673</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>725</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>726</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>674</v>
       </c>
       <c r="B48" t="s">
-        <v>737</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="B50" t="s">
-        <v>727</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>729</v>
+        <v>676</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>730</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>731</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>677</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>733</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>732</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>623</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>734</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>678</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>736</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>735</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
-        <v>627</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>680</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>682</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="B89" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>741</v>
-      </c>
-      <c r="B90" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>722</v>
-      </c>
-      <c r="B91" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +5741,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5747,34 +5749,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>631</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5782,759 +5784,759 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>635</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>636</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1388</v>
+        <v>1329</v>
       </c>
       <c r="B16" t="s">
-        <v>1387</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1391</v>
+        <v>1332</v>
       </c>
       <c r="B17" t="s">
-        <v>1389</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1392</v>
+        <v>1333</v>
       </c>
       <c r="B18" t="s">
-        <v>1390</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1393</v>
+        <v>1334</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>1401</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>1398</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>1400</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>1399</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>1402</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>1403</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>1404</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>1405</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>1406</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>1396</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>1407</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>1397</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>641</v>
+        <v>593</v>
       </c>
       <c r="B85" t="s">
-        <v>640</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="B86" t="s">
-        <v>642</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>645</v>
+        <v>597</v>
       </c>
       <c r="B87" t="s">
-        <v>644</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1361</v>
+        <v>1302</v>
       </c>
       <c r="B88" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1362</v>
+        <v>1303</v>
       </c>
       <c r="B89" t="s">
-        <v>1363</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1364</v>
+        <v>1305</v>
       </c>
       <c r="B90" t="s">
-        <v>1365</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1366</v>
+        <v>1307</v>
       </c>
       <c r="B91" t="s">
-        <v>1367</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1368</v>
+        <v>1309</v>
       </c>
       <c r="B92" t="s">
-        <v>1369</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1370</v>
+        <v>1311</v>
       </c>
       <c r="B93" t="s">
-        <v>1371</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1372</v>
+        <v>1313</v>
       </c>
       <c r="B94" t="s">
-        <v>1373</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1374</v>
+        <v>1315</v>
       </c>
       <c r="B95" t="s">
-        <v>1375</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1376</v>
+        <v>1317</v>
       </c>
       <c r="B96" t="s">
-        <v>1377</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1378</v>
+        <v>1319</v>
       </c>
       <c r="B97" t="s">
-        <v>1379</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1380</v>
+        <v>1321</v>
       </c>
       <c r="B98" t="s">
-        <v>1381</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1382</v>
+        <v>1323</v>
       </c>
       <c r="B99" t="s">
-        <v>1383</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1384</v>
+        <v>1325</v>
       </c>
       <c r="B100" t="s">
-        <v>1385</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6547,34 +6549,34 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1386</v>
+        <v>1327</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>1409</v>
+        <v>1350</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1408</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1411</v>
+        <v>1352</v>
       </c>
       <c r="B104" t="s">
-        <v>1410</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1413</v>
+        <v>1354</v>
       </c>
       <c r="B105" t="s">
-        <v>1412</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +6601,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1302</v>
+        <v>1243</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6607,314 +6609,314 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>598</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1354</v>
+        <v>1295</v>
       </c>
       <c r="B6" t="s">
-        <v>1353</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1304</v>
+        <v>1245</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1303</v>
+        <v>1244</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1305</v>
+        <v>1246</v>
       </c>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1336</v>
+        <v>1277</v>
       </c>
       <c r="B14" t="s">
-        <v>1335</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1312</v>
+        <v>1253</v>
       </c>
       <c r="B15" t="s">
-        <v>1307</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1309</v>
+        <v>1250</v>
       </c>
       <c r="B16" t="s">
-        <v>1308</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1337</v>
+        <v>1278</v>
       </c>
       <c r="B17" t="s">
-        <v>1339</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1311</v>
+        <v>1252</v>
       </c>
       <c r="B18" t="s">
-        <v>1310</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1314</v>
+        <v>1255</v>
       </c>
       <c r="B19" t="s">
-        <v>1313</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1340</v>
+        <v>1281</v>
       </c>
       <c r="B20" t="s">
-        <v>1338</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1316</v>
+        <v>1257</v>
       </c>
       <c r="B21" t="s">
-        <v>1315</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1317</v>
+        <v>1258</v>
       </c>
       <c r="B22" t="s">
-        <v>1318</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1350</v>
+        <v>1291</v>
       </c>
       <c r="B23" t="s">
-        <v>1347</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1342</v>
+        <v>1283</v>
       </c>
       <c r="B24" t="s">
-        <v>1341</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1321</v>
+        <v>1262</v>
       </c>
       <c r="B25" t="s">
-        <v>1320</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1322</v>
+        <v>1263</v>
       </c>
       <c r="B26" t="s">
-        <v>1319</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1349</v>
+        <v>1290</v>
       </c>
       <c r="B27" t="s">
-        <v>1348</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="B28" t="s">
-        <v>1343</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1325</v>
+        <v>1266</v>
       </c>
       <c r="B29" t="s">
-        <v>1323</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1326</v>
+        <v>1267</v>
       </c>
       <c r="B30" t="s">
-        <v>1324</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1346</v>
+        <v>1287</v>
       </c>
       <c r="B31" t="s">
-        <v>1345</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1329</v>
+        <v>1270</v>
       </c>
       <c r="B32" t="s">
-        <v>1328</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1330</v>
+        <v>1271</v>
       </c>
       <c r="B33" t="s">
-        <v>1327</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1333</v>
+        <v>1274</v>
       </c>
       <c r="B34" t="s">
-        <v>1331</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1334</v>
+        <v>1275</v>
       </c>
       <c r="B35" t="s">
-        <v>1332</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1352</v>
+        <v>1293</v>
       </c>
       <c r="B36" t="s">
-        <v>1351</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1355</v>
+        <v>1296</v>
       </c>
       <c r="B37" t="s">
-        <v>1235</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1356</v>
+        <v>1297</v>
       </c>
       <c r="B38" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1358</v>
+        <v>1299</v>
       </c>
       <c r="B39" t="s">
-        <v>1357</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1360</v>
+        <v>1301</v>
       </c>
       <c r="B40" t="s">
-        <v>1359</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -6940,7 +6942,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6948,648 +6950,648 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>1011</v>
+        <v>952</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>964</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>1008</v>
+        <v>949</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1007</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>982</v>
+        <v>923</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>981</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>983</v>
+        <v>924</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>980</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>992</v>
+        <v>933</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>991</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>986</v>
+        <v>927</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>993</v>
+        <v>934</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>985</v>
+        <v>926</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>984</v>
+        <v>925</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>989</v>
+        <v>930</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>988</v>
+        <v>929</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>990</v>
+        <v>931</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>987</v>
+        <v>928</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>672</v>
+        <v>624</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>671</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>673</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>676</v>
+        <v>628</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>675</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>1006</v>
+        <v>947</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1005</v>
+        <v>946</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>994</v>
+        <v>935</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>996</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>997</v>
+        <v>938</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>995</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>999</v>
+        <v>940</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>998</v>
+        <v>939</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>1001</v>
+        <v>942</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1000</v>
+        <v>941</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>1003</v>
+        <v>944</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1002</v>
+        <v>943</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>963</v>
+        <v>904</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1004</v>
+        <v>945</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>1009</v>
+        <v>950</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1010</v>
+        <v>951</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>973</v>
+        <v>914</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>971</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>974</v>
+        <v>915</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>972</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -7600,10 +7602,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7615,7 +7617,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>942</v>
+        <v>883</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7623,826 +7625,866 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>494</v>
+        <v>373</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1394</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1442</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>432</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1432</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>435</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1433</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>438</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>680</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>498</v>
+        <v>1376</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>1435</v>
+        <v>1375</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>1434</v>
+        <v>418</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>464</v>
+        <v>630</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>681</v>
+        <v>421</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>477</v>
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>707</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>481</v>
+        <v>655</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>480</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>706</v>
+        <v>437</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>705</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>482</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>713</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>485</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>716</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>488</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>490</v>
+        <v>1355</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>719</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>1414</v>
+        <v>1356</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1416</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>1415</v>
+        <v>446</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>491</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>493</v>
+        <v>1384</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1441</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>1443</v>
+        <v>1296</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1233</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>1355</v>
+        <v>631</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1235</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>685</v>
+        <v>1378</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>684</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>1437</v>
+        <v>1379</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1436</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>1438</v>
+        <v>636</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1439</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>703</v>
+        <v>1445</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>702</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>717</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1418</v>
+        <v>1359</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1419</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1440</v>
+        <v>1381</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
-        <v>965</v>
+        <v>906</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>964</v>
+        <v>905</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
-        <v>977</v>
+        <v>918</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1420</v>
+        <v>1361</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>943</v>
+        <v>884</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>945</v>
-      </c>
-      <c r="B78" t="s">
-        <v>944</v>
+      <c r="A78" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>953</v>
+        <v>886</v>
       </c>
       <c r="B79" t="s">
-        <v>946</v>
+        <v>885</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>952</v>
+        <v>894</v>
       </c>
       <c r="B80" t="s">
-        <v>947</v>
+        <v>887</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>951</v>
+        <v>893</v>
       </c>
       <c r="B81" t="s">
-        <v>948</v>
+        <v>888</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>950</v>
+        <v>892</v>
       </c>
       <c r="B82" t="s">
-        <v>949</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>955</v>
+        <v>891</v>
       </c>
       <c r="B83" t="s">
-        <v>954</v>
+        <v>890</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>957</v>
+        <v>896</v>
       </c>
       <c r="B84" t="s">
-        <v>956</v>
+        <v>895</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>959</v>
+        <v>898</v>
       </c>
       <c r="B85" t="s">
-        <v>958</v>
+        <v>897</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>961</v>
+        <v>900</v>
       </c>
       <c r="B86" t="s">
-        <v>960</v>
+        <v>899</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>963</v>
+        <v>902</v>
       </c>
       <c r="B87" t="s">
-        <v>962</v>
+        <v>901</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>967</v>
+        <v>904</v>
       </c>
       <c r="B88" t="s">
-        <v>966</v>
+        <v>903</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>968</v>
+        <v>908</v>
       </c>
       <c r="B89" t="s">
-        <v>976</v>
+        <v>907</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>741</v>
+        <v>909</v>
       </c>
       <c r="B90" t="s">
-        <v>975</v>
+        <v>917</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>970</v>
+        <v>682</v>
       </c>
       <c r="B91" t="s">
-        <v>969</v>
+        <v>916</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>973</v>
+        <v>911</v>
       </c>
       <c r="B92" t="s">
-        <v>971</v>
+        <v>910</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>974</v>
+        <v>914</v>
       </c>
       <c r="B93" t="s">
-        <v>972</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>979</v>
+        <v>915</v>
       </c>
       <c r="B94" t="s">
-        <v>978</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>644</v>
+      <c r="A95" t="s">
+        <v>920</v>
+      </c>
+      <c r="B95" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>846</v>
+        <v>1301</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1421</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>1423</v>
+        <v>787</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1422</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>1425</v>
+        <v>1364</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1424</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>1426</v>
+        <v>1366</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1427</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>1429</v>
+        <v>1367</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1428</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>1431</v>
+        <v>1370</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1430</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" t="s">
-        <v>140</v>
+      <c r="A102" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1333</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>1331</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1334</v>
+        <v>1274</v>
       </c>
       <c r="B104" t="s">
-        <v>1332</v>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -8467,7 +8509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8475,586 +8517,586 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="B27" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="B29" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="B31" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="B33" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="B35" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="B36" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="B37" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B38" t="s">
-        <v>621</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
       <c r="B39" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="B40" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
       <c r="B41" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
       <c r="B42" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
       <c r="B43" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
       <c r="B44" t="s">
-        <v>581</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>583</v>
+        <v>537</v>
       </c>
       <c r="B45" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="B46" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="B47" t="s">
-        <v>586</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
       <c r="B48" t="s">
-        <v>589</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>592</v>
+        <v>546</v>
       </c>
       <c r="B49" t="s">
-        <v>590</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="B50" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>596</v>
+        <v>550</v>
       </c>
       <c r="B51" t="s">
-        <v>594</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="B52" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="B53" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>604</v>
+        <v>558</v>
       </c>
       <c r="B55" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="B56" t="s">
-        <v>605</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="B57" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="B58" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="B59" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="B60" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="B61" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="B62" t="s">
-        <v>617</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="B63" t="s">
-        <v>618</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="B64" t="s">
-        <v>649</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>652</v>
+        <v>604</v>
       </c>
       <c r="B65" t="s">
-        <v>651</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>654</v>
+        <v>606</v>
       </c>
       <c r="B66" t="s">
-        <v>653</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="B67" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>658</v>
+        <v>610</v>
       </c>
       <c r="B68" t="s">
-        <v>657</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>662</v>
+        <v>614</v>
       </c>
       <c r="B69" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="B70" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="B71" t="s">
-        <v>663</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="B72" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="B73" t="s">
-        <v>667</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="B74" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -9079,7 +9121,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>842</v>
+        <v>783</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9087,834 +9129,834 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="B3" t="s">
-        <v>891</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>686</v>
       </c>
       <c r="B4" t="s">
-        <v>744</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>687</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>695</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s">
-        <v>752</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
       <c r="B12" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="B13" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="B14" t="s">
-        <v>760</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>763</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="B16" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
       <c r="B17" t="s">
-        <v>764</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
       <c r="B18" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>771</v>
+        <v>712</v>
       </c>
       <c r="B19" t="s">
-        <v>769</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>774</v>
+        <v>715</v>
       </c>
       <c r="B20" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>775</v>
+        <v>716</v>
       </c>
       <c r="B21" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>778</v>
+        <v>719</v>
       </c>
       <c r="B22" t="s">
-        <v>776</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>779</v>
+        <v>720</v>
       </c>
       <c r="B23" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>782</v>
+        <v>723</v>
       </c>
       <c r="B24" t="s">
-        <v>780</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
       <c r="B25" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>786</v>
+        <v>727</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
       <c r="B27" t="s">
-        <v>785</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>791</v>
+        <v>732</v>
       </c>
       <c r="B29" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>793</v>
+        <v>734</v>
       </c>
       <c r="B30" t="s">
-        <v>792</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>878</v>
+        <v>819</v>
       </c>
       <c r="B31" t="s">
-        <v>877</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>795</v>
+        <v>736</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="B33" t="s">
-        <v>797</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
       <c r="B34" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="B35" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
       <c r="B36" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>806</v>
+        <v>747</v>
       </c>
       <c r="B37" t="s">
-        <v>805</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>807</v>
+        <v>748</v>
       </c>
       <c r="B38" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>810</v>
+        <v>751</v>
       </c>
       <c r="B39" t="s">
-        <v>808</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>811</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
-        <v>809</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>814</v>
+        <v>755</v>
       </c>
       <c r="B41" t="s">
-        <v>812</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>815</v>
+        <v>756</v>
       </c>
       <c r="B42" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>818</v>
+        <v>759</v>
       </c>
       <c r="B43" t="s">
-        <v>816</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>819</v>
+        <v>760</v>
       </c>
       <c r="B44" t="s">
-        <v>817</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>822</v>
+        <v>763</v>
       </c>
       <c r="B45" t="s">
-        <v>820</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>823</v>
+        <v>764</v>
       </c>
       <c r="B46" t="s">
-        <v>821</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>826</v>
+        <v>767</v>
       </c>
       <c r="B47" t="s">
-        <v>824</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
       <c r="B48" t="s">
-        <v>825</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>830</v>
+        <v>771</v>
       </c>
       <c r="B49" t="s">
-        <v>828</v>
+        <v>769</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>831</v>
+        <v>772</v>
       </c>
       <c r="B50" t="s">
-        <v>829</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="B51" t="s">
-        <v>832</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>835</v>
+        <v>776</v>
       </c>
       <c r="B52" t="s">
-        <v>834</v>
+        <v>775</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>837</v>
+        <v>778</v>
       </c>
       <c r="B53" t="s">
-        <v>836</v>
+        <v>777</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>839</v>
+        <v>780</v>
       </c>
       <c r="B54" t="s">
-        <v>838</v>
+        <v>779</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>840</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>841</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>844</v>
+        <v>785</v>
       </c>
       <c r="B57" t="s">
-        <v>843</v>
+        <v>784</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>846</v>
+        <v>787</v>
       </c>
       <c r="B58" t="s">
-        <v>845</v>
+        <v>786</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>848</v>
+        <v>789</v>
       </c>
       <c r="B59" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>850</v>
+        <v>791</v>
       </c>
       <c r="B60" t="s">
-        <v>849</v>
+        <v>790</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>852</v>
+        <v>793</v>
       </c>
       <c r="B61" t="s">
-        <v>851</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>854</v>
+        <v>795</v>
       </c>
       <c r="B62" t="s">
-        <v>853</v>
+        <v>794</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>856</v>
+        <v>797</v>
       </c>
       <c r="B63" t="s">
-        <v>855</v>
+        <v>796</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>861</v>
+        <v>802</v>
       </c>
       <c r="B64" t="s">
-        <v>857</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>862</v>
+        <v>803</v>
       </c>
       <c r="B65" t="s">
-        <v>858</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="B66" t="s">
-        <v>859</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>864</v>
+        <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>860</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>866</v>
+        <v>807</v>
       </c>
       <c r="B68" t="s">
-        <v>865</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>873</v>
+        <v>814</v>
       </c>
       <c r="B69" t="s">
-        <v>872</v>
+        <v>813</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>868</v>
+        <v>809</v>
       </c>
       <c r="B70" t="s">
-        <v>867</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>875</v>
+        <v>816</v>
       </c>
       <c r="B71" t="s">
-        <v>869</v>
+        <v>810</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>874</v>
+        <v>815</v>
       </c>
       <c r="B72" t="s">
-        <v>870</v>
+        <v>811</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>876</v>
+        <v>817</v>
       </c>
       <c r="B73" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>884</v>
+        <v>825</v>
       </c>
       <c r="B74" t="s">
-        <v>879</v>
+        <v>820</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>885</v>
+        <v>826</v>
       </c>
       <c r="B75" t="s">
-        <v>880</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>886</v>
+        <v>827</v>
       </c>
       <c r="B76" t="s">
-        <v>881</v>
+        <v>822</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>887</v>
+        <v>828</v>
       </c>
       <c r="B77" t="s">
-        <v>882</v>
+        <v>823</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>890</v>
+        <v>831</v>
       </c>
       <c r="B78" t="s">
-        <v>889</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>888</v>
+        <v>829</v>
       </c>
       <c r="B79" t="s">
-        <v>883</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>937</v>
+        <v>878</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>939</v>
+        <v>880</v>
       </c>
       <c r="B81" t="s">
-        <v>938</v>
+        <v>879</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="B82" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>893</v>
+        <v>834</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>896</v>
+        <v>837</v>
       </c>
       <c r="B85" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>897</v>
+        <v>838</v>
       </c>
       <c r="B86" t="s">
-        <v>895</v>
+        <v>836</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>898</v>
+        <v>839</v>
       </c>
       <c r="B87" t="s">
-        <v>900</v>
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>903</v>
+        <v>844</v>
       </c>
       <c r="B88" t="s">
-        <v>902</v>
+        <v>843</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>904</v>
+        <v>845</v>
       </c>
       <c r="B89" t="s">
-        <v>901</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>905</v>
+        <v>846</v>
       </c>
       <c r="B90" t="s">
-        <v>906</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>910</v>
+        <v>851</v>
       </c>
       <c r="B91" t="s">
-        <v>907</v>
+        <v>848</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>911</v>
+        <v>852</v>
       </c>
       <c r="B92" t="s">
-        <v>908</v>
+        <v>849</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>912</v>
+        <v>853</v>
       </c>
       <c r="B93" t="s">
-        <v>909</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>916</v>
+        <v>857</v>
       </c>
       <c r="B94" t="s">
-        <v>914</v>
+        <v>855</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>917</v>
+        <v>858</v>
       </c>
       <c r="B95" t="s">
-        <v>915</v>
+        <v>856</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>918</v>
+        <v>859</v>
       </c>
       <c r="B96" t="s">
-        <v>913</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>922</v>
+        <v>863</v>
       </c>
       <c r="B97" t="s">
-        <v>920</v>
+        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>923</v>
+        <v>864</v>
       </c>
       <c r="B98" t="s">
-        <v>919</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>924</v>
+        <v>865</v>
       </c>
       <c r="B99" t="s">
-        <v>921</v>
+        <v>862</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>928</v>
+        <v>869</v>
       </c>
       <c r="B100" t="s">
-        <v>925</v>
+        <v>866</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>929</v>
+        <v>870</v>
       </c>
       <c r="B101" t="s">
-        <v>926</v>
+        <v>867</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>930</v>
+        <v>871</v>
       </c>
       <c r="B102" t="s">
-        <v>927</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>934</v>
+        <v>875</v>
       </c>
       <c r="B103" t="s">
-        <v>932</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>935</v>
+        <v>876</v>
       </c>
       <c r="B104" t="s">
-        <v>931</v>
+        <v>872</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>936</v>
+        <v>877</v>
       </c>
       <c r="B105" t="s">
-        <v>933</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -9938,7 +9980,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>1012</v>
+        <v>953</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9946,1082 +9988,1082 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1244</v>
+        <v>1185</v>
       </c>
       <c r="B2" t="s">
-        <v>1013</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1243</v>
+        <v>1184</v>
       </c>
       <c r="B3" t="s">
-        <v>1242</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1248</v>
+        <v>1189</v>
       </c>
       <c r="B4" t="s">
-        <v>1247</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1250</v>
+        <v>1191</v>
       </c>
       <c r="B5" t="s">
-        <v>1249</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1252</v>
+        <v>1193</v>
       </c>
       <c r="B6" t="s">
-        <v>1251</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1254</v>
+        <v>1195</v>
       </c>
       <c r="B7" t="s">
-        <v>1253</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1256</v>
+        <v>1197</v>
       </c>
       <c r="B8" t="s">
-        <v>1255</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1241</v>
+        <v>1182</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1016</v>
+        <v>957</v>
       </c>
       <c r="B10" t="s">
-        <v>1015</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1017</v>
+        <v>958</v>
       </c>
       <c r="B11" t="s">
-        <v>1014</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1018</v>
+        <v>959</v>
       </c>
       <c r="B12" t="s">
-        <v>1019</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="B13" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1022</v>
+        <v>963</v>
       </c>
       <c r="B14" t="s">
-        <v>1023</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1025</v>
+        <v>966</v>
       </c>
       <c r="B15" t="s">
-        <v>1024</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1029</v>
+        <v>970</v>
       </c>
       <c r="B16" t="s">
-        <v>1027</v>
+        <v>968</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1030</v>
+        <v>971</v>
       </c>
       <c r="B17" t="s">
-        <v>1028</v>
+        <v>969</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1031</v>
+        <v>972</v>
       </c>
       <c r="B18" t="s">
-        <v>1026</v>
+        <v>967</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1035</v>
+        <v>976</v>
       </c>
       <c r="B19" t="s">
-        <v>1034</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1036</v>
+        <v>977</v>
       </c>
       <c r="B20" t="s">
-        <v>1033</v>
+        <v>974</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1037</v>
+        <v>978</v>
       </c>
       <c r="B21" t="s">
-        <v>1032</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1041</v>
+        <v>982</v>
       </c>
       <c r="B22" t="s">
-        <v>1040</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1042</v>
+        <v>983</v>
       </c>
       <c r="B23" t="s">
-        <v>1039</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="B24" t="s">
-        <v>1038</v>
+        <v>979</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="B25" t="s">
-        <v>1044</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1048</v>
+        <v>989</v>
       </c>
       <c r="B26" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1049</v>
+        <v>990</v>
       </c>
       <c r="B27" t="s">
-        <v>1046</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1053</v>
+        <v>994</v>
       </c>
       <c r="B28" t="s">
-        <v>1050</v>
+        <v>991</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1054</v>
+        <v>995</v>
       </c>
       <c r="B29" t="s">
-        <v>1051</v>
+        <v>992</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1055</v>
+        <v>996</v>
       </c>
       <c r="B30" t="s">
-        <v>1052</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1057</v>
+        <v>998</v>
       </c>
       <c r="B31" t="s">
-        <v>1060</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1058</v>
+        <v>999</v>
       </c>
       <c r="B32" t="s">
-        <v>1061</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1059</v>
+        <v>1000</v>
       </c>
       <c r="B33" t="s">
-        <v>1056</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1064</v>
+        <v>1005</v>
       </c>
       <c r="B34" t="s">
-        <v>1063</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1065</v>
+        <v>1006</v>
       </c>
       <c r="B35" t="s">
-        <v>1062</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1066</v>
+        <v>1007</v>
       </c>
       <c r="B36" t="s">
-        <v>1245</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1069</v>
+        <v>1010</v>
       </c>
       <c r="B37" t="s">
-        <v>1068</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1070</v>
+        <v>1011</v>
       </c>
       <c r="B38" t="s">
-        <v>1067</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1071</v>
+        <v>1012</v>
       </c>
       <c r="B39" t="s">
-        <v>1246</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1073</v>
+        <v>1014</v>
       </c>
       <c r="B40" t="s">
-        <v>1072</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1076</v>
+        <v>1017</v>
       </c>
       <c r="B41" t="s">
-        <v>1074</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1077</v>
+        <v>1018</v>
       </c>
       <c r="B42" t="s">
-        <v>1075</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1081</v>
+        <v>1022</v>
       </c>
       <c r="B43" t="s">
-        <v>1080</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1082</v>
+        <v>1023</v>
       </c>
       <c r="B44" t="s">
-        <v>1079</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1083</v>
+        <v>1024</v>
       </c>
       <c r="B45" t="s">
-        <v>1078</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1087</v>
+        <v>1028</v>
       </c>
       <c r="B46" t="s">
-        <v>1084</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1088</v>
+        <v>1029</v>
       </c>
       <c r="B47" t="s">
-        <v>1085</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1089</v>
+        <v>1030</v>
       </c>
       <c r="B48" t="s">
-        <v>1086</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1093</v>
+        <v>1034</v>
       </c>
       <c r="B49" t="s">
-        <v>1092</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1094</v>
+        <v>1035</v>
       </c>
       <c r="B50" t="s">
-        <v>1091</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1095</v>
+        <v>1036</v>
       </c>
       <c r="B51" t="s">
-        <v>1090</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1099</v>
+        <v>1040</v>
       </c>
       <c r="B52" t="s">
-        <v>1098</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1100</v>
+        <v>1041</v>
       </c>
       <c r="B53" t="s">
-        <v>1097</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1101</v>
+        <v>1042</v>
       </c>
       <c r="B54" t="s">
-        <v>1096</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1105</v>
+        <v>1046</v>
       </c>
       <c r="B55" t="s">
-        <v>1103</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1106</v>
+        <v>1047</v>
       </c>
       <c r="B56" t="s">
-        <v>1102</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1107</v>
+        <v>1048</v>
       </c>
       <c r="B57" t="s">
-        <v>1104</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1111</v>
+        <v>1052</v>
       </c>
       <c r="B58" t="s">
-        <v>1110</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1112</v>
+        <v>1053</v>
       </c>
       <c r="B59" t="s">
-        <v>1109</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1113</v>
+        <v>1054</v>
       </c>
       <c r="B60" t="s">
-        <v>1108</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1117</v>
+        <v>1058</v>
       </c>
       <c r="B61" t="s">
-        <v>1116</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1118</v>
+        <v>1059</v>
       </c>
       <c r="B62" t="s">
-        <v>1115</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1119</v>
+        <v>1060</v>
       </c>
       <c r="B63" t="s">
-        <v>1114</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1131</v>
+        <v>1072</v>
       </c>
       <c r="B64" t="s">
-        <v>1122</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1123</v>
+        <v>1064</v>
       </c>
       <c r="B65" t="s">
-        <v>1120</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1124</v>
+        <v>1065</v>
       </c>
       <c r="B66" t="s">
-        <v>1121</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1128</v>
+        <v>1069</v>
       </c>
       <c r="B67" t="s">
-        <v>1125</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1129</v>
+        <v>1070</v>
       </c>
       <c r="B68" t="s">
-        <v>1126</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1130</v>
+        <v>1071</v>
       </c>
       <c r="B69" t="s">
-        <v>1127</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1135</v>
+        <v>1076</v>
       </c>
       <c r="B70" t="s">
-        <v>1132</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1136</v>
+        <v>1077</v>
       </c>
       <c r="B71" t="s">
-        <v>1133</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1137</v>
+        <v>1078</v>
       </c>
       <c r="B72" t="s">
-        <v>1134</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1138</v>
+        <v>1079</v>
       </c>
       <c r="B73" t="s">
-        <v>1141</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1139</v>
+        <v>1080</v>
       </c>
       <c r="B74" t="s">
-        <v>1142</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1140</v>
+        <v>1081</v>
       </c>
       <c r="B75" t="s">
-        <v>1143</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1147</v>
+        <v>1088</v>
       </c>
       <c r="B76" t="s">
-        <v>1144</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1148</v>
+        <v>1089</v>
       </c>
       <c r="B77" t="s">
-        <v>1145</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1149</v>
+        <v>1090</v>
       </c>
       <c r="B78" t="s">
-        <v>1146</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1259</v>
+        <v>1200</v>
       </c>
       <c r="B79" t="s">
-        <v>1258</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1260</v>
+        <v>1201</v>
       </c>
       <c r="B80" t="s">
-        <v>1257</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1261</v>
+        <v>1202</v>
       </c>
       <c r="B81" t="s">
-        <v>1262</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1156</v>
+        <v>1097</v>
       </c>
       <c r="B82" t="s">
-        <v>1150</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1157</v>
+        <v>1098</v>
       </c>
       <c r="B83" t="s">
-        <v>1151</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1158</v>
+        <v>1099</v>
       </c>
       <c r="B84" t="s">
-        <v>1152</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1159</v>
+        <v>1100</v>
       </c>
       <c r="B85" t="s">
-        <v>1153</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1160</v>
+        <v>1101</v>
       </c>
       <c r="B86" t="s">
-        <v>1154</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1161</v>
+        <v>1102</v>
       </c>
       <c r="B87" t="s">
-        <v>1155</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1165</v>
+        <v>1106</v>
       </c>
       <c r="B88" t="s">
-        <v>1163</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1166</v>
+        <v>1107</v>
       </c>
       <c r="B89" t="s">
-        <v>1162</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1167</v>
+        <v>1108</v>
       </c>
       <c r="B90" t="s">
-        <v>1164</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1171</v>
+        <v>1112</v>
       </c>
       <c r="B91" t="s">
-        <v>1170</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1172</v>
+        <v>1113</v>
       </c>
       <c r="B92" t="s">
-        <v>1169</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1173</v>
+        <v>1114</v>
       </c>
       <c r="B93" t="s">
-        <v>1168</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1180</v>
+        <v>1121</v>
       </c>
       <c r="B94" t="s">
-        <v>1174</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1181</v>
+        <v>1122</v>
       </c>
       <c r="B95" t="s">
-        <v>1175</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1182</v>
+        <v>1123</v>
       </c>
       <c r="B96" t="s">
-        <v>1176</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1183</v>
+        <v>1124</v>
       </c>
       <c r="B97" t="s">
-        <v>1177</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1184</v>
+        <v>1125</v>
       </c>
       <c r="B98" t="s">
-        <v>1178</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1185</v>
+        <v>1126</v>
       </c>
       <c r="B99" t="s">
-        <v>1179</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1188</v>
+        <v>1129</v>
       </c>
       <c r="B100" t="s">
-        <v>1187</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1189</v>
+        <v>1130</v>
       </c>
       <c r="B101" t="s">
-        <v>1186</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1190</v>
+        <v>1131</v>
       </c>
       <c r="B102" t="s">
-        <v>1191</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1195</v>
+        <v>1136</v>
       </c>
       <c r="B103" t="s">
-        <v>1192</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1196</v>
+        <v>1137</v>
       </c>
       <c r="B104" t="s">
-        <v>1193</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1197</v>
+        <v>1138</v>
       </c>
       <c r="B105" t="s">
-        <v>1194</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1200</v>
+        <v>1141</v>
       </c>
       <c r="B106" t="s">
-        <v>1198</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1201</v>
+        <v>1142</v>
       </c>
       <c r="B107" t="s">
-        <v>1199</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1202</v>
+        <v>1143</v>
       </c>
       <c r="B108" t="s">
-        <v>1301</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1218</v>
+        <v>1159</v>
       </c>
       <c r="B109" t="s">
-        <v>1203</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1219</v>
+        <v>1160</v>
       </c>
       <c r="B110" t="s">
-        <v>1204</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1223</v>
+        <v>1164</v>
       </c>
       <c r="B111" t="s">
-        <v>1205</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1220</v>
+        <v>1161</v>
       </c>
       <c r="B112" t="s">
-        <v>1206</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1221</v>
+        <v>1162</v>
       </c>
       <c r="B113" t="s">
-        <v>1207</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1222</v>
+        <v>1163</v>
       </c>
       <c r="B114" t="s">
-        <v>1208</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1224</v>
+        <v>1165</v>
       </c>
       <c r="B115" t="s">
-        <v>1209</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1225</v>
+        <v>1166</v>
       </c>
       <c r="B116" t="s">
-        <v>1210</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1226</v>
+        <v>1167</v>
       </c>
       <c r="B117" t="s">
-        <v>1211</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1227</v>
+        <v>1168</v>
       </c>
       <c r="B118" t="s">
-        <v>1212</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1228</v>
+        <v>1169</v>
       </c>
       <c r="B119" t="s">
-        <v>1213</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1229</v>
+        <v>1170</v>
       </c>
       <c r="B120" t="s">
-        <v>1214</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1230</v>
+        <v>1171</v>
       </c>
       <c r="B121" t="s">
-        <v>1215</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1231</v>
+        <v>1172</v>
       </c>
       <c r="B122" t="s">
-        <v>1216</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1232</v>
+        <v>1173</v>
       </c>
       <c r="B123" t="s">
-        <v>1217</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1237</v>
+        <v>1178</v>
       </c>
       <c r="B124" t="s">
-        <v>1234</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1238</v>
+        <v>1179</v>
       </c>
       <c r="B125" t="s">
-        <v>1233</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1239</v>
+        <v>1180</v>
       </c>
       <c r="B126" t="s">
-        <v>1235</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>888</v>
+        <v>829</v>
       </c>
       <c r="B127" t="s">
-        <v>883</v>
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B128" t="s">
-        <v>840</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1240</v>
+        <v>1181</v>
       </c>
       <c r="B129" t="s">
-        <v>1236</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1269</v>
+        <v>1210</v>
       </c>
       <c r="B130" t="s">
-        <v>1268</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>994</v>
+        <v>935</v>
       </c>
       <c r="B131" t="s">
-        <v>1263</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1265</v>
+        <v>1206</v>
       </c>
       <c r="B132" t="s">
-        <v>1264</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1267</v>
+        <v>1208</v>
       </c>
       <c r="B133" t="s">
-        <v>1266</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1271</v>
+        <v>1212</v>
       </c>
       <c r="B134" t="s">
-        <v>1270</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1272</v>
+        <v>1213</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="B136" t="s">
-        <v>1273</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1452">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4373,6 +4373,12 @@
   </si>
   <si>
     <t>pencilEditBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Error"]')</t>
+  </si>
+  <si>
+    <t>sqlErrorToastMsg</t>
   </si>
 </sst>
 </file>
@@ -4995,10 +5001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5617,105 +5623,113 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>1451</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>579</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>680</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>679</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B88" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>682</v>
+      </c>
+      <c r="B89" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>671</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7604,7 +7618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1456">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1801,9 +1801,6 @@
     <t>document.querySelector('ion-segment-button[id="seg12"] ion-label')</t>
   </si>
   <si>
-    <t>document.querySelector('div[aria-label*="No underwriter found"]')</t>
-  </si>
-  <si>
     <t>offerBtnErrorPopup</t>
   </si>
   <si>
@@ -4379,6 +4376,21 @@
   </si>
   <si>
     <t>sqlErrorToastMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="No underwriter"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-workflow-pop ion-select')</t>
+  </si>
+  <si>
+    <t>return_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Return"]')</t>
+  </si>
+  <si>
+    <t>return_Btn</t>
   </si>
 </sst>
 </file>
@@ -4868,7 +4880,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4887,111 +4899,111 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B7" t="s">
         <v>1219</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B9" t="s">
         <v>1223</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B11" t="s">
         <v>1227</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>
@@ -5003,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5178,7 +5190,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5186,7 +5198,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5194,7 +5206,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5202,7 +5214,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5210,7 +5222,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5218,23 +5230,23 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B27" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B28" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5242,7 +5254,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5250,7 +5262,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5258,7 +5270,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5266,7 +5278,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5274,7 +5286,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5282,7 +5294,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5290,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5298,7 +5310,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5306,15 +5318,15 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B38" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5322,7 +5334,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5330,7 +5342,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5338,7 +5350,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5346,7 +5358,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5354,7 +5366,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5362,7 +5374,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5370,7 +5382,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5378,7 +5390,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5386,15 +5398,15 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B48" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5402,15 +5414,15 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B50" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5418,15 +5430,15 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B52" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5434,7 +5446,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5442,7 +5454,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5450,7 +5462,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5458,7 +5470,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5466,15 +5478,15 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B58" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5482,7 +5494,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5490,7 +5502,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5498,7 +5510,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5506,7 +5518,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5514,7 +5526,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5522,7 +5534,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5530,7 +5542,7 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5538,7 +5550,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5546,7 +5558,7 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5554,7 +5566,7 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5562,15 +5574,15 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B70" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5578,7 +5590,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5586,7 +5598,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5594,7 +5606,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5602,7 +5614,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5623,10 +5635,10 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B77" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5711,26 +5723,26 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B88" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B89" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5741,10 +5753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5875,31 +5887,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B16" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B19" t="s">
         <v>451</v>
@@ -6270,7 +6282,7 @@
         <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6278,7 +6290,7 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6286,7 +6298,7 @@
         <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6294,7 +6306,7 @@
         <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6302,7 +6314,7 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6310,7 +6322,7 @@
         <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6318,7 +6330,7 @@
         <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6326,7 +6338,7 @@
         <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6334,7 +6346,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6342,7 +6354,7 @@
         <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6350,7 +6362,7 @@
         <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6358,7 +6370,7 @@
         <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6427,31 +6439,31 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B85" t="s">
-        <v>592</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B87" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B88" t="s">
         <v>455</v>
@@ -6459,98 +6471,98 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B89" t="s">
         <v>1303</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B90" t="s">
         <v>1305</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B91" t="s">
         <v>1307</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B92" t="s">
         <v>1309</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B93" t="s">
         <v>1311</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B94" t="s">
         <v>1313</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B95" t="s">
         <v>1315</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B96" t="s">
         <v>1317</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B97" t="s">
         <v>1319</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B98" t="s">
         <v>1321</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B99" t="s">
         <v>1323</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B100" t="s">
         <v>1325</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6563,7 +6575,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B102" t="s">
         <v>88</v>
@@ -6571,26 +6583,42 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B104" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B105" t="s">
-        <v>1353</v>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -6615,7 +6643,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6631,7 +6659,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
         <v>455</v>
@@ -6639,7 +6667,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" t="s">
         <v>448</v>
@@ -6650,15 +6678,15 @@
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6695,7 +6723,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
@@ -6703,7 +6731,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B12" t="s">
         <v>271</v>
@@ -6711,207 +6739,207 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B13" t="s">
         <v>1246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B15" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B17" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B18" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B22" t="s">
         <v>1258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B23" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B25" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B26" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B27" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B28" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B29" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B30" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B31" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B33" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B34" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B36" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B37" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B38" t="s">
         <v>451</v>
@@ -6919,18 +6947,18 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B39" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B40" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -6964,10 +6992,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6996,10 +7024,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7036,18 +7064,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7196,10 +7224,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7254,37 +7282,37 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C41" s="8"/>
     </row>
@@ -7498,87 +7526,87 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>236</v>
@@ -7586,26 +7614,26 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -7631,7 +7659,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7650,7 +7678,7 @@
         <v>373</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7658,7 +7686,7 @@
         <v>374</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7666,7 +7694,7 @@
         <v>375</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7722,7 +7750,7 @@
         <v>388</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7738,7 +7766,7 @@
         <v>391</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7754,7 +7782,7 @@
         <v>394</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7839,7 +7867,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>415</v>
@@ -7847,7 +7875,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>414</v>
@@ -7863,7 +7891,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>417</v>
@@ -7930,7 +7958,7 @@
         <v>433</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7943,10 +7971,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7962,7 +7990,7 @@
         <v>438</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7978,7 +8006,7 @@
         <v>441</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7994,23 +8022,23 @@
         <v>444</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8026,212 +8054,212 @@
         <v>447</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>1379</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>1445</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>1359</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B76" t="s">
         <v>263</v>
@@ -8239,7 +8267,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B77" t="s">
         <v>263</v>
@@ -8247,7 +8275,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>455</v>
@@ -8255,194 +8283,194 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B79" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B80" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B81" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B82" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B83" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B84" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B85" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B86" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B87" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B88" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B89" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B90" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B91" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B92" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B93" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B94" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8455,50 +8483,50 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B104" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B105" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -9027,90 +9055,90 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B72" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -9123,8 +9151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9135,7 +9163,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9146,28 +9174,28 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B5" t="s">
         <v>455</v>
@@ -9175,7 +9203,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s">
         <v>448</v>
@@ -9183,7 +9211,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B7" t="s">
         <v>263</v>
@@ -9191,378 +9219,378 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B41" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B48" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B51" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B53" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B54" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -9570,7 +9598,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -9578,196 +9606,196 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B57" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B58" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B60" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B61" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B62" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B63" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B64" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B67" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B71" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B72" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B73" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B74" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B76" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B77" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B79" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B80" t="s">
         <v>349</v>
@@ -9775,23 +9803,23 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B81" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>880</v>
+      </c>
+      <c r="B82" t="s">
         <v>881</v>
-      </c>
-      <c r="B82" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B83" t="s">
         <v>271</v>
@@ -9799,7 +9827,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B84" t="s">
         <v>263</v>
@@ -9807,170 +9835,170 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B85" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B87" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B88" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B89" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>845</v>
+      </c>
+      <c r="B90" t="s">
         <v>846</v>
-      </c>
-      <c r="B90" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B91" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B92" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B93" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B94" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B95" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B96" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B97" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B98" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B99" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B100" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B101" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B102" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B103" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B104" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B105" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -9994,7 +10022,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -10002,63 +10030,63 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>448</v>
@@ -10066,946 +10094,946 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B12" t="s">
         <v>959</v>
-      </c>
-      <c r="B12" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>962</v>
+      </c>
+      <c r="B14" t="s">
         <v>963</v>
-      </c>
-      <c r="B14" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B16" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B20" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B25" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B27" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B31" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B32" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B34" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B37" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B38" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B39" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B41" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B42" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B47" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B48" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B49" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B50" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B51" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B52" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B53" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B54" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B55" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B56" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B57" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B58" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B60" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B61" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B62" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B63" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B64" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B65" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B66" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B67" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B68" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B69" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B70" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B71" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B72" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B73" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B74" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B75" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B76" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B77" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B78" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B80" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B81" t="s">
         <v>1202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B82" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B83" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B84" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B85" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B86" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B87" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B88" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B89" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B90" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B91" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B92" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B93" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B94" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B96" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B97" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B98" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B99" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B100" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B101" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B102" t="s">
         <v>1131</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B103" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B104" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B105" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B106" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B107" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B108" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B109" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B110" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B111" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B112" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B113" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B114" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B115" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B116" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B117" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B118" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B119" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B120" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B121" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B122" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B123" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B124" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B125" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B126" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B127" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -11013,60 +11041,60 @@
         <v>59</v>
       </c>
       <c r="B128" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B129" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B130" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B131" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B132" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B133" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B134" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B135" t="s">
         <v>236</v>
@@ -11074,10 +11102,10 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B136" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="AppData_CustomerDetail_Elements" sheetId="8" r:id="rId8"/>
     <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId9"/>
     <sheet name="TW_AppData_DocumentDetails" sheetId="11" r:id="rId10"/>
+    <sheet name="AssetDetails_Elements" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1643">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -952,27 +953,6 @@
     <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2]</t>
   </si>
   <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[0]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[1]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[2]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[3]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[4]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[5]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[6]</t>
-  </si>
-  <si>
     <t>document.querySelector('input[formcontrolname="deductionAmount"]')</t>
   </si>
   <si>
@@ -1015,12 +995,6 @@
     <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').parentElement.nextElementSibling.firstChild</t>
   </si>
   <si>
-    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[0]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[1]</t>
-  </si>
-  <si>
     <t>document.querySelectorAll('ion-row[class="md hydrated"]')[4].querySelector('ion-col ion-select')</t>
   </si>
   <si>
@@ -4391,6 +4365,594 @@
   </si>
   <si>
     <t>return_Btn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('td ion-select')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('td ion-select')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[2].querySelectorAll('thead th')[6]</t>
+  </si>
+  <si>
+    <t>AssetDetails_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetClassfction"] ion-label')</t>
+  </si>
+  <si>
+    <t>assetCategoryLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetClassfction"] ion-select')</t>
+  </si>
+  <si>
+    <t>assetCategoryDropdown</t>
+  </si>
+  <si>
+    <t>assetCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetClassfction"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assettype"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assettype"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assettype"] ion-select')</t>
+  </si>
+  <si>
+    <t>assetType</t>
+  </si>
+  <si>
+    <t>assetTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufacturerid"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufacturerid"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufacturerid"]')</t>
+  </si>
+  <si>
+    <t>assetManufacture</t>
+  </si>
+  <si>
+    <t>assetManufactureLabel</t>
+  </si>
+  <si>
+    <t>assetManufactureDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="modelcode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="modelcode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="modelcode"] ion-select')</t>
+  </si>
+  <si>
+    <t>assetModel</t>
+  </si>
+  <si>
+    <t>assetModelLabel</t>
+  </si>
+  <si>
+    <t>assetModelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetModelType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetModelType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetModelType"]')</t>
+  </si>
+  <si>
+    <t>assetModelType</t>
+  </si>
+  <si>
+    <t>assetModelTypeLabel</t>
+  </si>
+  <si>
+    <t>assetModelTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufactureryear"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufactureryear"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="manufactureryear"] p-calendar')</t>
+  </si>
+  <si>
+    <t>yearOfManufacture</t>
+  </si>
+  <si>
+    <t>yearOfManufactureLabel</t>
+  </si>
+  <si>
+    <t>yearOfManufactureCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetCondition"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetCondition"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetCondition"] ion-select')</t>
+  </si>
+  <si>
+    <t>assetCondition</t>
+  </si>
+  <si>
+    <t>assetConditionLabel</t>
+  </si>
+  <si>
+    <t>assetConditionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cgColor"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cgColor"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cgColor"]')</t>
+  </si>
+  <si>
+    <t>assetColor</t>
+  </si>
+  <si>
+    <t>assetColorLabel</t>
+  </si>
+  <si>
+    <t>assetColorDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="drivetrain"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="drivetrain"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="drivetrain"] ion-select')</t>
+  </si>
+  <si>
+    <t>drivetrain</t>
+  </si>
+  <si>
+    <t>drivetrainLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noCyclinders"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noCyclinders"]')</t>
+  </si>
+  <si>
+    <t>noOfCyclinders</t>
+  </si>
+  <si>
+    <t>noOfCyclindersLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noCyclinders"] input')</t>
+  </si>
+  <si>
+    <t>noOfCyclindersInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="enginevolume"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="enginevolume"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="enginevolume"]')</t>
+  </si>
+  <si>
+    <t>volumeOfEngine</t>
+  </si>
+  <si>
+    <t>volumeOfEngineLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberofunits"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberofunits"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="numberofunits"] input')</t>
+  </si>
+  <si>
+    <t>noOfUnits</t>
+  </si>
+  <si>
+    <t>noOfUnitsLabel</t>
+  </si>
+  <si>
+    <t>noOfUnitsInput</t>
+  </si>
+  <si>
+    <t>volumeOfEngineInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="chasisnumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="chasisnumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>chasisNumber</t>
+  </si>
+  <si>
+    <t>chasisNumberLabel</t>
+  </si>
+  <si>
+    <t>chasisNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="chasisnumber"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumber"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumber"] input')</t>
+  </si>
+  <si>
+    <t>plateNumber</t>
+  </si>
+  <si>
+    <t>plateNumberLabel</t>
+  </si>
+  <si>
+    <t>plateNumberInput</t>
+  </si>
+  <si>
+    <t>drivetrainDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumberArb"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumberArb"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="platenumberArb"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dealerid"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dealerid"] ion-label')</t>
+  </si>
+  <si>
+    <t>assetDealer</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dealerid"] ion-select')</t>
+  </si>
+  <si>
+    <t>assetDealerLabel</t>
+  </si>
+  <si>
+    <t>assetDealerDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentid"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentid"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentid"]')</t>
+  </si>
+  <si>
+    <t>agentName</t>
+  </si>
+  <si>
+    <t>agentNameLabel</t>
+  </si>
+  <si>
+    <t>agentNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentEmail"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentEmail"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentEmail"] input')</t>
+  </si>
+  <si>
+    <t>agentEmailId</t>
+  </si>
+  <si>
+    <t>agentEmailIdLabel</t>
+  </si>
+  <si>
+    <t>agentEmailIdInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentMobile1"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentMobile1"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="agentMobile1"]')</t>
+  </si>
+  <si>
+    <t>agentMobileNo</t>
+  </si>
+  <si>
+    <t>agentMobileNoLabel</t>
+  </si>
+  <si>
+    <t>agentMobileNoInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetPrice"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetPrice"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetPrice"] input')</t>
+  </si>
+  <si>
+    <t>assetPrice</t>
+  </si>
+  <si>
+    <t>assetPriceLabel</t>
+  </si>
+  <si>
+    <t>assetPriceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPayment"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPayment"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPayment"] input')</t>
+  </si>
+  <si>
+    <t>downPayment</t>
+  </si>
+  <si>
+    <t>downPaymentLabel</t>
+  </si>
+  <si>
+    <t>downPaymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPaymentPercent"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPaymentPercent"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="downPaymentPercent"]')</t>
+  </si>
+  <si>
+    <t>downPaymentPercent</t>
+  </si>
+  <si>
+    <t>downPaymentPercentLabel</t>
+  </si>
+  <si>
+    <t>downPaymentPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardIssuedate"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardIssuedate"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardIssuedate"] p-calendar')</t>
+  </si>
+  <si>
+    <t>greenCardIssueDate</t>
+  </si>
+  <si>
+    <t>greenCardIssueDateLabel</t>
+  </si>
+  <si>
+    <t>greenCardIssueDateCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residualValue"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residualValue"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residualValue"] input')</t>
+  </si>
+  <si>
+    <t>residualValue</t>
+  </si>
+  <si>
+    <t>residualValueLabel</t>
+  </si>
+  <si>
+    <t>residualValueInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardNo"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardNo"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="greenCardNo"] input')</t>
+  </si>
+  <si>
+    <t>greenCardNo</t>
+  </si>
+  <si>
+    <t>greenCardNoLabel</t>
+  </si>
+  <si>
+    <t>greenCardNoInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="weight"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="weight"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="weight"] input')</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weightLabel</t>
+  </si>
+  <si>
+    <t>weightInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="vehicleMileage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="vehicleMileage"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="vehicleMileage"] input')</t>
+  </si>
+  <si>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>mileageLabel</t>
+  </si>
+  <si>
+    <t>mileageInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryOfManufacturing"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryOfManufacturing"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryOfManufacturing"] ion-select')</t>
+  </si>
+  <si>
+    <t>countryOfManufacturing</t>
+  </si>
+  <si>
+    <t>countryOfManufacturingLabel</t>
+  </si>
+  <si>
+    <t>countryOfManufacturingDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetFulfilLeBrId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetFulfilLeBrId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetFulfilLeBrId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetSignAgrmntLeBrId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetSignAgrmntLeBrId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetSignAgrmntLeBrId"] ion-select')</t>
+  </si>
+  <si>
+    <t>fulfilmentLocation</t>
+  </si>
+  <si>
+    <t>locationOfSigning</t>
+  </si>
+  <si>
+    <t>fulfilmentLocationLabel</t>
+  </si>
+  <si>
+    <t>fulfilmentLocationDropdown</t>
+  </si>
+  <si>
+    <t>locationOfSigningLabel</t>
+  </si>
+  <si>
+    <t>locationOfSigningDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetReceivedLeBrId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetReceivedLeBrId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="assetReceivedLeBrId"] ion-select')</t>
+  </si>
+  <si>
+    <t>receivedLocation</t>
+  </si>
+  <si>
+    <t>receivedLocationLabel</t>
+  </si>
+  <si>
+    <t>receivedLocationDropdown</t>
+  </si>
+  <si>
+    <t>AssetTypeDropdown</t>
+  </si>
+  <si>
+    <t>plateNbrArabic</t>
+  </si>
+  <si>
+    <t>plateNbrArabicLabel</t>
+  </si>
+  <si>
+    <t>plateNbrArabicInput</t>
   </si>
 </sst>
 </file>
@@ -4869,7 +5431,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4880,7 +5442,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4899,111 +5461,914 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B5" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B6" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B7" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B8" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B9" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="B10" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B11" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B12" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B13" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B14" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B15" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B16" t="s">
-        <v>1233</v>
+        <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="2" width="100.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>819</v>
+      </c>
+      <c r="B95" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5015,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5099,10 +6464,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5190,7 +6555,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5198,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5206,7 +6571,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5214,7 +6579,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5222,7 +6587,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5230,23 +6595,23 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B27" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B28" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5254,7 +6619,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5262,7 +6627,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5270,7 +6635,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5278,7 +6643,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5286,7 +6651,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5294,7 +6659,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5302,7 +6667,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5310,7 +6675,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5318,15 +6683,15 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B38" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5334,7 +6699,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5342,7 +6707,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5350,7 +6715,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5358,7 +6723,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5366,7 +6731,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5374,7 +6739,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5382,7 +6747,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5390,7 +6755,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5398,15 +6763,15 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B48" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5414,15 +6779,15 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B50" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5430,15 +6795,15 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B52" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5446,7 +6811,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5454,7 +6819,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5462,7 +6827,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5470,7 +6835,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5478,15 +6843,15 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B58" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5494,7 +6859,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5502,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5510,7 +6875,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5518,7 +6883,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5526,7 +6891,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5534,7 +6899,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5542,7 +6907,7 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5550,7 +6915,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5558,7 +6923,7 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5566,7 +6931,7 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5574,15 +6939,15 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B70" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5590,7 +6955,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5598,7 +6963,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5606,7 +6971,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5614,7 +6979,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5635,10 +7000,10 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="B77" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5662,7 +7027,7 @@
         <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5723,26 +7088,26 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B88" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B89" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B90" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -5755,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5778,7 +7143,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5786,7 +7151,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5794,7 +7159,7 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5802,7 +7167,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5810,7 +7175,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5818,7 +7183,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5826,7 +7191,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5834,7 +7199,7 @@
         <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5842,7 +7207,7 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5850,7 +7215,7 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5858,7 +7223,7 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5866,7 +7231,7 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5887,34 +7252,34 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="B16" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="B17" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="B18" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6282,7 +7647,7 @@
         <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6290,7 +7655,7 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6298,7 +7663,7 @@
         <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6306,7 +7671,7 @@
         <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6314,7 +7679,7 @@
         <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6322,7 +7687,7 @@
         <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6330,7 +7695,7 @@
         <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6338,7 +7703,7 @@
         <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6346,7 +7711,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6354,7 +7719,7 @@
         <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6362,7 +7727,7 @@
         <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6370,7 +7735,7 @@
         <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6439,130 +7804,130 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B85" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="B88" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="B89" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B90" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="B91" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="B92" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="B93" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="B94" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="B95" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="B96" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="B97" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="B98" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="B99" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="B100" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6575,7 +7940,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="B102" t="s">
         <v>88</v>
@@ -6583,42 +7948,42 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="B104" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="B105" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="B106" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="B107" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +8008,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6659,18 +8024,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6678,15 +8043,15 @@
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="B6" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6723,7 +8088,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
@@ -6731,7 +8096,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B12" t="s">
         <v>271</v>
@@ -6739,226 +8104,226 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B13" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="B14" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="B15" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="B16" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="B17" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="B18" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="B19" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="B20" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="B21" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="B22" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="B23" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="B24" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="B25" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="B26" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="B27" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="B28" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="B29" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="B30" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="B31" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="B32" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="B33" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="B34" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="B35" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="B36" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="B37" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="B39" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="B40" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -6970,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6992,10 +8357,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7024,10 +8389,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7064,18 +8429,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7083,7 +8448,7 @@
         <v>280</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7091,7 +8456,7 @@
         <v>281</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7099,7 +8464,7 @@
         <v>282</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7107,7 +8472,7 @@
         <v>283</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7115,7 +8480,7 @@
         <v>284</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7123,7 +8488,7 @@
         <v>285</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7131,7 +8496,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7139,7 +8504,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7147,7 +8512,7 @@
         <v>286</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7163,7 +8528,7 @@
         <v>290</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7179,7 +8544,7 @@
         <v>292</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7195,7 +8560,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7211,7 +8576,7 @@
         <v>296</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7224,10 +8589,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7264,7 +8629,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>307</v>
@@ -7273,7 +8638,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>308</v>
@@ -7282,182 +8647,182 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>309</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>330</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>310</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>331</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>311</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>312</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>313</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>314</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>315</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7465,7 +8830,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7473,52 +8838,52 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>271</v>
@@ -7526,87 +8891,87 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>236</v>
@@ -7614,26 +8979,26 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -7646,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7659,7 +9024,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7667,599 +9032,599 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="B76" t="s">
         <v>263</v>
@@ -8267,7 +9632,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B77" t="s">
         <v>263</v>
@@ -8275,202 +9640,202 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B79" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B80" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B81" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B82" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B83" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B84" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B85" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B86" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B87" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B88" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B89" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B90" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B91" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B92" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B93" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B94" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B95" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8483,50 +9848,50 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="B104" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="B105" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -8539,8 +9904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8551,7 +9916,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8559,7 +9924,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>100</v>
@@ -8567,578 +9932,578 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B26" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B31" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B36" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B37" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B38" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B39" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B40" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B41" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B42" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B43" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B44" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B45" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B46" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B47" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B48" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B49" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B51" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B52" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B53" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B54" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B55" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B56" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B57" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B58" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B59" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B60" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B61" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B62" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B63" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B64" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B65" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B66" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B67" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B68" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B69" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B70" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B71" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B72" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B73" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B74" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +10528,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9174,44 +10539,44 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
         <v>263</v>
@@ -9219,378 +10584,378 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B9" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B10" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B12" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B13" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B14" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B15" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B16" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B18" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B19" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B20" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B21" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B22" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B23" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B25" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B26" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B27" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B28" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B29" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B31" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B33" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B34" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B35" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B36" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B37" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B38" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B39" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B40" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B41" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B42" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B43" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B44" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B45" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B46" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B47" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B48" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B49" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B50" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B51" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B52" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B53" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B54" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -9598,7 +10963,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -9606,220 +10971,220 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B57" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B58" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B59" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B60" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B61" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B62" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B63" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B64" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B65" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B66" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B67" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B68" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B69" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B70" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B71" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B72" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B73" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B74" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B75" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B76" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B77" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B78" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B79" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B81" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="B82" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B83" t="s">
         <v>271</v>
@@ -9827,7 +11192,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B84" t="s">
         <v>263</v>
@@ -9835,170 +11200,170 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B85" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B86" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B87" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B88" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B89" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B90" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B91" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B92" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B93" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B94" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B95" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B96" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B97" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B98" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B99" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B100" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B101" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B102" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B103" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B104" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B105" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -10022,7 +11387,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -10030,1010 +11395,1010 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="B2" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="B3" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="B4" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="B5" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="B6" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B7" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B8" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B10" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B11" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B12" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B13" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B14" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B15" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B16" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B17" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B18" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B19" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B20" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B21" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B22" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B23" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B24" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B25" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B26" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B27" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B28" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B29" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B30" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="B31" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B32" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B33" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B34" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B35" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B36" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B37" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B38" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B39" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B40" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B41" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="B42" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B43" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="B44" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="B45" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="B46" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="B47" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B48" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="B49" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="B50" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="B51" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="B52" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="B53" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="B54" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="B55" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="B56" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="B57" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B58" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="B59" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="B60" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="B61" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B62" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="B63" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="B64" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="B65" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B66" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="B67" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="B68" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="B69" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="B70" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="B71" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="B72" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="B73" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="B74" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="B75" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="B76" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="B77" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="B78" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B79" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B80" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B81" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="B82" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="B83" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="B84" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="B85" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="B86" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="B87" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="B88" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="B89" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="B90" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="B91" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="B92" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="B93" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="B94" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="B95" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="B96" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="B97" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="B98" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B99" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="B100" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="B101" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="B102" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="B103" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="B104" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="B105" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B106" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="B107" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B108" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="B109" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="B110" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="B111" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="B112" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="B113" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="B114" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="B115" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="B116" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="B117" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="B118" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="B119" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="B120" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="B121" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="B122" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="B123" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="B124" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="B125" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="B126" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B127" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -11041,60 +12406,60 @@
         <v>59</v>
       </c>
       <c r="B128" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="B129" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B130" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B131" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B132" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="B133" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B134" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B135" t="s">
         <v>236</v>
@@ -11102,10 +12467,10 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B136" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1658">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4953,6 +4953,51 @@
   </si>
   <si>
     <t>plateNbrArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="manufacturerDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_assetManufacture</t>
+  </si>
+  <si>
+    <t>listview_assetModel</t>
+  </si>
+  <si>
+    <t>listview_assetModelType</t>
+  </si>
+  <si>
+    <t>listview_yearOfManufacture</t>
+  </si>
+  <si>
+    <t>listview_assetPrice</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="modelcode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="assetModelTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="manufactureryear"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="assetPrice"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="recStatus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[class*="grid "] p-dropdown')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('span[class*="p-paginator-current"]')[1]</t>
+  </si>
+  <si>
+    <t>showingPageReport</t>
+  </si>
+  <si>
+    <t>listview_searchBox</t>
   </si>
 </sst>
 </file>
@@ -5575,10 +5620,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6369,6 +6414,78 @@
       </c>
       <c r="B98" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>894</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>901</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -11375,7 +11492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="EmploymentDetails_Elements" sheetId="10" r:id="rId9"/>
     <sheet name="TW_AppData_DocumentDetails" sheetId="11" r:id="rId10"/>
     <sheet name="AssetDetails_Elements" sheetId="12" r:id="rId11"/>
+    <sheet name="AddressDetails_Elements" sheetId="13" r:id="rId12"/>
+    <sheet name="RepaymentMode_Elements" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1832">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4998,6 +5000,528 @@
   </si>
   <si>
     <t>listview_searchBox</t>
+  </si>
+  <si>
+    <t>AddressDetails_FieldName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressType"] ion-select')</t>
+  </si>
+  <si>
+    <t>addressType</t>
+  </si>
+  <si>
+    <t>addressTypeLabel</t>
+  </si>
+  <si>
+    <t>addressTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressStatus"]')</t>
+  </si>
+  <si>
+    <t>addressStatus</t>
+  </si>
+  <si>
+    <t>addressStatusLabel</t>
+  </si>
+  <si>
+    <t>addressStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residentialStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isMailingAddress"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>communicationAddress</t>
+  </si>
+  <si>
+    <t>communicationAddressLabel</t>
+  </si>
+  <si>
+    <t>communicationAddressToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressCatg"] ion-select')</t>
+  </si>
+  <si>
+    <t>locationCategory</t>
+  </si>
+  <si>
+    <t>locationCategoryLabel</t>
+  </si>
+  <si>
+    <t>locationCategoryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine1"] input')</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>addressLine1Label</t>
+  </si>
+  <si>
+    <t>addressLine1Input</t>
+  </si>
+  <si>
+    <t>addressLine2</t>
+  </si>
+  <si>
+    <t>addressLine2Label</t>
+  </si>
+  <si>
+    <t>addressLine2Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="addressLine2"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="countryCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>countryLabel</t>
+  </si>
+  <si>
+    <t>countryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="provinceId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="districtId"] ion-select')</t>
+  </si>
+  <si>
+    <t>provinceId</t>
+  </si>
+  <si>
+    <t>provinceIdLabel</t>
+  </si>
+  <si>
+    <t>provinceIdDropdown</t>
+  </si>
+  <si>
+    <t>districtName</t>
+  </si>
+  <si>
+    <t>districtNameLabel</t>
+  </si>
+  <si>
+    <t>districtNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="cityName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="zipCode"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="poBox"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="mobile1"] input')</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>cityNameLabel</t>
+  </si>
+  <si>
+    <t>cityNameInput</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>zipCodeLabel</t>
+  </si>
+  <si>
+    <t>zipCodeInput</t>
+  </si>
+  <si>
+    <t>poBoxNbr</t>
+  </si>
+  <si>
+    <t>poBoxNbrLabel</t>
+  </si>
+  <si>
+    <t>poBoxNbrInput</t>
+  </si>
+  <si>
+    <t>mobileNbr</t>
+  </si>
+  <si>
+    <t>mobileNbrLabel</t>
+  </si>
+  <si>
+    <t>mobileNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfYearsAtCurrentAddress"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLatitude"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gpsLongitude"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landmark"] input')</t>
+  </si>
+  <si>
+    <t>durationOfStay</t>
+  </si>
+  <si>
+    <t>durationOfStayLabel</t>
+  </si>
+  <si>
+    <t>durationOfStayInput</t>
+  </si>
+  <si>
+    <t>latitudeDetails</t>
+  </si>
+  <si>
+    <t>latitudeDetailsLabel</t>
+  </si>
+  <si>
+    <t>latitudeDetailsInput</t>
+  </si>
+  <si>
+    <t>longitudeDetails</t>
+  </si>
+  <si>
+    <t>longitudeDetailsLabel</t>
+  </si>
+  <si>
+    <t>longitudeDetailsInput</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>landmarkLabel</t>
+  </si>
+  <si>
+    <t>landmarkInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"] label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="occupancySince"] p-calendar')</t>
+  </si>
+  <si>
+    <t>occupancyDate</t>
+  </si>
+  <si>
+    <t>occupancyDateLabel</t>
+  </si>
+  <si>
+    <t>occupancyDateCalendar</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordName"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="landlordMobile"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="rentAmount"] input')</t>
+  </si>
+  <si>
+    <t>landlordName</t>
+  </si>
+  <si>
+    <t>landlordNameLabel</t>
+  </si>
+  <si>
+    <t>landlordNameInput</t>
+  </si>
+  <si>
+    <t>landlordMobileNbr</t>
+  </si>
+  <si>
+    <t>landlordMobileNbrLabel</t>
+  </si>
+  <si>
+    <t>landlordMobileNbrInput</t>
+  </si>
+  <si>
+    <t>rentAmount</t>
+  </si>
+  <si>
+    <t>rentAmountLabel</t>
+  </si>
+  <si>
+    <t>rentAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="frequencyOfRent"] ion-select')</t>
+  </si>
+  <si>
+    <t>frequencyOfRent</t>
+  </si>
+  <si>
+    <t>frequencyOfRentLabel</t>
+  </si>
+  <si>
+    <t>frequencyOfRentDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="addressTypeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_AddressType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="countryCodeDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_Country</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="residentialStatus"]')</t>
+  </si>
+  <si>
+    <t>listview_OccupancyStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="residentialStatusDesc"]')</t>
+  </si>
+  <si>
+    <t>listview_OccupanceSince</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="addressLine1"]')</t>
+  </si>
+  <si>
+    <t>listview_ContactAddress</t>
+  </si>
+  <si>
+    <t>listview_SearchBox</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="repayMode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="repayMode"] ion-select')</t>
+  </si>
+  <si>
+    <t>repayModeLabel</t>
+  </si>
+  <si>
+    <t>repayModeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="custId"] ion-label')</t>
+  </si>
+  <si>
+    <t>accHolderNameLabel</t>
+  </si>
+  <si>
+    <t>accHolderNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountType"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountType"] ion-select')</t>
+  </si>
+  <si>
+    <t>accountTypeLabel</t>
+  </si>
+  <si>
+    <t>accountTypeDropdown</t>
+  </si>
+  <si>
+    <t>accountNbrLabel</t>
+  </si>
+  <si>
+    <t>accountNbrInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountCurrency"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="accountCurrency"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="bankCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="bankCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="bankBranchCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="bankBranchCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ecsCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ecsCode"] input')</t>
+  </si>
+  <si>
+    <t>accCurrencyLabel</t>
+  </si>
+  <si>
+    <t>accCurrencyDropdown</t>
+  </si>
+  <si>
+    <t>ecsCodeLabel</t>
+  </si>
+  <si>
+    <t>ecsCodeInput</t>
+  </si>
+  <si>
+    <t>helpbtn</t>
   </si>
 </sst>
 </file>
@@ -5622,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6486,6 +7010,812 @@
       </c>
       <c r="B107" t="s">
         <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="105.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>917</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>920</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -8113,8 +9443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1799">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -334,36 +334,15 @@
     <t>offerDecisionTab</t>
   </si>
   <si>
-    <t>applicationDetailsTab</t>
-  </si>
-  <si>
     <t>document.querySelector('ion-segment-button[id="seg3"]')</t>
   </si>
   <si>
     <t>customerDetailsTab</t>
   </si>
   <si>
-    <t>assetDetailsTab</t>
-  </si>
-  <si>
-    <t>facilityInfoTab</t>
-  </si>
-  <si>
-    <t>livingExpensesTab</t>
-  </si>
-  <si>
     <t>additionalCustomerInfoTab</t>
   </si>
   <si>
-    <t>quotationInfoTab</t>
-  </si>
-  <si>
-    <t>InsuranceInfoTab</t>
-  </si>
-  <si>
-    <t>policyCheckTab</t>
-  </si>
-  <si>
     <t>documentDetailsTab</t>
   </si>
   <si>
@@ -400,15 +379,6 @@
     <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[3]</t>
   </si>
   <si>
-    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[4]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[5]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('[class^="dynsectiontitles"] ion-title')[6]</t>
-  </si>
-  <si>
     <t>offer_Decision</t>
   </si>
   <si>
@@ -421,15 +391,6 @@
     <t>offer_FinanceConfiguration</t>
   </si>
   <si>
-    <t>offer_PricingDetails</t>
-  </si>
-  <si>
-    <t>offer_InstalmentDetails</t>
-  </si>
-  <si>
-    <t>offer_ApprovalDetailsHyperlinks</t>
-  </si>
-  <si>
     <t>decision_ApprovalLevel</t>
   </si>
   <si>
@@ -652,42 +613,6 @@
     <t>Finance_DeviationTenureInput</t>
   </si>
   <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[5]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[0]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[1]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[2]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[3]</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('p-table[ng-reflect-style-class="p-datatable-sm p-datatable-str"]')[4].querySelectorAll("table th span")[4]</t>
-  </si>
-  <si>
-    <t>Pricing_Period</t>
-  </si>
-  <si>
-    <t>Pricing_InterestDef</t>
-  </si>
-  <si>
-    <t>Pricing_RateType</t>
-  </si>
-  <si>
-    <t>Pricing_IndexRate</t>
-  </si>
-  <si>
-    <t>Pricing_OfferRate</t>
-  </si>
-  <si>
-    <t>Pricing_EffectiveRate</t>
-  </si>
-  <si>
     <t>document.querySelector('[ng-reflect-field="installmentperiod"]')</t>
   </si>
   <si>
@@ -1744,39 +1669,6 @@
     <t>document.querySelector('ion-segment-button[id="seg1"] ion-label')</t>
   </si>
   <si>
-    <t>document.querySelector('ion-segment-button[id="seg2"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg3"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg4"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg5"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg6"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg7"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg8"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg9"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg10"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg11"] ion-label')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-segment-button[id="seg12"] ion-label')</t>
-  </si>
-  <si>
     <t>offerBtnErrorPopup</t>
   </si>
   <si>
@@ -5522,6 +5414,15 @@
   </si>
   <si>
     <t>helpbtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Deviation amount"]')</t>
+  </si>
+  <si>
+    <t>alertPopup</t>
+  </si>
+  <si>
+    <t>eyeBtn</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +5912,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6019,122 +5920,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>1231</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1206</v>
+        <v>1170</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="B5" t="s">
-        <v>1227</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1208</v>
+        <v>1172</v>
       </c>
       <c r="B6" t="s">
-        <v>1207</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1209</v>
+        <v>1173</v>
       </c>
       <c r="B7" t="s">
-        <v>1210</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1212</v>
+        <v>1176</v>
       </c>
       <c r="B8" t="s">
-        <v>1211</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1213</v>
+        <v>1177</v>
       </c>
       <c r="B9" t="s">
-        <v>1214</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1216</v>
+        <v>1180</v>
       </c>
       <c r="B10" t="s">
-        <v>1215</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1217</v>
+        <v>1181</v>
       </c>
       <c r="B11" t="s">
-        <v>1218</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1221</v>
+        <v>1185</v>
       </c>
       <c r="B12" t="s">
-        <v>1220</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="B13" t="s">
-        <v>1219</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1230</v>
+        <v>1194</v>
       </c>
       <c r="B14" t="s">
-        <v>1229</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1225</v>
+        <v>1189</v>
       </c>
       <c r="B15" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1226</v>
+        <v>1190</v>
       </c>
       <c r="B16" t="s">
-        <v>1224</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -6158,7 +6059,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1456</v>
+        <v>1420</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6166,754 +6067,754 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1461</v>
+        <v>1425</v>
       </c>
       <c r="B2" t="s">
-        <v>1462</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1458</v>
+        <v>1422</v>
       </c>
       <c r="B3" t="s">
-        <v>1457</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1460</v>
+        <v>1424</v>
       </c>
       <c r="B4" t="s">
-        <v>1459</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1466</v>
+        <v>1430</v>
       </c>
       <c r="B5" t="s">
-        <v>1463</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1467</v>
+        <v>1431</v>
       </c>
       <c r="B6" t="s">
-        <v>1464</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1639</v>
+        <v>1603</v>
       </c>
       <c r="B7" t="s">
-        <v>1465</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1471</v>
+        <v>1435</v>
       </c>
       <c r="B8" t="s">
-        <v>1470</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1472</v>
+        <v>1436</v>
       </c>
       <c r="B9" t="s">
-        <v>1469</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1473</v>
+        <v>1437</v>
       </c>
       <c r="B10" t="s">
-        <v>1468</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1477</v>
+        <v>1441</v>
       </c>
       <c r="B11" t="s">
-        <v>1474</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1478</v>
+        <v>1442</v>
       </c>
       <c r="B12" t="s">
-        <v>1475</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1479</v>
+        <v>1443</v>
       </c>
       <c r="B13" t="s">
-        <v>1476</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1483</v>
+        <v>1447</v>
       </c>
       <c r="B14" t="s">
-        <v>1482</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1484</v>
+        <v>1448</v>
       </c>
       <c r="B15" t="s">
-        <v>1481</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1485</v>
+        <v>1449</v>
       </c>
       <c r="B16" t="s">
-        <v>1480</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1489</v>
+        <v>1453</v>
       </c>
       <c r="B17" t="s">
-        <v>1486</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="B18" t="s">
-        <v>1487</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1491</v>
+        <v>1455</v>
       </c>
       <c r="B19" t="s">
-        <v>1488</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1495</v>
+        <v>1459</v>
       </c>
       <c r="B20" t="s">
-        <v>1492</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1496</v>
+        <v>1460</v>
       </c>
       <c r="B21" t="s">
-        <v>1493</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1497</v>
+        <v>1461</v>
       </c>
       <c r="B22" t="s">
-        <v>1494</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1501</v>
+        <v>1465</v>
       </c>
       <c r="B23" t="s">
-        <v>1500</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1502</v>
+        <v>1466</v>
       </c>
       <c r="B24" t="s">
-        <v>1499</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1503</v>
+        <v>1467</v>
       </c>
       <c r="B25" t="s">
-        <v>1498</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1507</v>
+        <v>1471</v>
       </c>
       <c r="B26" t="s">
-        <v>1504</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1508</v>
+        <v>1472</v>
       </c>
       <c r="B27" t="s">
-        <v>1505</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1539</v>
+        <v>1503</v>
       </c>
       <c r="B28" t="s">
-        <v>1506</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1511</v>
+        <v>1475</v>
       </c>
       <c r="B29" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1512</v>
+        <v>1476</v>
       </c>
       <c r="B30" t="s">
-        <v>1509</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1514</v>
+        <v>1478</v>
       </c>
       <c r="B31" t="s">
-        <v>1513</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1518</v>
+        <v>1482</v>
       </c>
       <c r="B32" t="s">
-        <v>1517</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1519</v>
+        <v>1483</v>
       </c>
       <c r="B33" t="s">
-        <v>1516</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="B34" t="s">
-        <v>1515</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1523</v>
+        <v>1487</v>
       </c>
       <c r="B35" t="s">
-        <v>1520</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1524</v>
+        <v>1488</v>
       </c>
       <c r="B36" t="s">
-        <v>1521</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1525</v>
+        <v>1489</v>
       </c>
       <c r="B37" t="s">
-        <v>1522</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1529</v>
+        <v>1493</v>
       </c>
       <c r="B38" t="s">
-        <v>1532</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1530</v>
+        <v>1494</v>
       </c>
       <c r="B39" t="s">
-        <v>1528</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1531</v>
+        <v>1495</v>
       </c>
       <c r="B40" t="s">
-        <v>1527</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1536</v>
+        <v>1500</v>
       </c>
       <c r="B41" t="s">
-        <v>1533</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1537</v>
+        <v>1501</v>
       </c>
       <c r="B42" t="s">
-        <v>1534</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1538</v>
+        <v>1502</v>
       </c>
       <c r="B43" t="s">
-        <v>1535</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1640</v>
+        <v>1604</v>
       </c>
       <c r="B44" t="s">
-        <v>1542</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1641</v>
+        <v>1605</v>
       </c>
       <c r="B45" t="s">
-        <v>1541</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1642</v>
+        <v>1606</v>
       </c>
       <c r="B46" t="s">
-        <v>1540</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1545</v>
+        <v>1509</v>
       </c>
       <c r="B47" t="s">
-        <v>1543</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1547</v>
+        <v>1511</v>
       </c>
       <c r="B48" t="s">
-        <v>1544</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1548</v>
+        <v>1512</v>
       </c>
       <c r="B49" t="s">
-        <v>1546</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1552</v>
+        <v>1516</v>
       </c>
       <c r="B50" t="s">
-        <v>1551</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1553</v>
+        <v>1517</v>
       </c>
       <c r="B51" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1554</v>
+        <v>1518</v>
       </c>
       <c r="B52" t="s">
-        <v>1549</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1558</v>
+        <v>1522</v>
       </c>
       <c r="B53" t="s">
-        <v>1555</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1559</v>
+        <v>1523</v>
       </c>
       <c r="B54" t="s">
-        <v>1556</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1560</v>
+        <v>1524</v>
       </c>
       <c r="B55" t="s">
-        <v>1557</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1564</v>
+        <v>1528</v>
       </c>
       <c r="B56" t="s">
-        <v>1563</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1565</v>
+        <v>1529</v>
       </c>
       <c r="B57" t="s">
-        <v>1562</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1566</v>
+        <v>1530</v>
       </c>
       <c r="B58" t="s">
-        <v>1561</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="B59" t="s">
-        <v>1568</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1571</v>
+        <v>1535</v>
       </c>
       <c r="B60" t="s">
-        <v>1567</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1572</v>
+        <v>1536</v>
       </c>
       <c r="B61" t="s">
-        <v>1569</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1576</v>
+        <v>1540</v>
       </c>
       <c r="B62" t="s">
-        <v>1574</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1577</v>
+        <v>1541</v>
       </c>
       <c r="B63" t="s">
-        <v>1573</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1578</v>
+        <v>1542</v>
       </c>
       <c r="B64" t="s">
-        <v>1575</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1582</v>
+        <v>1546</v>
       </c>
       <c r="B65" t="s">
-        <v>1581</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1583</v>
+        <v>1547</v>
       </c>
       <c r="B66" t="s">
-        <v>1579</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1584</v>
+        <v>1548</v>
       </c>
       <c r="B67" t="s">
-        <v>1580</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1588</v>
+        <v>1552</v>
       </c>
       <c r="B68" t="s">
-        <v>1586</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1589</v>
+        <v>1553</v>
       </c>
       <c r="B69" t="s">
-        <v>1585</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="B70" t="s">
-        <v>1587</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1594</v>
+        <v>1558</v>
       </c>
       <c r="B71" t="s">
-        <v>1592</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1595</v>
+        <v>1559</v>
       </c>
       <c r="B72" t="s">
-        <v>1591</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1596</v>
+        <v>1560</v>
       </c>
       <c r="B73" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1600</v>
+        <v>1564</v>
       </c>
       <c r="B74" t="s">
-        <v>1598</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1601</v>
+        <v>1565</v>
       </c>
       <c r="B75" t="s">
-        <v>1597</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="B76" t="s">
-        <v>1599</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1606</v>
+        <v>1570</v>
       </c>
       <c r="B77" t="s">
-        <v>1604</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1607</v>
+        <v>1571</v>
       </c>
       <c r="B78" t="s">
-        <v>1603</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1608</v>
+        <v>1572</v>
       </c>
       <c r="B79" t="s">
-        <v>1605</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1612</v>
+        <v>1576</v>
       </c>
       <c r="B80" t="s">
-        <v>1609</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1613</v>
+        <v>1577</v>
       </c>
       <c r="B81" t="s">
-        <v>1610</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1614</v>
+        <v>1578</v>
       </c>
       <c r="B82" t="s">
-        <v>1611</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1618</v>
+        <v>1582</v>
       </c>
       <c r="B83" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1619</v>
+        <v>1583</v>
       </c>
       <c r="B84" t="s">
-        <v>1615</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1620</v>
+        <v>1584</v>
       </c>
       <c r="B85" t="s">
-        <v>1617</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1627</v>
+        <v>1591</v>
       </c>
       <c r="B86" t="s">
-        <v>1621</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1629</v>
+        <v>1593</v>
       </c>
       <c r="B87" t="s">
-        <v>1622</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1630</v>
+        <v>1594</v>
       </c>
       <c r="B88" t="s">
-        <v>1623</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1628</v>
+        <v>1592</v>
       </c>
       <c r="B89" t="s">
-        <v>1624</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1631</v>
+        <v>1595</v>
       </c>
       <c r="B90" t="s">
-        <v>1625</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="B91" t="s">
-        <v>1626</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1636</v>
+        <v>1600</v>
       </c>
       <c r="B92" t="s">
-        <v>1633</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1637</v>
+        <v>1601</v>
       </c>
       <c r="B93" t="s">
-        <v>1634</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1638</v>
+        <v>1602</v>
       </c>
       <c r="B94" t="s">
-        <v>1635</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B95" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6921,7 +6822,7 @@
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6929,7 +6830,7 @@
         <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6942,74 +6843,74 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1644</v>
+        <v>1608</v>
       </c>
       <c r="B99" t="s">
-        <v>1643</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1645</v>
+        <v>1609</v>
       </c>
       <c r="B100" t="s">
-        <v>1649</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1646</v>
+        <v>1610</v>
       </c>
       <c r="B101" t="s">
-        <v>1650</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1647</v>
+        <v>1611</v>
       </c>
       <c r="B102" t="s">
-        <v>1651</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1648</v>
+        <v>1612</v>
       </c>
       <c r="B103" t="s">
-        <v>1652</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="B104" t="s">
-        <v>1653</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>901</v>
+        <v>865</v>
       </c>
       <c r="B105" t="s">
-        <v>1654</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="B106" t="s">
-        <v>1655</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1657</v>
+        <v>1621</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7033,7 +6934,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1658</v>
+        <v>1622</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7041,610 +6942,610 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1662</v>
+        <v>1626</v>
       </c>
       <c r="B2" t="s">
-        <v>1659</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1663</v>
+        <v>1627</v>
       </c>
       <c r="B3" t="s">
-        <v>1660</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1664</v>
+        <v>1628</v>
       </c>
       <c r="B4" t="s">
-        <v>1661</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1668</v>
+        <v>1632</v>
       </c>
       <c r="B5" t="s">
-        <v>1667</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1669</v>
+        <v>1633</v>
       </c>
       <c r="B6" t="s">
-        <v>1666</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1670</v>
+        <v>1634</v>
       </c>
       <c r="B7" t="s">
-        <v>1665</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="B8" t="s">
-        <v>1671</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>1672</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="B10" t="s">
-        <v>1673</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="B11" t="s">
-        <v>1675</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="B12" t="s">
-        <v>1674</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="B13" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1683</v>
+        <v>1647</v>
       </c>
       <c r="B14" t="s">
-        <v>1680</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1684</v>
+        <v>1648</v>
       </c>
       <c r="B15" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1685</v>
+        <v>1649</v>
       </c>
       <c r="B16" t="s">
-        <v>1682</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1689</v>
+        <v>1653</v>
       </c>
       <c r="B17" t="s">
-        <v>1687</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1690</v>
+        <v>1654</v>
       </c>
       <c r="B18" t="s">
-        <v>1686</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1691</v>
+        <v>1655</v>
       </c>
       <c r="B19" t="s">
-        <v>1688</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1692</v>
+        <v>1656</v>
       </c>
       <c r="B20" t="s">
-        <v>1695</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1693</v>
+        <v>1657</v>
       </c>
       <c r="B21" t="s">
-        <v>1696</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1694</v>
+        <v>1658</v>
       </c>
       <c r="B22" t="s">
-        <v>1697</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1701</v>
+        <v>1665</v>
       </c>
       <c r="B23" t="s">
-        <v>1698</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="B24" t="s">
-        <v>1699</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1703</v>
+        <v>1667</v>
       </c>
       <c r="B25" t="s">
-        <v>1700</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1710</v>
+        <v>1674</v>
       </c>
       <c r="B26" t="s">
-        <v>1704</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1711</v>
+        <v>1675</v>
       </c>
       <c r="B27" t="s">
-        <v>1705</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1712</v>
+        <v>1676</v>
       </c>
       <c r="B28" t="s">
-        <v>1706</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1713</v>
+        <v>1677</v>
       </c>
       <c r="B29" t="s">
-        <v>1707</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1714</v>
+        <v>1678</v>
       </c>
       <c r="B30" t="s">
-        <v>1708</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1715</v>
+        <v>1679</v>
       </c>
       <c r="B31" t="s">
-        <v>1709</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1728</v>
+        <v>1692</v>
       </c>
       <c r="B32" t="s">
-        <v>1716</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1729</v>
+        <v>1693</v>
       </c>
       <c r="B33" t="s">
-        <v>1717</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1730</v>
+        <v>1694</v>
       </c>
       <c r="B34" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1731</v>
+        <v>1695</v>
       </c>
       <c r="B35" t="s">
-        <v>1719</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1732</v>
+        <v>1696</v>
       </c>
       <c r="B36" t="s">
-        <v>1720</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1733</v>
+        <v>1697</v>
       </c>
       <c r="B37" t="s">
-        <v>1721</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="B38" t="s">
-        <v>1722</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1735</v>
+        <v>1699</v>
       </c>
       <c r="B39" t="s">
-        <v>1723</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1736</v>
+        <v>1700</v>
       </c>
       <c r="B40" t="s">
-        <v>1724</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1737</v>
+        <v>1701</v>
       </c>
       <c r="B41" t="s">
-        <v>1725</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1738</v>
+        <v>1702</v>
       </c>
       <c r="B42" t="s">
-        <v>1726</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1739</v>
+        <v>1703</v>
       </c>
       <c r="B43" t="s">
-        <v>1727</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1752</v>
+        <v>1716</v>
       </c>
       <c r="B44" t="s">
-        <v>1740</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1753</v>
+        <v>1717</v>
       </c>
       <c r="B45" t="s">
-        <v>1741</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1754</v>
+        <v>1718</v>
       </c>
       <c r="B46" t="s">
-        <v>1742</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1755</v>
+        <v>1719</v>
       </c>
       <c r="B47" t="s">
-        <v>1743</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1756</v>
+        <v>1720</v>
       </c>
       <c r="B48" t="s">
-        <v>1744</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1757</v>
+        <v>1721</v>
       </c>
       <c r="B49" t="s">
-        <v>1745</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1758</v>
+        <v>1722</v>
       </c>
       <c r="B50" t="s">
-        <v>1746</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1759</v>
+        <v>1723</v>
       </c>
       <c r="B51" t="s">
-        <v>1747</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1760</v>
+        <v>1724</v>
       </c>
       <c r="B52" t="s">
-        <v>1748</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1761</v>
+        <v>1725</v>
       </c>
       <c r="B53" t="s">
-        <v>1749</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1762</v>
+        <v>1726</v>
       </c>
       <c r="B54" t="s">
-        <v>1750</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1763</v>
+        <v>1727</v>
       </c>
       <c r="B55" t="s">
-        <v>1751</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1767</v>
+        <v>1731</v>
       </c>
       <c r="B56" t="s">
-        <v>1765</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1768</v>
+        <v>1732</v>
       </c>
       <c r="B57" t="s">
-        <v>1764</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1769</v>
+        <v>1733</v>
       </c>
       <c r="B58" t="s">
-        <v>1766</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1779</v>
+        <v>1743</v>
       </c>
       <c r="B59" t="s">
-        <v>1770</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1780</v>
+        <v>1744</v>
       </c>
       <c r="B60" t="s">
-        <v>1771</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1781</v>
+        <v>1745</v>
       </c>
       <c r="B61" t="s">
-        <v>1772</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1782</v>
+        <v>1746</v>
       </c>
       <c r="B62" t="s">
-        <v>1773</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1783</v>
+        <v>1747</v>
       </c>
       <c r="B63" t="s">
-        <v>1774</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1784</v>
+        <v>1748</v>
       </c>
       <c r="B64" t="s">
-        <v>1775</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1785</v>
+        <v>1749</v>
       </c>
       <c r="B65" t="s">
-        <v>1776</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1786</v>
+        <v>1750</v>
       </c>
       <c r="B66" t="s">
-        <v>1777</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1787</v>
+        <v>1751</v>
       </c>
       <c r="B67" t="s">
-        <v>1778</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1791</v>
+        <v>1755</v>
       </c>
       <c r="B68" t="s">
-        <v>1788</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1792</v>
+        <v>1756</v>
       </c>
       <c r="B69" t="s">
-        <v>1789</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1793</v>
+        <v>1757</v>
       </c>
       <c r="B70" t="s">
-        <v>1790</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="B71" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1795</v>
+        <v>1759</v>
       </c>
       <c r="B72" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1797</v>
+        <v>1761</v>
       </c>
       <c r="B73" t="s">
-        <v>1796</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1799</v>
+        <v>1763</v>
       </c>
       <c r="B74" t="s">
-        <v>1798</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1801</v>
+        <v>1765</v>
       </c>
       <c r="B75" t="s">
-        <v>1800</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1803</v>
+        <v>1767</v>
       </c>
       <c r="B76" t="s">
-        <v>1802</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1804</v>
+        <v>1768</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +7569,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1658</v>
+        <v>1622</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7676,146 +7577,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1807</v>
+        <v>1771</v>
       </c>
       <c r="B2" t="s">
-        <v>1805</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1808</v>
+        <v>1772</v>
       </c>
       <c r="B3" t="s">
-        <v>1806</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1811</v>
+        <v>1775</v>
       </c>
       <c r="B4" t="s">
-        <v>1810</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1812</v>
+        <v>1776</v>
       </c>
       <c r="B5" t="s">
-        <v>1809</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1815</v>
+        <v>1779</v>
       </c>
       <c r="B6" t="s">
-        <v>1813</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1816</v>
+        <v>1780</v>
       </c>
       <c r="B7" t="s">
-        <v>1814</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1817</v>
+        <v>1781</v>
       </c>
       <c r="B8" t="s">
-        <v>1379</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1818</v>
+        <v>1782</v>
       </c>
       <c r="B9" t="s">
-        <v>1380</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1827</v>
+        <v>1791</v>
       </c>
       <c r="B10" t="s">
-        <v>1819</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1828</v>
+        <v>1792</v>
       </c>
       <c r="B11" t="s">
-        <v>1820</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="B12" t="s">
-        <v>1821</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="B13" t="s">
-        <v>1822</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="B14" t="s">
-        <v>1823</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="B15" t="s">
-        <v>1824</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1829</v>
+        <v>1793</v>
       </c>
       <c r="B16" t="s">
-        <v>1825</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1830</v>
+        <v>1794</v>
       </c>
       <c r="B17" t="s">
-        <v>1826</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1831</v>
+        <v>1795</v>
       </c>
       <c r="B18" t="s">
-        <v>1237</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="B19" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -7911,10 +7812,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7927,26 +7828,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7954,7 +7855,7 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8002,7 +7903,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8010,7 +7911,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1376</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8018,7 +7919,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>1378</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8026,7 +7927,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>1377</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8034,7 +7935,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>1379</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8042,23 +7943,23 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>1380</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1428</v>
+        <v>1392</v>
       </c>
       <c r="B27" t="s">
-        <v>1381</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="B28" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8066,7 +7967,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>1383</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8074,7 +7975,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1384</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8082,7 +7983,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>1386</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8090,7 +7991,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>1385</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8098,7 +7999,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>1387</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8106,7 +8007,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>1388</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8114,7 +8015,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>1389</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8122,7 +8023,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>1390</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8130,15 +8031,15 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>1391</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="B38" t="s">
-        <v>1392</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8146,7 +8047,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>1393</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8154,7 +8055,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>1394</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8162,7 +8063,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>1395</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8170,7 +8071,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>1396</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8178,7 +8079,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>1397</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8186,7 +8087,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>1398</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8194,7 +8095,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8202,7 +8103,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>1399</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8210,15 +8111,15 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>1400</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="B48" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8226,15 +8127,15 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="B50" t="s">
-        <v>1403</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8242,15 +8143,15 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>1404</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="B52" t="s">
-        <v>1405</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8258,7 +8159,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>1406</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8266,7 +8167,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>1407</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8274,7 +8175,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>1408</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8282,7 +8183,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>1409</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8290,15 +8191,15 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>1410</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="B58" t="s">
-        <v>1411</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8306,7 +8207,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>1412</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8314,7 +8215,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>1413</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8322,7 +8223,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>1414</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8330,7 +8231,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>1415</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8338,7 +8239,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>1416</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8346,7 +8247,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>1417</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8354,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>1418</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8362,7 +8263,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>1419</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8370,7 +8271,7 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>1420</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8378,7 +8279,7 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>1421</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8386,15 +8287,15 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="B70" t="s">
-        <v>1423</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8402,7 +8303,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>1424</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8410,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1425</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8418,7 +8319,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>1427</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8426,7 +8327,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>1426</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8447,10 +8348,10 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1441</v>
+        <v>1405</v>
       </c>
       <c r="B77" t="s">
-        <v>1440</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8471,90 +8372,90 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="B88" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="B89" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -8565,10 +8466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:B107"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8579,7 +8480,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8590,847 +8491,703 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>1283</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>1286</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>1287</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>1288</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>580</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1319</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>1318</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1322</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>1320</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1323</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>1321</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1324</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s">
-        <v>1332</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>549</v>
       </c>
       <c r="B66" t="s">
-        <v>1329</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="B67" t="s">
-        <v>1331</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>1256</v>
       </c>
       <c r="B68" t="s">
-        <v>1330</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>1257</v>
       </c>
       <c r="B69" t="s">
-        <v>1333</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>1259</v>
       </c>
       <c r="B70" t="s">
-        <v>1334</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>1261</v>
       </c>
       <c r="B71" t="s">
-        <v>1335</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>1263</v>
       </c>
       <c r="B72" t="s">
-        <v>1336</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>1265</v>
       </c>
       <c r="B73" t="s">
-        <v>1337</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>1267</v>
       </c>
       <c r="B74" t="s">
-        <v>1327</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>1269</v>
       </c>
       <c r="B75" t="s">
-        <v>1338</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>1271</v>
       </c>
       <c r="B76" t="s">
-        <v>1328</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>1273</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>1275</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>1277</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>1279</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>1281</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" t="s">
-        <v>220</v>
+      <c r="A83" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>1306</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>583</v>
+        <v>1308</v>
       </c>
       <c r="B85" t="s">
-        <v>1442</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>585</v>
+        <v>1408</v>
       </c>
       <c r="B86" t="s">
-        <v>584</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>587</v>
+        <v>1410</v>
       </c>
       <c r="B87" t="s">
-        <v>586</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1292</v>
+        <v>1797</v>
       </c>
       <c r="B88" t="s">
-        <v>446</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1293</v>
+        <v>1798</v>
       </c>
       <c r="B89" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="11" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1445</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9443,7 +9200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9455,7 +9212,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1233</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -9463,42 +9220,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1285</v>
+        <v>1249</v>
       </c>
       <c r="B6" t="s">
-        <v>1284</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9511,266 +9268,266 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1235</v>
+        <v>1199</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1234</v>
+        <v>1198</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1236</v>
+        <v>1200</v>
       </c>
       <c r="B13" t="s">
-        <v>1237</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1267</v>
+        <v>1231</v>
       </c>
       <c r="B14" t="s">
-        <v>1266</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1243</v>
+        <v>1207</v>
       </c>
       <c r="B15" t="s">
-        <v>1238</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1240</v>
+        <v>1204</v>
       </c>
       <c r="B16" t="s">
-        <v>1239</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1268</v>
+        <v>1232</v>
       </c>
       <c r="B17" t="s">
-        <v>1270</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1242</v>
+        <v>1206</v>
       </c>
       <c r="B18" t="s">
-        <v>1241</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1245</v>
+        <v>1209</v>
       </c>
       <c r="B19" t="s">
-        <v>1244</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1271</v>
+        <v>1235</v>
       </c>
       <c r="B20" t="s">
-        <v>1269</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="B21" t="s">
-        <v>1246</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1248</v>
+        <v>1212</v>
       </c>
       <c r="B22" t="s">
-        <v>1249</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1281</v>
+        <v>1245</v>
       </c>
       <c r="B23" t="s">
-        <v>1278</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1273</v>
+        <v>1237</v>
       </c>
       <c r="B24" t="s">
-        <v>1272</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1252</v>
+        <v>1216</v>
       </c>
       <c r="B25" t="s">
-        <v>1251</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1253</v>
+        <v>1217</v>
       </c>
       <c r="B26" t="s">
-        <v>1250</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1280</v>
+        <v>1244</v>
       </c>
       <c r="B27" t="s">
-        <v>1279</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1275</v>
+        <v>1239</v>
       </c>
       <c r="B28" t="s">
-        <v>1274</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1256</v>
+        <v>1220</v>
       </c>
       <c r="B29" t="s">
-        <v>1254</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1257</v>
+        <v>1221</v>
       </c>
       <c r="B30" t="s">
-        <v>1255</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1277</v>
+        <v>1241</v>
       </c>
       <c r="B31" t="s">
-        <v>1276</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1260</v>
+        <v>1224</v>
       </c>
       <c r="B32" t="s">
-        <v>1259</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1261</v>
+        <v>1225</v>
       </c>
       <c r="B33" t="s">
-        <v>1258</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1264</v>
+        <v>1228</v>
       </c>
       <c r="B34" t="s">
-        <v>1262</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1265</v>
+        <v>1229</v>
       </c>
       <c r="B35" t="s">
-        <v>1263</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1283</v>
+        <v>1247</v>
       </c>
       <c r="B36" t="s">
-        <v>1282</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="B37" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1287</v>
+        <v>1251</v>
       </c>
       <c r="B38" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1289</v>
+        <v>1253</v>
       </c>
       <c r="B39" t="s">
-        <v>1288</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1291</v>
+        <v>1255</v>
       </c>
       <c r="B40" t="s">
-        <v>1290</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -9796,7 +9553,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -9804,138 +9561,138 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>942</v>
+        <v>906</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>939</v>
+        <v>903</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>938</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9943,7 +9700,7 @@
         <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9951,55 +9708,55 @@
         <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10007,7 +9764,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10015,261 +9772,261 @@
         <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>923</v>
+        <v>887</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>922</v>
+        <v>886</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>919</v>
+        <v>883</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1447</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1448</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1449</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1450</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1451</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1452</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1453</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1455</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -10277,7 +10034,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10285,167 +10042,167 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>937</v>
+        <v>901</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>936</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>927</v>
+        <v>891</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>928</v>
+        <v>892</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>926</v>
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>930</v>
+        <v>894</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>929</v>
+        <v>893</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>932</v>
+        <v>896</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>931</v>
+        <v>895</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>935</v>
+        <v>899</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>940</v>
+        <v>904</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>941</v>
+        <v>905</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -10471,7 +10228,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -10479,810 +10236,810 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1325</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1326</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1363</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1364</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>1366</v>
+        <v>1330</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>1365</v>
+        <v>1329</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>1345</v>
+        <v>1309</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1347</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>1346</v>
+        <v>1310</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1348</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1372</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>1374</v>
+        <v>1338</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1164</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>1368</v>
+        <v>1332</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1367</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>1369</v>
+        <v>1333</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1370</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>1435</v>
+        <v>1399</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1436</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1349</v>
+        <v>1313</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1350</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1371</v>
+        <v>1335</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="9" t="s">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="9" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1351</v>
+        <v>1315</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>1439</v>
+        <v>1403</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="B79" t="s">
-        <v>875</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>884</v>
+        <v>848</v>
       </c>
       <c r="B80" t="s">
-        <v>877</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="B81" t="s">
-        <v>878</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>882</v>
+        <v>846</v>
       </c>
       <c r="B82" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="B83" t="s">
-        <v>880</v>
+        <v>844</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>886</v>
+        <v>850</v>
       </c>
       <c r="B84" t="s">
-        <v>885</v>
+        <v>849</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="B85" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>890</v>
+        <v>854</v>
       </c>
       <c r="B86" t="s">
-        <v>889</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>892</v>
+        <v>856</v>
       </c>
       <c r="B87" t="s">
-        <v>891</v>
+        <v>855</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="B88" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
       <c r="B89" t="s">
-        <v>897</v>
+        <v>861</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>899</v>
+        <v>863</v>
       </c>
       <c r="B90" t="s">
-        <v>907</v>
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="B91" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>901</v>
+        <v>865</v>
       </c>
       <c r="B92" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="B93" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="B94" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="B95" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>1291</v>
+        <v>1255</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1352</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>1356</v>
+        <v>1320</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1355</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>1357</v>
+        <v>1321</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>1360</v>
+        <v>1324</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1359</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>1362</v>
+        <v>1326</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1361</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -11295,50 +11052,50 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1264</v>
+        <v>1228</v>
       </c>
       <c r="B104" t="s">
-        <v>1262</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1265</v>
+        <v>1229</v>
       </c>
       <c r="B105" t="s">
-        <v>1263</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>1429</v>
+        <v>1393</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1434</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>1432</v>
+        <v>1396</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1430</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>1433</v>
+        <v>1397</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1431</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>1437</v>
+        <v>1401</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1438</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -11363,7 +11120,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -11371,7 +11128,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>100</v>
@@ -11379,578 +11136,578 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="B24" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B28" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B34" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="B35" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B36" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="B37" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="B38" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="B39" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="B40" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="B42" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B43" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="B44" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="B45" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="B46" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="B47" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="B49" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="B50" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="B51" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="B52" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B53" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="B54" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="B56" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="B57" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="B58" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="B59" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B60" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B61" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="B62" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B63" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="B64" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="B65" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="B66" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="B67" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="B68" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="B69" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="B70" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="B71" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="B72" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="B73" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="B74" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -11975,7 +11732,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -11983,426 +11740,426 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="B8" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="B9" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="B10" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="B12" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="B13" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="B14" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="B15" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="B16" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="B17" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="B18" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="B19" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="B20" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="B22" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="B23" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="B24" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="B25" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="B26" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="B27" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="B28" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="B29" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="B30" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="B31" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="B32" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="B33" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="B34" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="B35" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="B36" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="B37" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="B39" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="B40" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="B41" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="B42" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="B43" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="B44" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="B45" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="B46" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
       <c r="B47" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="B48" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="B49" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="B50" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="B51" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="B52" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
       <c r="B53" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="B54" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -12410,7 +12167,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -12418,399 +12175,399 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="B57" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="B58" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B59" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="B60" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="B61" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="B62" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="B63" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
       <c r="B65" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
       <c r="B66" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="B67" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="B68" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
       <c r="B69" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
       <c r="B70" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="B71" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="B72" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="B73" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="B74" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
       <c r="B75" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="B76" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="B77" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="B78" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B79" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
       <c r="B81" t="s">
-        <v>869</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
       <c r="B82" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="B85" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="B86" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="B87" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="B88" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="B89" t="s">
-        <v>832</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="B90" t="s">
-        <v>837</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="B91" t="s">
-        <v>838</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
       <c r="B92" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="B93" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="B94" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
       <c r="B95" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="B96" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="B97" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="B98" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
       <c r="B99" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="B100" t="s">
-        <v>856</v>
+        <v>820</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
       <c r="B101" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
       <c r="B102" t="s">
-        <v>858</v>
+        <v>822</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>865</v>
+        <v>829</v>
       </c>
       <c r="B103" t="s">
-        <v>863</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="B104" t="s">
-        <v>862</v>
+        <v>826</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>867</v>
+        <v>831</v>
       </c>
       <c r="B105" t="s">
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -12834,7 +12591,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -12842,1010 +12599,1010 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1175</v>
+        <v>1139</v>
       </c>
       <c r="B2" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1174</v>
+        <v>1138</v>
       </c>
       <c r="B3" t="s">
-        <v>1173</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1179</v>
+        <v>1143</v>
       </c>
       <c r="B4" t="s">
-        <v>1178</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="B5" t="s">
-        <v>1180</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="B6" t="s">
-        <v>1182</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1185</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="s">
-        <v>1184</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1187</v>
+        <v>1151</v>
       </c>
       <c r="B8" t="s">
-        <v>1186</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1172</v>
+        <v>1136</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>947</v>
+        <v>911</v>
       </c>
       <c r="B10" t="s">
-        <v>946</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>948</v>
+        <v>912</v>
       </c>
       <c r="B11" t="s">
-        <v>945</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>949</v>
+        <v>913</v>
       </c>
       <c r="B12" t="s">
-        <v>950</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>952</v>
+        <v>916</v>
       </c>
       <c r="B13" t="s">
-        <v>951</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>953</v>
+        <v>917</v>
       </c>
       <c r="B14" t="s">
-        <v>954</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="B15" t="s">
-        <v>955</v>
+        <v>919</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>924</v>
       </c>
       <c r="B16" t="s">
-        <v>958</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>961</v>
+        <v>925</v>
       </c>
       <c r="B17" t="s">
-        <v>959</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>962</v>
+        <v>926</v>
       </c>
       <c r="B18" t="s">
-        <v>957</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>966</v>
+        <v>930</v>
       </c>
       <c r="B19" t="s">
-        <v>965</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>967</v>
+        <v>931</v>
       </c>
       <c r="B20" t="s">
-        <v>964</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>968</v>
+        <v>932</v>
       </c>
       <c r="B21" t="s">
-        <v>963</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>972</v>
+        <v>936</v>
       </c>
       <c r="B22" t="s">
-        <v>971</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>973</v>
+        <v>937</v>
       </c>
       <c r="B23" t="s">
-        <v>970</v>
+        <v>934</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>974</v>
+        <v>938</v>
       </c>
       <c r="B24" t="s">
-        <v>969</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>978</v>
+        <v>942</v>
       </c>
       <c r="B25" t="s">
-        <v>975</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>979</v>
+        <v>943</v>
       </c>
       <c r="B26" t="s">
-        <v>976</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>980</v>
+        <v>944</v>
       </c>
       <c r="B27" t="s">
-        <v>977</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="B28" t="s">
-        <v>981</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="B29" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>986</v>
+        <v>950</v>
       </c>
       <c r="B30" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="B31" t="s">
-        <v>991</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>989</v>
+        <v>953</v>
       </c>
       <c r="B32" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>990</v>
+        <v>954</v>
       </c>
       <c r="B33" t="s">
-        <v>987</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>995</v>
+        <v>959</v>
       </c>
       <c r="B34" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="B35" t="s">
-        <v>993</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="B36" t="s">
-        <v>1176</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="B37" t="s">
-        <v>999</v>
+        <v>963</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1001</v>
+        <v>965</v>
       </c>
       <c r="B38" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1002</v>
+        <v>966</v>
       </c>
       <c r="B39" t="s">
-        <v>1177</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1004</v>
+        <v>968</v>
       </c>
       <c r="B40" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="B41" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="B42" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="B43" t="s">
-        <v>1011</v>
+        <v>975</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="B44" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="B45" t="s">
-        <v>1009</v>
+        <v>973</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1018</v>
+        <v>982</v>
       </c>
       <c r="B46" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="B47" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1020</v>
+        <v>984</v>
       </c>
       <c r="B48" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="B49" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1025</v>
+        <v>989</v>
       </c>
       <c r="B50" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
       <c r="B51" t="s">
-        <v>1021</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1030</v>
+        <v>994</v>
       </c>
       <c r="B52" t="s">
-        <v>1029</v>
+        <v>993</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1031</v>
+        <v>995</v>
       </c>
       <c r="B53" t="s">
-        <v>1028</v>
+        <v>992</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1032</v>
+        <v>996</v>
       </c>
       <c r="B54" t="s">
-        <v>1027</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1036</v>
+        <v>1000</v>
       </c>
       <c r="B55" t="s">
-        <v>1034</v>
+        <v>998</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1037</v>
+        <v>1001</v>
       </c>
       <c r="B56" t="s">
-        <v>1033</v>
+        <v>997</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1038</v>
+        <v>1002</v>
       </c>
       <c r="B57" t="s">
-        <v>1035</v>
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="B58" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="B59" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="B60" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="B61" t="s">
-        <v>1047</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="B62" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="B63" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="B64" t="s">
-        <v>1053</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1054</v>
+        <v>1018</v>
       </c>
       <c r="B65" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="B66" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="B67" t="s">
-        <v>1056</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="B68" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="B69" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="B70" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="B71" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="B72" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="B73" t="s">
-        <v>1072</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="B74" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1071</v>
+        <v>1035</v>
       </c>
       <c r="B75" t="s">
-        <v>1074</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="B76" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="B77" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="B78" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1190</v>
+        <v>1154</v>
       </c>
       <c r="B79" t="s">
-        <v>1189</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1191</v>
+        <v>1155</v>
       </c>
       <c r="B80" t="s">
-        <v>1188</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1192</v>
+        <v>1156</v>
       </c>
       <c r="B81" t="s">
-        <v>1193</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="B82" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="B83" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="B84" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="B85" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="B86" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="B87" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="B88" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="B89" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="B90" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="B91" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1103</v>
+        <v>1067</v>
       </c>
       <c r="B92" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
       <c r="B93" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="B94" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
       <c r="B95" t="s">
-        <v>1106</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="B96" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="B97" t="s">
-        <v>1108</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1115</v>
+        <v>1079</v>
       </c>
       <c r="B98" t="s">
-        <v>1109</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1116</v>
+        <v>1080</v>
       </c>
       <c r="B99" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="B100" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1120</v>
+        <v>1084</v>
       </c>
       <c r="B101" t="s">
-        <v>1117</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="B102" t="s">
-        <v>1122</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1126</v>
+        <v>1090</v>
       </c>
       <c r="B103" t="s">
-        <v>1123</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1127</v>
+        <v>1091</v>
       </c>
       <c r="B104" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1128</v>
+        <v>1092</v>
       </c>
       <c r="B105" t="s">
-        <v>1125</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1131</v>
+        <v>1095</v>
       </c>
       <c r="B106" t="s">
-        <v>1129</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1132</v>
+        <v>1096</v>
       </c>
       <c r="B107" t="s">
-        <v>1130</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1133</v>
+        <v>1097</v>
       </c>
       <c r="B108" t="s">
-        <v>1232</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1149</v>
+        <v>1113</v>
       </c>
       <c r="B109" t="s">
-        <v>1134</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1150</v>
+        <v>1114</v>
       </c>
       <c r="B110" t="s">
-        <v>1135</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1154</v>
+        <v>1118</v>
       </c>
       <c r="B111" t="s">
-        <v>1136</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1151</v>
+        <v>1115</v>
       </c>
       <c r="B112" t="s">
-        <v>1137</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1152</v>
+        <v>1116</v>
       </c>
       <c r="B113" t="s">
-        <v>1138</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1153</v>
+        <v>1117</v>
       </c>
       <c r="B114" t="s">
-        <v>1139</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1155</v>
+        <v>1119</v>
       </c>
       <c r="B115" t="s">
-        <v>1140</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="B116" t="s">
-        <v>1141</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="B117" t="s">
-        <v>1142</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1158</v>
+        <v>1122</v>
       </c>
       <c r="B118" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1159</v>
+        <v>1123</v>
       </c>
       <c r="B119" t="s">
-        <v>1144</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1160</v>
+        <v>1124</v>
       </c>
       <c r="B120" t="s">
-        <v>1145</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1161</v>
+        <v>1125</v>
       </c>
       <c r="B121" t="s">
-        <v>1146</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="B122" t="s">
-        <v>1147</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1163</v>
+        <v>1127</v>
       </c>
       <c r="B123" t="s">
-        <v>1148</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1168</v>
+        <v>1132</v>
       </c>
       <c r="B124" t="s">
-        <v>1165</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1169</v>
+        <v>1133</v>
       </c>
       <c r="B125" t="s">
-        <v>1164</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1170</v>
+        <v>1134</v>
       </c>
       <c r="B126" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B127" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -13853,71 +13610,71 @@
         <v>59</v>
       </c>
       <c r="B128" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1171</v>
+        <v>1135</v>
       </c>
       <c r="B129" t="s">
-        <v>1167</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="B130" t="s">
-        <v>1199</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="B131" t="s">
-        <v>1194</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1196</v>
+        <v>1160</v>
       </c>
       <c r="B132" t="s">
-        <v>1195</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1198</v>
+        <v>1162</v>
       </c>
       <c r="B133" t="s">
-        <v>1197</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="B134" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="B136" t="s">
-        <v>1204</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1805">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3322,9 +3322,6 @@
     <t>shareHolderPercentInput</t>
   </si>
   <si>
-    <t>document.querySelector('[id="numberOfEmployees"]')</t>
-  </si>
-  <si>
     <t>document.querySelector('[id="numberOfEmployees"] ion-label')</t>
   </si>
   <si>
@@ -3451,9 +3448,6 @@
     <t>document.querySelector('digital-text-box[id="employerName"] ion-input')</t>
   </si>
   <si>
-    <t>document.querySelector('[id="employeeNumber"] ion-input')</t>
-  </si>
-  <si>
     <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('button[icon="pi pi-eye"]')[2]</t>
   </si>
   <si>
@@ -3517,24 +3511,12 @@
     <t>listview_EmploymentStatus</t>
   </si>
   <si>
-    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('button[icon="pi pi-search"]')</t>
-  </si>
-  <si>
     <t>listview_SearchBtn</t>
   </si>
   <si>
-    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelectorAll('tr')[1]</t>
-  </si>
-  <si>
-    <t>listview_EmpValues</t>
-  </si>
-  <si>
     <t>searchbox_Input</t>
   </si>
   <si>
-    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('p-paginator span[class*="p-paginator-current"]')</t>
-  </si>
-  <si>
     <t>DocumentDetails_FieldName</t>
   </si>
   <si>
@@ -5423,6 +5405,42 @@
   </si>
   <si>
     <t>eyeBtn</t>
+  </si>
+  <si>
+    <t>dateOfJoiningInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateOfJoining"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="employeeNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="shareholderPercentage"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-msg="Invalid_MOBILE_NUMBER"] ion-badge')</t>
+  </si>
+  <si>
+    <t>invalidNumberError</t>
+  </si>
+  <si>
+    <t>document.querySelector('[msg*="ALPHANUMERIC"] ion-badge')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector('p-dropdown')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector(' span[class*="p-paginator-current"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="employerName"]').parentElement.parentElement.parentElement.parentElement.parentElement.querySelector('[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('form ion-title')</t>
+  </si>
+  <si>
+    <t>customerEmploymentScreen</t>
   </si>
 </sst>
 </file>
@@ -5912,7 +5930,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5931,12 +5949,12 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B4" t="s">
         <v>639</v>
@@ -5944,98 +5962,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B5" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B6" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B7" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B8" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B9" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B10" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B11" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B12" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B13" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B14" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B15" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B16" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -6047,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6059,7 +6077,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6067,746 +6085,746 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B2" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B4" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="B5" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B6" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="B7" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="B8" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="B9" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B10" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B11" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="B12" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="B13" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="B14" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="B15" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="B16" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B17" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="B18" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="B19" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="B20" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="B21" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="B22" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="B23" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="B24" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="B25" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="B26" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B27" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B28" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="B29" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="B30" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="B31" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="B32" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="B33" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="B34" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="B35" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="B36" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="B37" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B38" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="B39" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B40" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="B41" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="B42" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="B43" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="B44" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="B45" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="B46" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B47" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="B48" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="B49" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="B50" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="B51" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="B52" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="B53" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="B54" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="B55" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="B56" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B57" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="B58" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B59" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="B60" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="B61" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="B62" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="B63" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="B64" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B65" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B66" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B67" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="B68" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="B69" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B70" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="B71" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="B72" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="B73" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="B74" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="B75" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="B76" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="B77" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="B78" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="B79" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="B80" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B81" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="B82" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="B83" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B84" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="B85" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B86" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="B87" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B88" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="B89" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B90" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="B91" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="B92" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B93" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="B94" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6843,42 +6861,42 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="B99" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="B100" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="B101" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="B102" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="B103" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6886,7 +6904,7 @@
         <v>858</v>
       </c>
       <c r="B104" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6894,20 +6912,20 @@
         <v>865</v>
       </c>
       <c r="B105" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="B106" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="B107" t="s">
         <v>211</v>
@@ -6934,7 +6952,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -6942,50 +6960,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="B2" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="B3" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="B4" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="B5" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B6" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="B7" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6993,7 +7011,7 @@
         <v>779</v>
       </c>
       <c r="B8" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7001,7 +7019,7 @@
         <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7009,540 +7027,540 @@
         <v>714</v>
       </c>
       <c r="B10" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B11" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="B12" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="B13" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="B14" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B15" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="B16" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="B17" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="B18" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="B19" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="B20" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="B21" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="B22" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="B23" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B24" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B25" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="B26" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="B27" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="B28" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="B29" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="B30" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="B31" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="B32" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="B33" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="B34" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="B35" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="B36" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="B37" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B38" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="B39" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="B40" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="B41" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="B42" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B43" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="B44" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B45" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="B46" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="B47" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="B48" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B49" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B50" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="B51" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B52" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B53" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B54" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B55" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="B56" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="B57" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="B58" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="B59" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="B60" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B61" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="B62" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="B63" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="B64" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="B65" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="B66" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="B67" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="B68" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="B69" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="B70" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B71" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="B72" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="B73" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B74" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="B75" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="B76" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="B77" t="s">
         <v>211</v>
@@ -7569,7 +7587,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7577,82 +7595,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="B2" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B3" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="B4" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="B5" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B6" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="B7" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="B8" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="B10" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="B11" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7660,7 +7678,7 @@
         <v>881</v>
       </c>
       <c r="B12" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7668,7 +7686,7 @@
         <v>880</v>
       </c>
       <c r="B13" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7676,7 +7694,7 @@
         <v>884</v>
       </c>
       <c r="B14" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7684,39 +7702,39 @@
         <v>885</v>
       </c>
       <c r="B15" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B16" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="B17" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="B18" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -7903,7 +7921,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7911,7 +7929,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7919,7 +7937,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7927,7 +7945,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7935,7 +7953,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7943,15 +7961,15 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="B27" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7959,7 +7977,7 @@
         <v>626</v>
       </c>
       <c r="B28" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7967,7 +7985,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7975,7 +7993,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7983,7 +8001,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7991,7 +8009,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7999,7 +8017,7 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8007,7 +8025,7 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8015,7 +8033,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8023,7 +8041,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8031,7 +8049,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8039,7 +8057,7 @@
         <v>627</v>
       </c>
       <c r="B38" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8047,7 +8065,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8055,7 +8073,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8063,7 +8081,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8071,7 +8089,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8079,7 +8097,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8087,7 +8105,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8103,7 +8121,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8111,7 +8129,7 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8119,7 +8137,7 @@
         <v>628</v>
       </c>
       <c r="B48" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8127,7 +8145,7 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8135,7 +8153,7 @@
         <v>629</v>
       </c>
       <c r="B50" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8143,7 +8161,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8151,7 +8169,7 @@
         <v>630</v>
       </c>
       <c r="B52" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8159,7 +8177,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8167,7 +8185,7 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8175,7 +8193,7 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8183,7 +8201,7 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8191,7 +8209,7 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8199,7 +8217,7 @@
         <v>631</v>
       </c>
       <c r="B58" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8207,7 +8225,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8215,7 +8233,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8223,7 +8241,7 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8231,7 +8249,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8239,7 +8257,7 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8247,7 +8265,7 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8255,7 +8273,7 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8263,7 +8281,7 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8271,7 +8289,7 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8279,7 +8297,7 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8287,7 +8305,7 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8295,7 +8313,7 @@
         <v>632</v>
       </c>
       <c r="B70" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8303,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8311,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8319,7 +8337,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8327,7 +8345,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8348,10 +8366,10 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="B77" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8468,8 +8486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8512,31 +8530,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B5" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B6" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B7" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B8" t="s">
         <v>417</v>
@@ -8883,7 +8901,7 @@
         <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8891,7 +8909,7 @@
         <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8899,7 +8917,7 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8907,7 +8925,7 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8915,7 +8933,7 @@
         <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8923,7 +8941,7 @@
         <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8931,7 +8949,7 @@
         <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8939,7 +8957,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8947,7 +8965,7 @@
         <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8955,7 +8973,7 @@
         <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8963,7 +8981,7 @@
         <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8971,7 +8989,7 @@
         <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8995,7 +9013,7 @@
         <v>547</v>
       </c>
       <c r="B65" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9016,7 +9034,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B68" t="s">
         <v>421</v>
@@ -9024,98 +9042,98 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B69" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B70" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B71" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B72" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B73" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="B74" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="B75" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B76" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B77" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B78" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B79" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B80" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9128,7 +9146,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
@@ -9136,55 +9154,55 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="11" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="B84" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B85" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B86" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B87" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="B88" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="B89" t="s">
         <v>242</v>
@@ -9212,7 +9230,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -9252,10 +9270,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B6" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9292,7 +9310,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B11" t="s">
         <v>238</v>
@@ -9300,7 +9318,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B12" t="s">
         <v>246</v>
@@ -9308,207 +9326,207 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B13" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B14" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B15" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B16" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B17" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B18" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B19" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B20" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B21" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B22" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B23" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B24" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B25" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B26" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B27" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B28" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B29" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B30" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B31" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B32" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B33" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B34" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B35" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B36" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B37" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B38" t="s">
         <v>417</v>
@@ -9516,18 +9534,18 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B39" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B40" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -9539,8 +9557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -9890,7 +9908,7 @@
         <v>301</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9898,7 +9916,7 @@
         <v>302</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9906,7 +9924,7 @@
         <v>303</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9914,7 +9932,7 @@
         <v>304</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9922,7 +9940,7 @@
         <v>305</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9938,7 +9956,7 @@
         <v>307</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9954,7 +9972,7 @@
         <v>309</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -9970,7 +9988,7 @@
         <v>311</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -9986,7 +10004,7 @@
         <v>313</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10215,8 +10233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10247,7 +10265,7 @@
         <v>339</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10255,7 +10273,7 @@
         <v>340</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10263,7 +10281,7 @@
         <v>341</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10319,7 +10337,7 @@
         <v>354</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10335,7 +10353,7 @@
         <v>357</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10436,7 +10454,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>381</v>
@@ -10444,7 +10462,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>380</v>
@@ -10596,18 +10614,18 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10623,23 +10641,23 @@
         <v>413</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10660,18 +10678,18 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10748,10 +10766,10 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -10796,15 +10814,15 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>623</v>
@@ -10828,7 +10846,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B76" t="s">
         <v>238</v>
@@ -10844,7 +10862,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="9" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>421</v>
@@ -10988,7 +11006,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>550</v>
@@ -10999,47 +11017,47 @@
         <v>741</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -11052,50 +11070,50 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B104" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B105" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -12577,10 +12595,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12599,7 +12617,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B2" t="s">
         <v>908</v>
@@ -12607,890 +12625,890 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>911</v>
-      </c>
-      <c r="B10" t="s">
-        <v>910</v>
+      <c r="A10" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>912</v>
-      </c>
-      <c r="B11" t="s">
-        <v>909</v>
+      <c r="A11" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B12" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B13" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B14" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B15" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B16" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B17" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B18" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B19" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B21" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B22" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B23" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B24" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B25" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B26" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B27" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B28" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B29" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B30" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B31" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B32" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B33" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B34" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B35" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B36" t="s">
-        <v>1140</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B37" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B38" t="s">
-        <v>962</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B39" t="s">
-        <v>1141</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B40" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B41" t="s">
-        <v>969</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B42" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B43" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B44" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>978</v>
+        <v>1793</v>
       </c>
       <c r="B45" t="s">
-        <v>973</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B46" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B47" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B48" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B49" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B50" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B51" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B52" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B53" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B54" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B55" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B56" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B57" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B58" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B59" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B60" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B61" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B62" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B63" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B64" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B65" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B66" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B67" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B68" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B69" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B70" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B71" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B72" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B73" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B74" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B75" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B76" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="B77" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="B78" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>1154</v>
+        <v>1042</v>
       </c>
       <c r="B79" t="s">
-        <v>1153</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>1155</v>
+        <v>1043</v>
       </c>
       <c r="B80" t="s">
-        <v>1152</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>1156</v>
+        <v>1044</v>
       </c>
       <c r="B81" t="s">
-        <v>1157</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1051</v>
+        <v>1152</v>
       </c>
       <c r="B82" t="s">
-        <v>1045</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>1052</v>
+        <v>1153</v>
       </c>
       <c r="B83" t="s">
-        <v>1046</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1053</v>
+        <v>1154</v>
       </c>
       <c r="B84" t="s">
-        <v>1047</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B85" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B86" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B87" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B88" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B89" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B90" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B91" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B92" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B93" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="B94" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="B95" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="B96" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B97" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B98" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B99" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B100" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B101" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B102" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B103" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B104" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B105" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B106" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B107" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B108" t="s">
-        <v>1196</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="B109" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="B110" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="B111" t="s">
-        <v>1100</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B112" t="s">
-        <v>1101</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B113" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -13498,183 +13516,239 @@
         <v>1117</v>
       </c>
       <c r="B114" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B115" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B116" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B117" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B118" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B119" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B120" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B121" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B122" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B123" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B124" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B125" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B126" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>783</v>
+        <v>1131</v>
       </c>
       <c r="B127" t="s">
-        <v>778</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>1132</v>
       </c>
       <c r="B128" t="s">
-        <v>735</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B129" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>1164</v>
+        <v>783</v>
       </c>
       <c r="B130" t="s">
-        <v>1163</v>
+        <v>778</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>889</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>1158</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="B132" t="s">
-        <v>1159</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B133" t="s">
-        <v>1161</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>1166</v>
+        <v>889</v>
       </c>
       <c r="B134" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B137" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>636</v>
       </c>
-      <c r="B136" t="s">
-        <v>1168</v>
+      <c r="B138" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>865</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1803</v>
       </c>
     </row>
   </sheetData>

--- a/KULS_Sankar/TestData/IjaraJSPaths.xlsx
+++ b/KULS_Sankar/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="21072" windowHeight="8268" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="AssetDetails_Elements" sheetId="12" r:id="rId11"/>
     <sheet name="AddressDetails_Elements" sheetId="13" r:id="rId12"/>
     <sheet name="RepaymentMode_Elements" sheetId="14" r:id="rId13"/>
+    <sheet name="ContactDetails_Elements" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1819">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5441,6 +5442,48 @@
   </si>
   <si>
     <t>customerEmploymentScreen</t>
+  </si>
+  <si>
+    <t>ContactDetails_FieldName</t>
+  </si>
+  <si>
+    <t>consentForPhContact</t>
+  </si>
+  <si>
+    <t>consentForPhContactLabel</t>
+  </si>
+  <si>
+    <t>consentForPhContactDropdown</t>
+  </si>
+  <si>
+    <t>preferedPhContactType</t>
+  </si>
+  <si>
+    <t>preferedPhContactTypeLabel</t>
+  </si>
+  <si>
+    <t>preferedPhContactTypeDropdown</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontact</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontactLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Email Details"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Phone Details"]')</t>
+  </si>
+  <si>
+    <t>phoneDetailsSection</t>
+  </si>
+  <si>
+    <t>emailDetailsSection</t>
+  </si>
+  <si>
+    <t>preferredtimeofcontactInput</t>
   </si>
 </sst>
 </file>
@@ -7576,7 +7619,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7735,6 +7778,225 @@
       </c>
       <c r="B19" t="s">
         <v>1129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B15" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>824</v>
+      </c>
+      <c r="B18" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B19" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>829</v>
+      </c>
+      <c r="B20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>831</v>
+      </c>
+      <c r="B22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -12597,7 +12859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
